--- a/update_assets/input.xlsx
+++ b/update_assets/input.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>בואו</t>
+          <t>floating.1-tr</t>
         </is>
       </c>
       <c r="C12" t="b">
@@ -627,6 +627,1037 @@
         </is>
       </c>
       <c r="C13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>login.label</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Happy to see you</t>
+        </is>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>login.id_card_number.label</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ID Card Number</t>
+        </is>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>login.phone.label</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Phone Number</t>
+        </is>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>login.placeholder</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Happy to see you</t>
+        </is>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>login.entry</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>login.entry_customer</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Customer entry</t>
+        </is>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>login.entry_advisor</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Advisor entry</t>
+        </is>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Required</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Required</t>
+        </is>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Not valid israeli id number</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Not valid israeli id number</t>
+        </is>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>otp.label</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Confirmation and continue</t>
+        </is>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>otp.placeholder</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Sent you confirmation code in SMS message</t>
+        </is>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>otp.pin.label</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>What is your code</t>
+        </is>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>otp.entry_customer</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Customer entry</t>
+        </is>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>otp.entry_advisor</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Advisor entry</t>
+        </is>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>String must contain at least 6 character(s)</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>String must contain at least 6 character(s)</t>
+        </is>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Token has expired or is invalid</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Token has expired or is invalid</t>
+        </is>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Not a valid phone number</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Not a valid phone number</t>
+        </is>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Error sending sms otp: vonage error: Quota Exceeded - rejected (status: 9)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Error sending sms otp: vonage error: Quota Exceeded - rejected (status: 9)</t>
+        </is>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>about.header</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>about.header</t>
+        </is>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>about.buy</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>about.buy</t>
+        </is>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>about.tech.header</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>about.tech.header</t>
+        </is>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>about.tech.text</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>about.tech.text</t>
+        </is>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>about.vision.header</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>about.vision.header</t>
+        </is>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>about.vision.text</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>about.vision.text</t>
+        </is>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>about.vision.header_2</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>about.vision.header_2</t>
+        </is>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>about.vison.text</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>about.vison.text</t>
+        </is>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>about.us</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>about.us</t>
+        </is>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>about.aboutus.header</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>about.aboutus.header</t>
+        </is>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>about.profile.1.name</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>about.profile.1.name</t>
+        </is>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>about.profile.1.role_en</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>about.profile.1.role_en</t>
+        </is>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>about.profile.1.role_he</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>about.profile.1.role_he</t>
+        </is>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>about.profile.1.text</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>about.profile.1.text</t>
+        </is>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>about.profile.2.name</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>about.profile.2.name</t>
+        </is>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>about.profile.2.role_en</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>about.profile.2.role_en</t>
+        </is>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>about.profile.2.role_he</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>about.profile.2.role_he</t>
+        </is>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>about.profile.2.text</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>about.profile.2.text</t>
+        </is>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>about.profile.3.name</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>about.profile.3.name</t>
+        </is>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>about.profile.3.role_en</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>about.profile.3.role_en</t>
+        </is>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>about.profile.3.role_he</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>about.profile.3.role_he</t>
+        </is>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>about.profile.3.text</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>about.profile.3.text</t>
+        </is>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>faq.header</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>faq.header</t>
+        </is>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>faq.text</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>faq.text</t>
+        </is>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>faq.questions.header</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>faq.questions.header</t>
+        </is>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>faq.contact.header</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>faq.contact.header</t>
+        </is>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>faq.contact.text</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>faq.contact.text</t>
+        </is>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>price.0.1</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>price.0.1</t>
+        </is>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>price.0.2</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>price.0.2</t>
+        </is>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>price.0.3</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>price.0.3</t>
+        </is>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>price.0.4</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>price.0.4</t>
+        </is>
+      </c>
+      <c r="C62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>price.0.5</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>price.0.5</t>
+        </is>
+      </c>
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>price.1.name</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>price.1.name</t>
+        </is>
+      </c>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>price.1.price</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>price.1.price</t>
+        </is>
+      </c>
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>price.2.name</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>price.2.name</t>
+        </is>
+      </c>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>price.2.price</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>price.2.price</t>
+        </is>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>price.3.name</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>price.3.name</t>
+        </is>
+      </c>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>price.3.price</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>price.3.price</t>
+        </is>
+      </c>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>price.3.extra_line</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>price.3.extra_line</t>
+        </is>
+      </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>price.header</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>price.header</t>
+        </is>
+      </c>
+      <c r="C71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>price.text</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>price.text</t>
+        </is>
+      </c>
+      <c r="C72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>price.header2</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>price.header2</t>
+        </is>
+      </c>
+      <c r="C73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>security.header</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>security.header</t>
+        </is>
+      </c>
+      <c r="C74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>security.text</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>security.text</t>
+        </is>
+      </c>
+      <c r="C75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>security.header2</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>security.header2</t>
+        </is>
+      </c>
+      <c r="C76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>security.text1</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>security.text1</t>
+        </is>
+      </c>
+      <c r="C77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>security.text2</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>security.text2</t>
+        </is>
+      </c>
+      <c r="C78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>security.logo.1</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>security.logo.1</t>
+        </is>
+      </c>
+      <c r="C79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>security.logo.2</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>security.logo.2</t>
+        </is>
+      </c>
+      <c r="C80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>security.logo.3</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>security.logo.3</t>
+        </is>
+      </c>
+      <c r="C81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>contact.header</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>contact.header</t>
+        </is>
+      </c>
+      <c r="C82" t="b">
         <v>0</v>
       </c>
     </row>

--- a/update_assets/input.xlsx
+++ b/update_assets/input.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nadav\Documents\ALL_PROJECTS\smapy\update_assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BDD552-A678-4B8E-A83B-D8B5ED30C2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A4C160-5095-409F-A5ED-0FFAC77C61F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44880" yWindow="-6825" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="101">
   <si>
     <t>key</t>
   </si>
@@ -182,117 +169,106 @@
     <t>index.sections.7.header</t>
   </si>
   <si>
-    <t xml:space="preserve"> קודבל ואוב
-!ונלש חוטיבה יריחמ תא</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> םלתשמה חוטיבה תא םכל הגישמ יפאמס
-!קודב הז ,רתויב</t>
-  </si>
-  <si>
-    <t>םייח חוטיב</t>
-  </si>
-  <si>
-    <t>השיכרו האוושהל</t>
-  </si>
-  <si>
-    <t>התנכשמ חוטיב</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> הריד חוטיב</t>
-  </si>
-  <si>
-    <t>פלטפורמת הביטוח המתקדמת ביותר  בישראל</t>
-  </si>
-  <si>
-    <t xml:space="preserve">םיישונא םיסנניפו חוטיב יחמומו היגולונכט תבלשמה תינשדח חוטיב תמרופטלפ איה Smapy </t>
-  </si>
-  <si>
-    <t>.דחא קילקב רתויב םלתשמהו ןוכנה חוטיבה תא שוכרל םכל רוזעתש ,AI תססובמ המרופטלפ
-  ןוכדע תועצמאב דימת רתויב בוטה חוטיבה תא םכל היהיש גאדתש ,תונשדחו תופיקשמ ונהת Smapy - ב
-.חוטיבה תויולעב םילקש יפלא תואמ דעו רקי ןמז ךוסחל ולכותש ךכ ,יטמוטוא ןפואב םכלש םיישיאה םיטרפהו הסילופה</t>
-  </si>
-  <si>
-    <t>דבוע הז ךיא</t>
-  </si>
-  <si>
-    <t>תורכיה</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> תא םכרובע רתאל לכונש ידכ
- וכרטצת ,רתויב תובוטה תועצהה
- רחא דימו ,םיטרפ 'סמ אלמל
- שופיחב םיליחתמ ונא ךכ
-.רתויב תמלתשמה העצהה</t>
-  </si>
-  <si>
-    <t>תועצה תלבק</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> תועצה תא םכל גיצת Smapy
- תומלתשמהו תובוטה חוטיבה
- םכל רוזעתו םכרובע רתויב
- המכח הרוצב חוטיב שוכרל
-.דיתעב תועתפה ענמתש</t>
-  </si>
-  <si>
-    <t>השיכר</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> הבוטה העצהב ורחבתש ירחא
- תא תונקל ולכות ,רתויב
- 'קד 5 -ב ןייל ןוא חוטיבה
- שאר יבאכ ןומה ךוסחלו
-.רקי ןמזו</t>
+    <t>index.sections.7.text</t>
+  </si>
+  <si>
+    <t>faq.header</t>
+  </si>
+  <si>
+    <t>faq.text</t>
+  </si>
+  <si>
+    <t>faq.questions.header</t>
+  </si>
+  <si>
+    <t>faq.contact.header</t>
+  </si>
+  <si>
+    <t>faq.contact.text</t>
+  </si>
+  <si>
+    <t>בואו לבדוק את מחירי הביטוח שלנו!</t>
+  </si>
+  <si>
+    <t>סמאפי משיגה לכם את הביטוח המשתלם ביותר, זה בדוק!</t>
+  </si>
+  <si>
+    <t>ביטוח חיים</t>
+  </si>
+  <si>
+    <t>ביטוח משכנתה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ביטוח דירה </t>
+  </si>
+  <si>
+    <t>להשוואה ורכישה</t>
+  </si>
+  <si>
+    <t>פלטפורמת הביטוח המתקדמת ביותר בישראל</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Smapy היא פלטפורמת ביטוח חדשנית המשלבת טכנולוגיה ומומחי ביטוח ופיננסים אנושיים</t>
+  </si>
+  <si>
+    <t>פלטפורמה מבוססת AI, שתעזור לכם לרכוש את הביטוח הנכון והמשתלם ביותר בקליק אחד. ב - Smapy תהנו משקיפות וחדשנות, שתדאג שיהיה לכם את הביטוח הטוב ביותר תמיד באמצעות עדכון הפוליסה והפרטים האישיים שלכם באופן אוטומטי, כך שתוכלו לחסוך זמן יקר ועד מאות אלפי שקלים בעלויות הביטוח.</t>
+  </si>
+  <si>
+    <t>איך זה עובד</t>
+  </si>
+  <si>
+    <t>היכרות</t>
+  </si>
+  <si>
+    <t>כדי שנוכל לאתר עבורכם את ההצעות הטובות ביותר, תצטרכו למלא מס' פרטים, ומיד אחר כך אנו מתחילים בחיפוש ההצעה המשתלמת ביותר.</t>
+  </si>
+  <si>
+    <t>קבלת הצעות</t>
+  </si>
+  <si>
+    <t>Smapy תציג לכם את הצעות הביטוח הטובות והמשתלמות ביותר עבורכם ותעזור לכם לרכוש ביטוח בצורה חכמה שתמנע הפתעות בעתיד.</t>
+  </si>
+  <si>
+    <t>רכישה</t>
+  </si>
+  <si>
+    <t>אחרי שתבחרו בהצעה הטובה ביותר, תוכלו לקנות את הביטוח און ליין ב- 5 דק' ולחסוך המון כאבי ראש וזמן יקר.</t>
   </si>
   <si>
     <t>איתכם לאורך כל הדרך</t>
   </si>
   <si>
-    <t xml:space="preserve">.טקש שארב תויהל ולכות וישכעמ
- ירחא בקעמב היהת יפאמס
- לכ ךרואל םכלש חוטיבה
- םכתא ןכדעל גאדתו וייח
-.דימת רתויב תמלתשמה העצהב </t>
-  </si>
-  <si>
-    <t>ךריחבל תורבח ןווגמ</t>
-  </si>
-  <si>
-    <t>-ב רוחבל תוביס עברא'</t>
+    <t>מעכשיו תוכלו להיות בראש שקט. סמאפי תהיה במעקב אחרי הביטוח שלכם לאורך כל חייו ותדאג לעדכן אתכם בהצעה המשתלמת ביותר תמיד.</t>
+  </si>
+  <si>
+    <t>מגוון חברות לבחירך</t>
+  </si>
+  <si>
+    <t>ארבע סיבות לבחור ב-</t>
   </si>
   <si>
     <t>ביטוח מותאם אישית</t>
   </si>
   <si>
-    <t>םיעדוי ונא ,ונחתיפש היגולונכטה תרזעב
-בוטהו ןוכנה חוטיבה תא םכל םיאתהל
-םכלש םיישיאה םינותנל םאותה ,רתויב
-.דיל הפפכ ומכ שממ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">הפוקש םיריחמ תאוושה </t>
-  </si>
-  <si>
-    <t>חוטיבה תורבחמ םילבקמ ונאש הלמעה זוחא
-תועצה תא םילבקמ םתא ןכלו ןלוכ ןיב ההז
-.סרטניא םוש אללו רתויב תובוטה ריחמה</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ישפנ טקשו תונשדח </t>
-  </si>
-  <si>
-    <t>חוטיבה יאנתו ריחמ ירחא בקוע ונלש םתירוגלאה
-תיטמוטוא םיריחמ תאוושה עצבמו םכלש
-.היהתש רתויב הבוטה העצהל ןוכדעו</t>
-  </si>
-  <si>
-    <t>בוט םישוע</t>
-  </si>
-  <si>
-    <t>ונלש חוורהמ קלח םימרות ונא חוטיב תשיכר לכב
-רשאכ םידבוע ונא םתיא םינוגראהמ דחאל
-.ונובשח לע אלו חוקלה םשב היהת המורתה</t>
+    <t>בעזרת הטכנולוגיה שפיתחנו, אנו יודעים להתאים לכם את הביטוח הנכון והטוב ביותר, התואם לנתונים האישיים שלכם ממש כמו כפפה ליד.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> השוואת מחירים שקופה</t>
+  </si>
+  <si>
+    <t>אחוז העמלה שאנו מקבלים מחברות הביטוח זהה בין כולן ולכן אתם מקבלים את הצעות המחיר הטובות ביותר וללא שום אינטרס.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> חדשנות ושקט נפשי</t>
+  </si>
+  <si>
+    <t>האלגוריתם שלנו עוקב אחרי מחיר ותנאי הביטוח שלכם ומבצע השוואת מחירים אוטומטית ועדכון להצעה הטובה ביותר שתהיה.</t>
+  </si>
+  <si>
+    <t>עושים טוב</t>
+  </si>
+  <si>
+    <t>בכל רכישת ביטוח אנו תורמים חלק מהרווח שלנו לאחד מהארגונים איתם אנו עובדים כאשר התרומה תהיה בשם הלקוח ולא על חשבונו.</t>
   </si>
   <si>
     <t>מה אומרים עלינו</t>
@@ -328,10 +304,25 @@
     <t>מה יקרה מיד לאחר התשלום?</t>
   </si>
   <si>
-    <t>&lt; תופסונ תולאשל</t>
-  </si>
-  <si>
-    <t>!רוזעל חמשנ</t>
+    <t>לשאלות נוספות &gt;</t>
+  </si>
+  <si>
+    <t>נשמח לעזור!</t>
+  </si>
+  <si>
+    <t>בכל דרך שתבחרו..</t>
+  </si>
+  <si>
+    <t>שאלות ותשובות נפוצות</t>
+  </si>
+  <si>
+    <t>רתויב תוצופנה תולאשה תא םכרובע ונזכיר ?רורב אל והשמ</t>
+  </si>
+  <si>
+    <t>צריכים מידע נוסף?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> אנו זמינים לכל שאלה או בקשה!</t>
   </si>
 </sst>
 </file>
@@ -349,7 +340,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -393,15 +387,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -463,7 +453,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -495,9 +485,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -529,6 +537,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -705,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,26 +750,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>49</v>
+      <c r="B2" t="s">
+        <v>55</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>50</v>
+      <c r="B3" t="s">
+        <v>56</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -751,10 +777,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -762,10 +788,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -773,10 +799,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -784,10 +810,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -795,30 +821,32 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>57</v>
+      <c r="B10" t="s">
+        <v>63</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -826,10 +854,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -837,21 +865,21 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>60</v>
+      <c r="B13" t="s">
+        <v>66</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -859,21 +887,21 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>62</v>
+      <c r="B15" t="s">
+        <v>68</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -881,21 +909,21 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>64</v>
+      <c r="B17" t="s">
+        <v>70</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -903,19 +931,21 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>66</v>
+      <c r="B19" t="s">
+        <v>72</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -923,21 +953,21 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>68</v>
+      <c r="B21" t="s">
+        <v>74</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -945,19 +975,21 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>70</v>
+      <c r="B23" t="s">
+        <v>76</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -965,21 +997,21 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>72</v>
+      <c r="B25" t="s">
+        <v>78</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -987,21 +1019,21 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>74</v>
+      <c r="B27" t="s">
+        <v>80</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1009,21 +1041,21 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="270" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>76</v>
+      <c r="B29" t="s">
+        <v>82</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1031,19 +1063,21 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1051,10 +1085,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1062,10 +1096,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1073,10 +1107,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1084,10 +1118,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1095,10 +1129,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1106,10 +1140,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1117,10 +1151,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1128,18 +1162,22 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -1149,7 +1187,7 @@
         <v>42</v>
       </c>
       <c r="C41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1157,9 +1195,11 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -1169,7 +1209,7 @@
         <v>44</v>
       </c>
       <c r="C43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1177,9 +1217,11 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -1189,7 +1231,7 @@
         <v>46</v>
       </c>
       <c r="C45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1197,10 +1239,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1208,13 +1250,79 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="2">
         <v>1</v>
       </c>
     </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/update_assets/input.xlsx
+++ b/update_assets/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nadav\Documents\ALL_PROJECTS\smapy\update_assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4396C045-A81E-4F60-8A25-BCF023F4BAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D6875C-AB55-4E03-B4D5-7BA6C843A44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-6825" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>key</t>
   </si>
@@ -31,135 +31,52 @@
     <t>format_flag</t>
   </si>
   <si>
-    <t>about.header</t>
-  </si>
-  <si>
-    <t>about.buy</t>
-  </si>
-  <si>
-    <t>about.tech.header</t>
-  </si>
-  <si>
-    <t>about.tech.text</t>
-  </si>
-  <si>
-    <t>about.vision.header</t>
-  </si>
-  <si>
-    <t>about.vision.header_2</t>
-  </si>
-  <si>
-    <t>about.vision.text</t>
-  </si>
-  <si>
-    <t>about.profile.1.name</t>
-  </si>
-  <si>
-    <t>about.profile.1.role_en</t>
-  </si>
-  <si>
-    <t>about.profile.1.role_he</t>
-  </si>
-  <si>
-    <t>about.profile.1.text</t>
-  </si>
-  <si>
-    <t>about.profile.2.name</t>
-  </si>
-  <si>
-    <t>about.profile.2.role_en</t>
-  </si>
-  <si>
-    <t>about.profile.2.role_he</t>
-  </si>
-  <si>
-    <t>about.profile.2.text</t>
-  </si>
-  <si>
-    <t>about.profile.3.name</t>
-  </si>
-  <si>
-    <t>about.profile.3.role_en</t>
-  </si>
-  <si>
-    <t>about.profile.3.role_he</t>
-  </si>
-  <si>
-    <t>about.profile.3.text</t>
-  </si>
-  <si>
-    <t>about.about_us.header</t>
-  </si>
-  <si>
-    <t>קליק אחד ותוכלו לחסוך עד עשרות אלפי שקלים בביטוח.</t>
-  </si>
-  <si>
-    <t>חוטיב תשיכרל</t>
-  </si>
-  <si>
-    <t>טכנולוגיה, חדשנות ושקיפות</t>
-  </si>
-  <si>
-    <t xml:space="preserve">לשמחת כולנו, אנו חיים בעידן בו הטכנולוגיה יוצאת מן הכלל ועוזרת למין האנושי באינספור תחומים כדי להפוך את החיים לטובים יותר.
-מהיום, גם בביטוחים שלכם, סמאפי תוכל לבצע לכם אופטימיזציה באמצעות טכנולוגיה ייחודית שפיתחנו, ובכך לחסוך לכם כאבי ראש,
-זמן יקר והמון כסף, תוך כדי שקיפות מלאה, פשטות וחווית שירות שטרם הכרתם. רוב האנשים נאלצים לסמוך על מה שנציגי המכירות 
-אומרים להם, אבל עם Smapy זה אחרת - סמאפי מציגה לכם את הצעות הביטוח המשתלמות ביותר ותמליץ לכם על הביטוח הטוב ביותר.
-איך אנחנו עושים זאת? פשוט מאוד, יצרנו מודל עסקי מול חברות הביטוח בו אנו מקבלים עמלה אחידה וזהה, כך אנו יכולים להבטיח לכם 
-שההצעות וההמלצות שתקבלו מאיתנו הן שקופות, אובייקטיביות ונטולות אינטרס. 
-סמאפי מחפשת את ההצעות הטובות ביותר בין חברות הביטוח ובין עשרות מסלולים שהן מציעות עד שאתם מקבלים את ההצעה המשתלמת
-ביותר. אם תמצאו הצעה טובה יותר – תקבלו מאיתנו שירות ללא כל עלות! חשוב לציין שלצד הטכנולוגיה, תוכלו לקבל שירות ממומחי
- ביטוח ופיננסים שישמחו לעזור ולתת לכם את המענה הטוב ביותר לכל שאלה או בקשה. </t>
-  </si>
-  <si>
-    <t>החזון של סמאפי</t>
-  </si>
-  <si>
-    <t>לשנות את עולם הביטוח לפשוט, שקוף ומשתלם לכולם!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ונלגיד לע ונטרח .תחאו דחא לכל ,רתויב לוזהו בוטה חוטיבה תשיכרל רתויב בוטה ןורתפה תויהל ידכ המקוה יפאמס
- ,ורובע רתויב לוזהו בוטה חוטיבה תא לבקל ליג לכב םדא לכל רשפאל ידכ תורישהו תונשדחה ,תופיקשה אשונ תא
-תיברימ תוחונו תופיקש ,תוטשפב לכה .חוטיב הלימה תא עמושש סאבתהל וא ,השתה תמחלמ רובעל ךרטציש ילבמ
-.םכרובע רתויב בוטה ןורתפה תויהל ונל םירשפאמ ,ישונאה יווילה םע דחי ,ונחתיפש היגולונכטה תועצמאב תאזו </t>
-  </si>
-  <si>
-    <t>זבלא ןדרו'ג</t>
-  </si>
-  <si>
-    <t>יקסלש ליג</t>
-  </si>
-  <si>
-    <t>דבוע לאומש ילומ</t>
-  </si>
-  <si>
-    <t>Co-Founder &amp; CEO</t>
-  </si>
-  <si>
-    <t>מייסד ומנכ’’ל משותף</t>
-  </si>
-  <si>
-    <t>יזם, מומחה בתכנון פיננסי, פנסיוני וניהול סיכונים. בעל רישיון ממשרד האוצר, מנהל הון, ביטוח וחסכונות למאות משפחות בישראל. מעל 10 שנות ניסיון בביטוח, חסכון ושוק ההון. בוגר קורסים בתחום משכנתאות, נדל''ן, שוק ההון פנסיה וביטוח.</t>
-  </si>
-  <si>
-    <t>Chairman and founder Co</t>
-  </si>
-  <si>
-    <t xml:space="preserve">מייסד ויושב ראש </t>
-  </si>
-  <si>
-    <t>מומחה בביטוח חיים וביטוח פנסיוני. כיהן במגוון תפקידי ניהול בכירים בחברות הביטוח הגדולות במשק. מתמחה בבניית מוצרי ביטוח לחברות הגדולות במשק.</t>
-  </si>
-  <si>
-    <t>Co-Founder &amp; CTO</t>
-  </si>
-  <si>
-    <t>מייסד וסמנכ’’ל טכנולוגיות.</t>
-  </si>
-  <si>
-    <t>יזם, מנהל פיתוח וארכיטרקט  תוכנה, מעל 20 שנות ניסיון בניהול ופיתוח טכנולוגיות, הקים וניהל קבוצות פיתוח והוביל פיתוח מוצרים מורכבים במספר חברות.</t>
-  </si>
-  <si>
-    <t>מי אנחנו</t>
+    <t>index.sections.6.faqs.1.a</t>
+  </si>
+  <si>
+    <t>index.sections.6.faqs.2.q</t>
+  </si>
+  <si>
+    <t>index.sections.6.faqs.2.a</t>
+  </si>
+  <si>
+    <t>index.sections.6.faqs.3.q</t>
+  </si>
+  <si>
+    <t>index.sections.6.faqs.3.a</t>
+  </si>
+  <si>
+    <t>index.sections.6.more_faqs</t>
+  </si>
+  <si>
+    <t>index.sections.7.header</t>
+  </si>
+  <si>
+    <t>index.sections.7.text</t>
+  </si>
+  <si>
+    <t>האם ההשוואה נעשית מול כל חברות הביטוח?</t>
+  </si>
+  <si>
+    <t>מה יקרה מיד לאחר התשלום?</t>
+  </si>
+  <si>
+    <t>לשאלות נוספות &gt;</t>
+  </si>
+  <si>
+    <t>נשמח לעזור!</t>
+  </si>
+  <si>
+    <t>בכל דרך שתבחרו..</t>
+  </si>
+  <si>
+    <t>כן! סמאפי מבצעת השוואת מחירים מול כל חברות הביטוח הגדולות (הראל, פניקס, מגדל, איילון, כלל, הכשרה ומנורה) בהתאם לפרופיל הלקוח ולתנאי הביטוח שצריך. ההשוואה מתבצעת בין כל החברות וגם בין עשרות המסלולים שכל חברה מציע ומציגה את התוצאות הטובות ביותר שהתקבלו.</t>
+  </si>
+  <si>
+    <t>כן! ההשוואה נעשית בדרך כלל מול שבע חברות ביטוח ומציגה את ההצעות הזולות ביותר בהתאם לביטוח הדרוש ולפרופיל שלך כלקוח.</t>
+  </si>
+  <si>
+    <t>מיד לאחר התשלום, תקבל מייל עם אישור רכישת הביטוח. במידה ואין כל בעיה רפואית, תקבל גם את פוליסת הביטוח שלך. בנוסף, ישלח לך קישור לאזור האישי שלך, בו תוכל להתעדכן בסטטוס רכישת הביטוח. לדו'ג אם חברת הביטוח תצטרך ממך מסמך כלשהו, תוכל לראות זאת באיזור האישי וגם נעדכן במייל ובהודעת וואטסאפ לנוחיות מירבית. בנוסף לכל זה, סמאפי ממנה מומחה ביטוח שידאג להיות איתך בקשר לכל שאלה או בקשה.</t>
   </si>
 </sst>
 </file>
@@ -183,18 +100,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -224,14 +135,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,9 +502,9 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2">
+        <v>16</v>
+      </c>
+      <c r="C2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -606,10 +513,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -617,20 +524,20 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -639,9 +546,9 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="2">
+        <v>18</v>
+      </c>
+      <c r="C6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -650,21 +557,21 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -672,141 +579,9 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="C9" t="b">
         <v>0</v>
       </c>
     </row>

--- a/update_assets/input.xlsx
+++ b/update_assets/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nadav\Documents\ALL_PROJECTS\smapy\update_assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D6875C-AB55-4E03-B4D5-7BA6C843A44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6302BFA-6243-435F-9AC1-BB54CE37C24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-6825" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="196">
   <si>
     <t>key</t>
   </si>
@@ -31,6 +31,123 @@
     <t>format_flag</t>
   </si>
   <si>
+    <t>index.header</t>
+  </si>
+  <si>
+    <t>index.header_2</t>
+  </si>
+  <si>
+    <t>index.floating.1</t>
+  </si>
+  <si>
+    <t>index.floating.2</t>
+  </si>
+  <si>
+    <t>index.floating.3</t>
+  </si>
+  <si>
+    <t>index.floating.link_text</t>
+  </si>
+  <si>
+    <t>index.sections.1.header</t>
+  </si>
+  <si>
+    <t>index.sections.1.text.1</t>
+  </si>
+  <si>
+    <t>index.sections.1.text.2</t>
+  </si>
+  <si>
+    <t>index.sections.2.header</t>
+  </si>
+  <si>
+    <t>index.sections.2.steps.1.title</t>
+  </si>
+  <si>
+    <t>index.sections.2.steps.1.text</t>
+  </si>
+  <si>
+    <t>index.sections.2.steps.2.title</t>
+  </si>
+  <si>
+    <t>index.sections.2.steps.2.text</t>
+  </si>
+  <si>
+    <t>index.sections.2.steps.3.title</t>
+  </si>
+  <si>
+    <t>index.sections.2.steps.3.text</t>
+  </si>
+  <si>
+    <t>index.sections.2.steps.4.title</t>
+  </si>
+  <si>
+    <t>index.sections.2.steps.4.text</t>
+  </si>
+  <si>
+    <t>index.sections.3.header</t>
+  </si>
+  <si>
+    <t>index.sections.4.header</t>
+  </si>
+  <si>
+    <t>index.sections.4.reasons.1.title</t>
+  </si>
+  <si>
+    <t>index.sections.4.reasons.1.text</t>
+  </si>
+  <si>
+    <t>index.sections.4.reasons.2.title</t>
+  </si>
+  <si>
+    <t>index.sections.4.reasons.2.text</t>
+  </si>
+  <si>
+    <t>index.sections.4.reasons.3.title</t>
+  </si>
+  <si>
+    <t>index.sections.4.reasons.3.text</t>
+  </si>
+  <si>
+    <t>index.sections.4.reasons.4.title</t>
+  </si>
+  <si>
+    <t>index.sections.4.reasons.4.text</t>
+  </si>
+  <si>
+    <t>index.sections.5.header</t>
+  </si>
+  <si>
+    <t>index.sections.5.cards.1.name</t>
+  </si>
+  <si>
+    <t>index.sections.5.cards.1.text</t>
+  </si>
+  <si>
+    <t>index.sections.5.cards.2.name</t>
+  </si>
+  <si>
+    <t>index.sections.5.cards.2.text</t>
+  </si>
+  <si>
+    <t>index.sections.5.cards.3.name</t>
+  </si>
+  <si>
+    <t>index.sections.5.cards.3.text</t>
+  </si>
+  <si>
+    <t>index.sections.5.cards.4.name</t>
+  </si>
+  <si>
+    <t>index.sections.5.cards.4.text</t>
+  </si>
+  <si>
+    <t>index.sections.6.header</t>
+  </si>
+  <si>
+    <t>index.sections.6.faqs.1.q</t>
+  </si>
+  <si>
     <t>index.sections.6.faqs.1.a</t>
   </si>
   <si>
@@ -55,12 +172,291 @@
     <t>index.sections.7.text</t>
   </si>
   <si>
+    <t>faq.header</t>
+  </si>
+  <si>
+    <t>faq.text</t>
+  </si>
+  <si>
+    <t>faq.questions.header</t>
+  </si>
+  <si>
+    <t>faq.contact.header</t>
+  </si>
+  <si>
+    <t>faq.contact.text</t>
+  </si>
+  <si>
+    <t>about.header</t>
+  </si>
+  <si>
+    <t>about.buy</t>
+  </si>
+  <si>
+    <t>about.tech.header</t>
+  </si>
+  <si>
+    <t>about.tech.text</t>
+  </si>
+  <si>
+    <t>about.vision.header</t>
+  </si>
+  <si>
+    <t>about.vision.header_2</t>
+  </si>
+  <si>
+    <t>about.vision.text</t>
+  </si>
+  <si>
+    <t>about.profile.1.name</t>
+  </si>
+  <si>
+    <t>about.profile.1.role_en</t>
+  </si>
+  <si>
+    <t>about.profile.1.role_he</t>
+  </si>
+  <si>
+    <t>about.profile.1.text</t>
+  </si>
+  <si>
+    <t>about.profile.2.name</t>
+  </si>
+  <si>
+    <t>about.profile.2.role_en</t>
+  </si>
+  <si>
+    <t>about.profile.2.role_he</t>
+  </si>
+  <si>
+    <t>about.profile.2.text</t>
+  </si>
+  <si>
+    <t>about.profile.3.name</t>
+  </si>
+  <si>
+    <t>about.profile.3.role_en</t>
+  </si>
+  <si>
+    <t>about.profile.3.role_he</t>
+  </si>
+  <si>
+    <t>about.profile.3.text</t>
+  </si>
+  <si>
+    <t>about.about_us.header</t>
+  </si>
+  <si>
+    <t>price.0.1</t>
+  </si>
+  <si>
+    <t>price.0.2</t>
+  </si>
+  <si>
+    <t>price.0.3</t>
+  </si>
+  <si>
+    <t>price.0.4</t>
+  </si>
+  <si>
+    <t>price.0.5</t>
+  </si>
+  <si>
+    <t>price.1.name</t>
+  </si>
+  <si>
+    <t>price.1.price</t>
+  </si>
+  <si>
+    <t>price.2.name</t>
+  </si>
+  <si>
+    <t>price.2.price</t>
+  </si>
+  <si>
+    <t>price.3.name</t>
+  </si>
+  <si>
+    <t>price.3.price</t>
+  </si>
+  <si>
+    <t>price.3.extra_line</t>
+  </si>
+  <si>
+    <t>price.header</t>
+  </si>
+  <si>
+    <t>price.text</t>
+  </si>
+  <si>
+    <t>price.header2</t>
+  </si>
+  <si>
+    <t>price.cost</t>
+  </si>
+  <si>
+    <t>price.cost_service</t>
+  </si>
+  <si>
+    <t>price.free</t>
+  </si>
+  <si>
+    <t>price.footer</t>
+  </si>
+  <si>
+    <t>price.footer2</t>
+  </si>
+  <si>
+    <t>security.header</t>
+  </si>
+  <si>
+    <t>security.text</t>
+  </si>
+  <si>
+    <t>security.header2</t>
+  </si>
+  <si>
+    <t>security.text1</t>
+  </si>
+  <si>
+    <t>security.text2</t>
+  </si>
+  <si>
+    <t>security.logo.1</t>
+  </si>
+  <si>
+    <t>security.logo.2</t>
+  </si>
+  <si>
+    <t>security.logo.3</t>
+  </si>
+  <si>
+    <t>בואו לבדוק את מחירי הביטוח שלנו!</t>
+  </si>
+  <si>
+    <t>סמאפי משיגה לכם את הביטוח המשתלם ביותר, זה בדוק!</t>
+  </si>
+  <si>
+    <t>ביטוח חיים</t>
+  </si>
+  <si>
+    <t>ביטוח משכנתה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ביטוח דירה </t>
+  </si>
+  <si>
+    <t>להשוואה ורכישה</t>
+  </si>
+  <si>
+    <t>פלטפורמת הביטוח המתקדמת ביותר בישראל</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Smapy היא פלטפורמת ביטוח חדשנית המשלבת טכנולוגיה ומומחי ביטוח ופיננסים אנושיים</t>
+  </si>
+  <si>
+    <t>פלטפורמה מבוססת AI, שתעזור לכם לרכוש את הביטוח הנכון והמשתלם ביותר בקליק אחד. ב - Smapy תהנו משקיפות וחדשנות, שתדאג שיהיה לכם את הביטוח הטוב ביותר תמיד באמצעות עדכון הפוליסה והפרטים האישיים שלכם באופן אוטומטי, כך שתוכלו לחסוך זמן יקר ועד מאות אלפי שקלים בעלויות הביטוח.</t>
+  </si>
+  <si>
+    <t>איך זה עובד</t>
+  </si>
+  <si>
+    <t>היכרות</t>
+  </si>
+  <si>
+    <t>כדי שנוכל לאתר עבורכם את ההצעות הטובות ביותר, תצטרכו למלא מס' פרטים, ומיד אחר כך אנו מתחילים בחיפוש ההצעה המשתלמת ביותר.</t>
+  </si>
+  <si>
+    <t>קבלת הצעות</t>
+  </si>
+  <si>
+    <t>Smapy תציג לכם את הצעות הביטוח הטובות והמשתלמות ביותר עבורכם ותעזור לכם לרכוש ביטוח בצורה חכמה שתמנע הפתעות בעתיד.</t>
+  </si>
+  <si>
+    <t>רכישה</t>
+  </si>
+  <si>
+    <t>אחרי שתבחרו בהצעה הטובה ביותר, תוכלו לקנות את הביטוח און ליין ב- 5 דק' ולחסוך המון כאבי ראש וזמן יקר.</t>
+  </si>
+  <si>
+    <t>איתכם לאורך כל הדרך</t>
+  </si>
+  <si>
+    <t>מעכשיו תוכלו להיות בראש שקט. סמאפי תהיה במעקב אחרי הביטוח שלכם לאורך כל חייו ותדאג לעדכן אתכם בהצעה המשתלמת ביותר תמיד.</t>
+  </si>
+  <si>
+    <t>מגוון חברות לבחירך</t>
+  </si>
+  <si>
+    <t>ארבע סיבות לבחור ב-</t>
+  </si>
+  <si>
+    <t>ביטוח מותאם אישית</t>
+  </si>
+  <si>
+    <t>בעזרת הטכנולוגיה שפיתחנו, אנו יודעים להתאים לכם את הביטוח הנכון והטוב ביותר, התואם לנתונים האישיים שלכם ממש כמו כפפה ליד.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> השוואת מחירים שקופה</t>
+  </si>
+  <si>
+    <t>אחוז העמלה שאנו מקבלים מחברות הביטוח זהה בין כולן ולכן אתם מקבלים את הצעות המחיר הטובות ביותר וללא שום אינטרס.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> חדשנות ושקט נפשי</t>
+  </si>
+  <si>
+    <t>האלגוריתם שלנו עוקב אחרי מחיר ותנאי הביטוח שלכם ומבצע השוואת מחירים אוטומטית ועדכון להצעה הטובה ביותר שתהיה.</t>
+  </si>
+  <si>
+    <t>עושים טוב</t>
+  </si>
+  <si>
+    <t>בכל רכישת ביטוח אנו תורמים חלק מהרווח שלנו לאחד מהארגונים איתם אנו עובדים כאשר התרומה תהיה בשם הלקוח ולא על חשבונו.</t>
+  </si>
+  <si>
+    <t>מה אומרים עלינו</t>
+  </si>
+  <si>
+    <t>Ms. Tony Rutherford</t>
+  </si>
+  <si>
+    <t>Everyone’s on the same page. Many of our people are not very organized naturally, so Pharps is a godsend!</t>
+  </si>
+  <si>
+    <t>Agnes Lockman</t>
+  </si>
+  <si>
+    <t>If you are a business owner, and you don't have Xalor in your toolkit just yet, I highly recommend that you check it out.</t>
+  </si>
+  <si>
+    <t>Hugo Nienow</t>
+  </si>
+  <si>
+    <t>I have been using this software for over a year now and I love it! I can't imagine life without it. It's so easy to use, and the customer service is great.</t>
+  </si>
+  <si>
+    <t>שאלות נפוצות</t>
+  </si>
+  <si>
+    <t>האם סמאפי עובדת עם כל חברות הביטוח?</t>
+  </si>
+  <si>
+    <t>כן! סמאפי מבצעת השוואת מחירים מול כל חברות הביטוח הגדולות (הראל, פניקס, מגדל, איילון, כלל, הכשרה ומנורה) בהתאם לפרופיל הלקוח ולתנאי הביטוח שצריך. ההשוואה מתבצעת בין כל החברות וגם בין עשרות המסלולים שכל חברה מציע ומציגה את התוצאות הטובות ביותר שהתקבלו.</t>
+  </si>
+  <si>
     <t>האם ההשוואה נעשית מול כל חברות הביטוח?</t>
   </si>
   <si>
+    <t>כן! ההשוואה נעשית בדרך כלל מול שבע חברות ביטוח ומציגה את ההצעות הזולות ביותר בהתאם לביטוח הדרוש ולפרופיל שלך כלקוח.</t>
+  </si>
+  <si>
     <t>מה יקרה מיד לאחר התשלום?</t>
   </si>
   <si>
+    <t>מיד לאחר התשלום, תקבל מייל עם אישור רכישת הביטוח. במידה ואין כל בעיה רפואית, תקבל גם את פוליסת הביטוח שלך. בנוסף, ישלח לך קישור לאזור האישי שלך, בו תוכל להתעדכן בסטטוס רכישת הביטוח. לדו'ג אם חברת הביטוח תצטרך ממך מסמך כלשהו, תוכל לראות זאת באיזור האישי וגם נעדכן במייל ובהודעת וואטסאפ לנוחיות מירבית. בנוסף לכל זה, סמאפי ממנה מומחה ביטוח שידאג להיות איתך בקשר לכל שאלה או בקשה.</t>
+  </si>
+  <si>
     <t>לשאלות נוספות &gt;</t>
   </si>
   <si>
@@ -70,13 +466,148 @@
     <t>בכל דרך שתבחרו..</t>
   </si>
   <si>
-    <t>כן! סמאפי מבצעת השוואת מחירים מול כל חברות הביטוח הגדולות (הראל, פניקס, מגדל, איילון, כלל, הכשרה ומנורה) בהתאם לפרופיל הלקוח ולתנאי הביטוח שצריך. ההשוואה מתבצעת בין כל החברות וגם בין עשרות המסלולים שכל חברה מציע ומציגה את התוצאות הטובות ביותר שהתקבלו.</t>
-  </si>
-  <si>
-    <t>כן! ההשוואה נעשית בדרך כלל מול שבע חברות ביטוח ומציגה את ההצעות הזולות ביותר בהתאם לביטוח הדרוש ולפרופיל שלך כלקוח.</t>
-  </si>
-  <si>
-    <t>מיד לאחר התשלום, תקבל מייל עם אישור רכישת הביטוח. במידה ואין כל בעיה רפואית, תקבל גם את פוליסת הביטוח שלך. בנוסף, ישלח לך קישור לאזור האישי שלך, בו תוכל להתעדכן בסטטוס רכישת הביטוח. לדו'ג אם חברת הביטוח תצטרך ממך מסמך כלשהו, תוכל לראות זאת באיזור האישי וגם נעדכן במייל ובהודעת וואטסאפ לנוחיות מירבית. בנוסף לכל זה, סמאפי ממנה מומחה ביטוח שידאג להיות איתך בקשר לכל שאלה או בקשה.</t>
+    <t>שאלות ותשובות נפוצות</t>
+  </si>
+  <si>
+    <t>משהו לא ברור? ריכזנו עבורכם את השאלות הנפוצות ביותר</t>
+  </si>
+  <si>
+    <t>צריכים מידע נוסף?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> אנו זמינים לכל שאלה או בקשה!</t>
+  </si>
+  <si>
+    <t>קליק אחד ותוכלו לחסוך עד עשרות אלפי שקלים בביטוח.</t>
+  </si>
+  <si>
+    <t>לרכישת ביטוח</t>
+  </si>
+  <si>
+    <t>טכנולוגיה, חדשנות ושקיפות</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לשמחת כולנו, אנו חיים בעידן בו הטכנולוגיה יוצאת מן הכלל ועוזרת למין האנושי באינספור תחומים כדי להפוך את החיים לטובים יותר. מהיום, גם בביטוחים שלכם, סמאפי תוכל לבצע לכם אופטימיזציה באמצעות טכנולוגיה ייחודית שפיתחנו, ובכך לחסוך לכם כאבי ראש, זמן יקר והמון כסף, תוך כדי שקיפות מלאה, פשטות וחווית שירות שטרם הכרתם. רוב האנשים נאלצים לסמוך על מה שנציגי המכירות אומרים להם, אבל עם Smapy זה אחרת - סמאפי מציגה לכם את הצעות הביטוח המשתלמות ביותר ותמליץ לכם על הביטוח הטוב ביותר. איך אנחנו עושים זאת? פשוט מאוד, יצרנו מודל עסקי מול חברות הביטוח בו אנו מקבלים עמלה אחידה וזהה, כך אנו יכולים להבטיח לכם שההצעות וההמלצות שתקבלו מאיתנו הן שקופות, אובייקטיביות ונטולות אינטרס. סמאפי מחפשת את ההצעות הטובות ביותר בין חברות הביטוח ובין עשרות מסלולים שהן מציעות עד שאתם מקבלים את ההצעה המשתלמת ביותר. אם תמצאו הצעה טובה יותר – תקבלו מאיתנו שירות ללא כל עלות! חשוב לציין שלצד הטכנולוגיה, תוכלו לקבל שירות ממומחי ביטוח ופיננסים שישמחו לעזור ולתת לכם את המענה הטוב ביותר לכל שאלה או בקשה. </t>
+  </si>
+  <si>
+    <t>החזון של סמאפי</t>
+  </si>
+  <si>
+    <t>לשנות את עולם הביטוח לפשוט, שקוף ומשתלם לכולם!</t>
+  </si>
+  <si>
+    <t>סמאפי הוקמה כדי להיות הפתרון הטוב ביותר לרכישת הביטוח הטוב והזול ביותר, לכל אחד ואחת. חרטנו על דיגלנו את נושא השקיפות, החדשנות והשירות כדי לאפשר לכל אדם בכל גיל לקבל את הביטוח הטוב והזול ביותר עבורו, מבלי שיצטרך לעבור מלחמת התשה, או להתבאס ששומע את המילה ביטוח. הכל בפשטות, שקיפות ונוחות מירבית וזאת באמצעות הטכנולוגיה שפיתחנו, יחד עם הליווי האנושי, מאפשרים לנו להיות הפתרון הטוב ביותר עבורכם.</t>
+  </si>
+  <si>
+    <t>ג'ורדן אלבז</t>
+  </si>
+  <si>
+    <t>Co-Founder &amp; CEO</t>
+  </si>
+  <si>
+    <t>מייסד ומנכ’’ל משותף</t>
+  </si>
+  <si>
+    <t>יזם, מומחה בתכנון פיננסי, פנסיוני וניהול סיכונים. בעל רישיון ממשרד האוצר, מנהל הון, ביטוח וחסכונות למאות משפחות בישראל. מעל 10 שנות ניסיון בביטוח, חסכון ושוק ההון. בוגר קורסים בתחום משכנתאות, נדל''ן, שוק ההון פנסיה וביטוח.</t>
+  </si>
+  <si>
+    <t>גיל שלסקי</t>
+  </si>
+  <si>
+    <t>Chairman and founder Co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מייסד ויושב ראש </t>
+  </si>
+  <si>
+    <t>מומחה בביטוח חיים וביטוח פנסיוני. כיהן במגוון תפקידי ניהול בכירים בחברות הביטוח הגדולות במשק. מתמחה בבניית מוצרי ביטוח לחברות הגדולות במשק.</t>
+  </si>
+  <si>
+    <t>מולי שמואל עובד</t>
+  </si>
+  <si>
+    <t>Co-Founder &amp; CTO</t>
+  </si>
+  <si>
+    <t>מייסד וסמנכ’’ל טכנולוגיות.</t>
+  </si>
+  <si>
+    <t>יזם, מנהל פיתוח וארכיטרקט תוכנה, מעל 20 שנות ניסיון בניהול ופיתוח טכנולוגיות, הקים וניהל קבוצות פיתוח והוביל פיתוח מוצרים מורכבים במספר חברות.</t>
+  </si>
+  <si>
+    <t>מי אנחנו</t>
+  </si>
+  <si>
+    <t>השוואה בין כל חברות הביטוח</t>
+  </si>
+  <si>
+    <t>ההצעות המשתלמות ביותר</t>
+  </si>
+  <si>
+    <t>המלצה על רכישת ביטוח בצורה חכמה</t>
+  </si>
+  <si>
+    <t>השוואת ביטוח קיים להצעה טובה יותר</t>
+  </si>
+  <si>
+    <t>מעקב אחרי מחיר ותנאי הביטוח לתמיד</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ביטוח חיים למשכנתה </t>
+  </si>
+  <si>
+    <t>החל מ- 10 ₪ לחודש</t>
+  </si>
+  <si>
+    <t>ביטוח מבנה למשכנתה</t>
+  </si>
+  <si>
+    <t>החל מ- 30 ₪ לחודש</t>
+  </si>
+  <si>
+    <t>ביטוח חיים למשפחה</t>
+  </si>
+  <si>
+    <t>החל מ- 7 ₪ לחודש</t>
+  </si>
+  <si>
+    <t>התאמת הביטוח לסטטוס האישי והכלכלי</t>
+  </si>
+  <si>
+    <t>המחיר זול, השירות יוקרתי</t>
+  </si>
+  <si>
+    <t>מגוון ביטוחים לכל שלב בחיים שיחסכו לכם כמויות של כסף</t>
+  </si>
+  <si>
+    <t>מחירון</t>
+  </si>
+  <si>
+    <t>עלות הביטוח</t>
+  </si>
+  <si>
+    <t>עלות השירות</t>
+  </si>
+  <si>
+    <t>חינם</t>
+  </si>
+  <si>
+    <t>מצאתם הצעה טובה יותר? קבלו מאיתנו שירות מעקב אחרי הביטוח ללא עלות!</t>
+  </si>
+  <si>
+    <t>בהתאם למדיניות השירות באתר</t>
+  </si>
+  <si>
+    <t>הפרטיות שלכם היא הכל בשבילנו.</t>
+  </si>
+  <si>
+    <t>אבטחה ופרטיות</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אבטחת מידע הוא אחד מהנושאים החשובים ביותר ברכישה און ליין, בטח שמדובר במידע אישי כמו ביטוח ופיננסים, אנחנו בסמאפי עושים הכל כדי לשמור על המידע הפרטי הזה ומחוייבים לא לעשות בו שום שימוש ולא להעביר אותו לאף צד שלישי שלא במסגרת השירות. עם סמאפי אתם יכולים להיות בטוחים ורגועים. </t>
+  </si>
+  <si>
+    <t>[img] גאה להיות מפוקחת על ידי רגולטורים פיננסים: בנק ישראל, רשות שוק ההון, ביטוח וחיסכון והרשות לניירות ערך. לפי הוראותיהם, כל המידע הפיננסי מוצפן ומופרד באופן הרמטי ממערכות עובדי החברה, כך שרק לכם ולמערכת הטכנולוגית יש גישה אליו. אף אחד מאיתנו לא יכול לגשת למידע בלי אישורכם!</t>
   </si>
 </sst>
 </file>
@@ -478,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +1033,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -513,7 +1044,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -524,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -535,7 +1066,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -546,7 +1077,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -557,7 +1088,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -568,7 +1099,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -579,9 +1110,1021 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="b">
+      <c r="B14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>163</v>
+      </c>
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>167</v>
+      </c>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>169</v>
+      </c>
+      <c r="C71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>171</v>
+      </c>
+      <c r="C73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>172</v>
+      </c>
+      <c r="C74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>174</v>
+      </c>
+      <c r="C76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>175</v>
+      </c>
+      <c r="C77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>176</v>
+      </c>
+      <c r="C78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
+        <v>177</v>
+      </c>
+      <c r="C79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
+        <v>178</v>
+      </c>
+      <c r="C80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s">
+        <v>179</v>
+      </c>
+      <c r="C81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>180</v>
+      </c>
+      <c r="C82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>181</v>
+      </c>
+      <c r="C83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>182</v>
+      </c>
+      <c r="C84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>183</v>
+      </c>
+      <c r="C85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
+        <v>184</v>
+      </c>
+      <c r="C86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>185</v>
+      </c>
+      <c r="C87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>186</v>
+      </c>
+      <c r="C88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>187</v>
+      </c>
+      <c r="C89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>188</v>
+      </c>
+      <c r="C90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" t="s">
+        <v>189</v>
+      </c>
+      <c r="C91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>190</v>
+      </c>
+      <c r="C92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" t="s">
+        <v>191</v>
+      </c>
+      <c r="C93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" t="s">
+        <v>192</v>
+      </c>
+      <c r="C94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" t="s">
+        <v>194</v>
+      </c>
+      <c r="C97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" t="s">
+        <v>195</v>
+      </c>
+      <c r="C98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" t="b">
         <v>0</v>
       </c>
     </row>

--- a/update_assets/input.xlsx
+++ b/update_assets/input.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="202">
   <si>
     <t>key</t>
   </si>
@@ -25,25 +25,304 @@
     <t>format_flag</t>
   </si>
   <si>
-    <t>dangerous_hobby_validation</t>
-  </si>
-  <si>
-    <t>property_apartment_number_validation</t>
-  </si>
-  <si>
-    <t>property_city_validation</t>
-  </si>
-  <si>
-    <t>property_street_number_validation</t>
-  </si>
-  <si>
-    <t>property_street_validation</t>
-  </si>
-  <si>
-    <t>smoking_stop_month_validation</t>
-  </si>
-  <si>
-    <t>wizard.end.button</t>
+    <t>index.header</t>
+  </si>
+  <si>
+    <t>index.header_2</t>
+  </si>
+  <si>
+    <t>index.floating.1</t>
+  </si>
+  <si>
+    <t>index.floating.2</t>
+  </si>
+  <si>
+    <t>index.floating.3</t>
+  </si>
+  <si>
+    <t>index.floating.link_text</t>
+  </si>
+  <si>
+    <t>index.sections.1.header</t>
+  </si>
+  <si>
+    <t>index.sections.1.text.1</t>
+  </si>
+  <si>
+    <t>index.sections.1.text.2</t>
+  </si>
+  <si>
+    <t>index.sections.2.header</t>
+  </si>
+  <si>
+    <t>index.sections.2.steps.1.title</t>
+  </si>
+  <si>
+    <t>index.sections.2.steps.1.text</t>
+  </si>
+  <si>
+    <t>index.sections.2.steps.2.title</t>
+  </si>
+  <si>
+    <t>index.sections.2.steps.2.text</t>
+  </si>
+  <si>
+    <t>index.sections.2.steps.3.title</t>
+  </si>
+  <si>
+    <t>index.sections.2.steps.3.text</t>
+  </si>
+  <si>
+    <t>index.sections.2.steps.4.title</t>
+  </si>
+  <si>
+    <t>index.sections.2.steps.4.text</t>
+  </si>
+  <si>
+    <t>index.sections.3.header</t>
+  </si>
+  <si>
+    <t>index.sections.4.header</t>
+  </si>
+  <si>
+    <t>index.sections.4.reasons.1.title</t>
+  </si>
+  <si>
+    <t>index.sections.4.reasons.1.text</t>
+  </si>
+  <si>
+    <t>index.sections.4.reasons.2.title</t>
+  </si>
+  <si>
+    <t>index.sections.4.reasons.2.text</t>
+  </si>
+  <si>
+    <t>index.sections.4.reasons.3.title</t>
+  </si>
+  <si>
+    <t>index.sections.4.reasons.3.text</t>
+  </si>
+  <si>
+    <t>index.sections.4.reasons.4.title</t>
+  </si>
+  <si>
+    <t>index.sections.4.reasons.4.text</t>
+  </si>
+  <si>
+    <t>index.sections.5.header</t>
+  </si>
+  <si>
+    <t>index.sections.5.cards.1.name</t>
+  </si>
+  <si>
+    <t>index.sections.5.cards.1.text</t>
+  </si>
+  <si>
+    <t>index.sections.5.cards.2.name</t>
+  </si>
+  <si>
+    <t>index.sections.5.cards.2.text</t>
+  </si>
+  <si>
+    <t>index.sections.5.cards.3.name</t>
+  </si>
+  <si>
+    <t>index.sections.5.cards.3.text</t>
+  </si>
+  <si>
+    <t>index.sections.5.cards.4.name</t>
+  </si>
+  <si>
+    <t>index.sections.5.cards.4.text</t>
+  </si>
+  <si>
+    <t>index.sections.6.header</t>
+  </si>
+  <si>
+    <t>index.sections.6.faqs.1.q</t>
+  </si>
+  <si>
+    <t>index.sections.6.faqs.1.a</t>
+  </si>
+  <si>
+    <t>index.sections.6.faqs.2.q</t>
+  </si>
+  <si>
+    <t>index.sections.6.faqs.2.a</t>
+  </si>
+  <si>
+    <t>index.sections.6.faqs.3.q</t>
+  </si>
+  <si>
+    <t>index.sections.6.faqs.3.a</t>
+  </si>
+  <si>
+    <t>index.sections.6.more_faqs</t>
+  </si>
+  <si>
+    <t>index.sections.7.header</t>
+  </si>
+  <si>
+    <t>index.sections.7.text</t>
+  </si>
+  <si>
+    <t>faq.header</t>
+  </si>
+  <si>
+    <t>faq.text</t>
+  </si>
+  <si>
+    <t>faq.questions.header</t>
+  </si>
+  <si>
+    <t>faq.contact.header</t>
+  </si>
+  <si>
+    <t>faq.contact.text</t>
+  </si>
+  <si>
+    <t>about.header</t>
+  </si>
+  <si>
+    <t>about.buy</t>
+  </si>
+  <si>
+    <t>about.tech.header</t>
+  </si>
+  <si>
+    <t>about.tech.text</t>
+  </si>
+  <si>
+    <t>about.vision.header</t>
+  </si>
+  <si>
+    <t>about.vision.header_2</t>
+  </si>
+  <si>
+    <t>about.vision.text</t>
+  </si>
+  <si>
+    <t>about.profile.1.name</t>
+  </si>
+  <si>
+    <t>about.profile.1.role_en</t>
+  </si>
+  <si>
+    <t>about.profile.1.role_he</t>
+  </si>
+  <si>
+    <t>about.profile.1.text</t>
+  </si>
+  <si>
+    <t>about.profile.2.name</t>
+  </si>
+  <si>
+    <t>about.profile.2.role_en</t>
+  </si>
+  <si>
+    <t>about.profile.2.role_he</t>
+  </si>
+  <si>
+    <t>about.profile.2.text</t>
+  </si>
+  <si>
+    <t>about.profile.3.name</t>
+  </si>
+  <si>
+    <t>about.profile.3.role_en</t>
+  </si>
+  <si>
+    <t>about.profile.3.role_he</t>
+  </si>
+  <si>
+    <t>about.profile.3.text</t>
+  </si>
+  <si>
+    <t>about.about_us.header</t>
+  </si>
+  <si>
+    <t>price.0.1</t>
+  </si>
+  <si>
+    <t>price.0.2</t>
+  </si>
+  <si>
+    <t>price.0.3</t>
+  </si>
+  <si>
+    <t>price.0.4</t>
+  </si>
+  <si>
+    <t>price.0.5</t>
+  </si>
+  <si>
+    <t>price.1.name</t>
+  </si>
+  <si>
+    <t>price.1.price</t>
+  </si>
+  <si>
+    <t>price.2.name</t>
+  </si>
+  <si>
+    <t>price.2.price</t>
+  </si>
+  <si>
+    <t>price.3.name</t>
+  </si>
+  <si>
+    <t>price.3.price</t>
+  </si>
+  <si>
+    <t>price.3.extra_line</t>
+  </si>
+  <si>
+    <t>price.header</t>
+  </si>
+  <si>
+    <t>price.text</t>
+  </si>
+  <si>
+    <t>price.header2</t>
+  </si>
+  <si>
+    <t>price.cost</t>
+  </si>
+  <si>
+    <t>price.cost_service</t>
+  </si>
+  <si>
+    <t>price.free</t>
+  </si>
+  <si>
+    <t>price.footer</t>
+  </si>
+  <si>
+    <t>price.footer2</t>
+  </si>
+  <si>
+    <t>security.header</t>
+  </si>
+  <si>
+    <t>security.text</t>
+  </si>
+  <si>
+    <t>security.header2</t>
+  </si>
+  <si>
+    <t>security.text1</t>
+  </si>
+  <si>
+    <t>security.text2</t>
+  </si>
+  <si>
+    <t>security.logo.1</t>
+  </si>
+  <si>
+    <t>security.logo.2</t>
+  </si>
+  <si>
+    <t>security.logo.3</t>
   </si>
   <si>
     <t>nav.about</t>
@@ -64,28 +343,283 @@
     <t>nav.agent_entry</t>
   </si>
   <si>
-    <t>*TRANSLATE*</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>קצת עלינו</t>
+    <t>בואו לבדוק את מחירי הביטוח שלנו!</t>
+  </si>
+  <si>
+    <t>סמאפי משיגה לכם את הביטוח המשתלם ביותר, זה בדוק!</t>
+  </si>
+  <si>
+    <t>ביטוח חיים</t>
+  </si>
+  <si>
+    <t>ביטוח משכנתה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ביטוח דירה </t>
+  </si>
+  <si>
+    <t>להשוואה ורכישה</t>
+  </si>
+  <si>
+    <t>פלטפורמת הביטוח המתקדמת ביותר בישראל</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Smapy היא פלטפורמת ביטוח חדשנית המשלבת טכנולוגיה ומומחי ביטוח ופיננסים אנושיים</t>
+  </si>
+  <si>
+    <t>פלטפורמה מבוססת AI, שתעזור לכם לרכוש את הביטוח הנכון והמשתלם ביותר בקליק אחד. ב - Smapy תהנו משקיפות וחדשנות, שתדאג שיהיה לכם את הביטוח הטוב ביותר תמיד באמצעות עדכון הפוליסה והפרטים האישיים שלכם באופן אוטומטי, כך שתוכלו לחסוך זמן יקר ועד מאות אלפי שקלים בעלויות הביטוח.</t>
+  </si>
+  <si>
+    <t>איך זה עובד</t>
+  </si>
+  <si>
+    <t>היכרות</t>
+  </si>
+  <si>
+    <t>כדי שנוכל לאתר עבורכם את ההצעות הטובות ביותר, תצטרכו למלא מס' פרטים, ומיד אחר כך אנו מתחילים בחיפוש ההצעה המשתלמת ביותר.</t>
+  </si>
+  <si>
+    <t>קבלת הצעות</t>
+  </si>
+  <si>
+    <t>Smapy תציג לכם את הצעות הביטוח הטובות והמשתלמות ביותר עבורכם ותעזור לכם לרכוש ביטוח בצורה חכמה שתמנע הפתעות בעתיד.</t>
+  </si>
+  <si>
+    <t>רכישה</t>
+  </si>
+  <si>
+    <t>אחרי שתבחרו בהצעה הטובה ביותר, תוכלו לקנות את הביטוח און ליין ב- 5 דק' ולחסוך המון כאבי ראש וזמן יקר.</t>
+  </si>
+  <si>
+    <t>איתכם לאורך כל הדרך</t>
+  </si>
+  <si>
+    <t>מעכשיו תוכלו להיות בראש שקט. סמאפי תהיה במעקב אחרי הביטוח שלכם לאורך כל חייו ותדאג לעדכן אתכם בהצעה המשתלמת ביותר תמיד.</t>
+  </si>
+  <si>
+    <t>מגוון חברות לבחירך</t>
+  </si>
+  <si>
+    <t>ארבע סיבות לבחור ב-</t>
+  </si>
+  <si>
+    <t>ביטוח מותאם אישית</t>
+  </si>
+  <si>
+    <t>בעזרת הטכנולוגיה שפיתחנו, אנו יודעים להתאים לכם את הביטוח הנכון והטוב ביותר, התואם לנתונים האישיים שלכם ממש כמו כפפה ליד.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> השוואת מחירים שקופה</t>
+  </si>
+  <si>
+    <t>אחוז העמלה שאנו מקבלים מחברות הביטוח זהה בין כולן ולכן אתם מקבלים את הצעות המחיר הטובות ביותר וללא שום אינטרס.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> חדשנות ושקט נפשי</t>
+  </si>
+  <si>
+    <t>האלגוריתם שלנו עוקב אחרי מחיר ותנאי הביטוח שלכם ומבצע השוואת מחירים אוטומטית ועדכון להצעה הטובה ביותר שתהיה.</t>
+  </si>
+  <si>
+    <t>עושים טוב</t>
+  </si>
+  <si>
+    <t>בכל רכישת ביטוח אנו תורמים חלק מהרווח שלנו לאחד מהארגונים איתם אנו עובדים כאשר התרומה תהיה בשם הלקוח ולא על חשבונו.</t>
+  </si>
+  <si>
+    <t>מה אומרים עלינו</t>
+  </si>
+  <si>
+    <t>Ms. Tony Rutherford</t>
+  </si>
+  <si>
+    <t>Everyone’s on the same page. Many of our people are not very organized naturally, so Pharps is a godsend!</t>
+  </si>
+  <si>
+    <t>Agnes Lockman</t>
+  </si>
+  <si>
+    <t>If you are a business owner, and you don't have Xalor in your toolkit just yet, I highly recommend that you check it out.</t>
+  </si>
+  <si>
+    <t>Hugo Nienow</t>
+  </si>
+  <si>
+    <t>I have been using this software for over a year now and I love it! I can't imagine life without it. It's so easy to use, and the customer service is great.</t>
   </si>
   <si>
     <t>שאלות נפוצות</t>
   </si>
   <si>
+    <t>האם סמאפי עובדת עם כל חברות הביטוח?</t>
+  </si>
+  <si>
+    <t>כן! סמאפי מבצעת השוואת מחירים מול כל חברות הביטוח הגדולות (הראל, פניקס, מגדל, איילון, כלל, הכשרה ומנורה) בהתאם לפרופיל הלקוח ולתנאי הביטוח שצריך. ההשוואה מתבצעת בין כל החברות וגם בין עשרות המסלולים שכל חברה מציע ומציגה את התוצאות הטובות ביותר שהתקבלו.</t>
+  </si>
+  <si>
+    <t>האם ההשוואה נעשית מול כל חברות הביטוח?</t>
+  </si>
+  <si>
+    <t>כן! ההשוואה נעשית בדרך כלל מול שבע חברות ביטוח ומציגה את ההצעות הזולות ביותר בהתאם לביטוח הדרוש ולפרופיל שלך כלקוח.</t>
+  </si>
+  <si>
+    <t>מה יקרה מיד לאחר התשלום?</t>
+  </si>
+  <si>
+    <t>מיד לאחר התשלום, תקבל מייל עם אישור רכישת הביטוח. במידה ואין כל בעיה רפואית, תקבל גם את פוליסת הביטוח שלך. בנוסף, ישלח לך קישור לאזור האישי שלך, בו תוכל להתעדכן בסטטוס רכישת הביטוח. לדו'ג אם חברת הביטוח תצטרך ממך מסמך כלשהו, תוכל לראות זאת באיזור האישי וגם נעדכן במייל ובהודעת וואטסאפ לנוחיות מירבית. בנוסף לכל זה, סמאפי ממנה מומחה ביטוח שידאג להיות איתך בקשר לכל שאלה או בקשה.</t>
+  </si>
+  <si>
+    <t>לשאלות נוספות &gt;</t>
+  </si>
+  <si>
+    <t>נשמח לעזור!</t>
+  </si>
+  <si>
+    <t>בכל דרך שתבחרו..</t>
+  </si>
+  <si>
+    <t>שאלות ותשובות נפוצות</t>
+  </si>
+  <si>
+    <t>משהו לא ברור? ריכזנו עבורכם את השאלות הנפוצות ביותר</t>
+  </si>
+  <si>
+    <t>צריכים מידע נוסף?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> אנו זמינים לכל שאלה או בקשה!</t>
+  </si>
+  <si>
+    <t>קליק אחד ותוכלו לחסוך עד עשרות אלפי שקלים בביטוח.</t>
+  </si>
+  <si>
+    <t>לרכישת ביטוח</t>
+  </si>
+  <si>
+    <t>טכנולוגיה, חדשנות ושקיפות</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לשמחת כולנו, אנו חיים בעידן בו הטכנולוגיה יוצאת מן הכלל ועוזרת למין האנושי באינספור תחומים כדי להפוך את החיים לטובים יותר. מהיום, גם בביטוחים שלכם, סמאפי תוכל לבצע לכם אופטימיזציה באמצעות טכנולוגיה ייחודית שפיתחנו, ובכך לחסוך לכם כאבי ראש, זמן יקר והמון כסף, תוך כדי שקיפות מלאה, פשטות וחווית שירות שטרם הכרתם. רוב האנשים נאלצים לסמוך על מה שנציגי המכירות אומרים להם, אבל עם Smapy זה אחרת - סמאפי מציגה לכם את הצעות הביטוח המשתלמות ביותר ותמליץ לכם על הביטוח הטוב ביותר. איך אנחנו עושים זאת? פשוט מאוד, יצרנו מודל עסקי מול חברות הביטוח בו אנו מקבלים עמלה אחידה וזהה, כך אנו יכולים להבטיח לכם שההצעות וההמלצות שתקבלו מאיתנו הן שקופות, אובייקטיביות ונטולות אינטרס. סמאפי מחפשת את ההצעות הטובות ביותר בין חברות הביטוח ובין עשרות מסלולים שהן מציעות עד שאתם מקבלים את ההצעה המשתלמת ביותר. אם תמצאו הצעה טובה יותר – תקבלו מאיתנו שירות ללא כל עלות! חשוב לציין שלצד הטכנולוגיה, תוכלו לקבל שירות ממומחי ביטוח ופיננסים שישמחו לעזור ולתת לכם את המענה הטוב ביותר לכל שאלה או בקשה. </t>
+  </si>
+  <si>
+    <t>החזון של סמאפי</t>
+  </si>
+  <si>
+    <t>לשנות את עולם הביטוח לפשוט, שקוף ומשתלם לכולם!</t>
+  </si>
+  <si>
+    <t>סמאפי הוקמה כדי להיות הפתרון הטוב ביותר לרכישת הביטוח הטוב והזול ביותר, לכל אחד ואחת. חרטנו על דיגלנו את נושא השקיפות, החדשנות והשירות כדי לאפשר לכל אדם בכל גיל לקבל את הביטוח הטוב והזול ביותר עבורו, מבלי שיצטרך לעבור מלחמת התשה, או להתבאס ששומע את המילה ביטוח. הכל בפשטות, שקיפות ונוחות מירבית וזאת באמצעות הטכנולוגיה שפיתחנו, יחד עם הליווי האנושי, מאפשרים לנו להיות הפתרון הטוב ביותר עבורכם.</t>
+  </si>
+  <si>
+    <t>ג'ורדן אלבז</t>
+  </si>
+  <si>
+    <t>Co-Founder &amp; CEO</t>
+  </si>
+  <si>
+    <t>מייסד ומנכ’’ל משותף</t>
+  </si>
+  <si>
+    <t>יזם, מומחה בתכנון פיננסי, פנסיוני וניהול סיכונים. בעל רישיון ממשרד האוצר, מנהל הון, ביטוח וחסכונות למאות משפחות בישראל. מעל 10 שנות ניסיון בביטוח, חסכון ושוק ההון. בוגר קורסים בתחום משכנתאות, נדל''ן, שוק ההון פנסיה וביטוח.</t>
+  </si>
+  <si>
+    <t>גיל שלסקי</t>
+  </si>
+  <si>
+    <t>Chairman and founder Co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מייסד ויושב ראש </t>
+  </si>
+  <si>
+    <t>מומחה בביטוח חיים וביטוח פנסיוני. כיהן במגוון תפקידי ניהול בכירים בחברות הביטוח הגדולות במשק. מתמחה בבניית מוצרי ביטוח לחברות הגדולות במשק.</t>
+  </si>
+  <si>
+    <t>מולי שמואל עובד</t>
+  </si>
+  <si>
+    <t>Co-Founder &amp; CTO</t>
+  </si>
+  <si>
+    <t>מייסד וסמנכ’’ל טכנולוגיות.</t>
+  </si>
+  <si>
+    <t>יזם, מנהל פיתוח וארכיטרקט תוכנה, מעל 20 שנות ניסיון בניהול ופיתוח טכנולוגיות, הקים וניהל קבוצות פיתוח והוביל פיתוח מוצרים מורכבים במספר חברות.</t>
+  </si>
+  <si>
+    <t>מי אנחנו</t>
+  </si>
+  <si>
+    <t>השוואה בין כל חברות הביטוח</t>
+  </si>
+  <si>
+    <t>ההצעות המשתלמות ביותר</t>
+  </si>
+  <si>
+    <t>המלצה על רכישת ביטוח בצורה חכמה</t>
+  </si>
+  <si>
+    <t>השוואת ביטוח קיים להצעה טובה יותר</t>
+  </si>
+  <si>
+    <t>מעקב אחרי מחיר ותנאי הביטוח לתמיד</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ביטוח חיים למשכנתה </t>
+  </si>
+  <si>
+    <t>החל מ- 10 ₪ לחודש</t>
+  </si>
+  <si>
+    <t>ביטוח מבנה למשכנתה</t>
+  </si>
+  <si>
+    <t>החל מ- 30 ₪ לחודש</t>
+  </si>
+  <si>
+    <t>ביטוח חיים למשפחה</t>
+  </si>
+  <si>
+    <t>החל מ- 7 ₪ לחודש</t>
+  </si>
+  <si>
+    <t>התאמת הביטוח לסטטוס האישי והכלכלי</t>
+  </si>
+  <si>
+    <t>המחיר זול, השירות יוקרתי</t>
+  </si>
+  <si>
+    <t>מגוון ביטוחים לכל שלב בחיים שיחסכו לכם כמויות של כסף</t>
+  </si>
+  <si>
     <t>מחירון</t>
   </si>
   <si>
+    <t>עלות הביטוח</t>
+  </si>
+  <si>
+    <t>עלות השירות</t>
+  </si>
+  <si>
+    <t>חינם</t>
+  </si>
+  <si>
+    <t>מצאתם הצעה טובה יותר? קבלו מאיתנו שירות מעקב אחרי הביטוח ללא עלות!</t>
+  </si>
+  <si>
+    <t>בהתאם למדיניות השירות באתר</t>
+  </si>
+  <si>
+    <t>הפרטיות שלכם היא הכל בשבילנו.</t>
+  </si>
+  <si>
     <t>אבטחה ופרטיות</t>
   </si>
   <si>
-    <t>כניסת לקוחות</t>
-  </si>
-  <si>
-    <t>כניסת יועצים/סוכנים</t>
+    <t xml:space="preserve">אבטחת מידע הוא אחד מהנושאים החשובים ביותר ברכישה און ליין, בטח שמדובר במידע אישי כמו ביטוח ופיננסים, אנחנו בסמאפי עושים הכל כדי לשמור על המידע הפרטי הזה ומחוייבים לא לעשות בו שום שימוש ולא להעביר אותו לאף צד שלישי שלא במסגרת השירות. עם סמאפי אתם יכולים להיות בטוחים ורגועים. </t>
+  </si>
+  <si>
+    <t>[img] גאה להיות מפוקחת על ידי רגולטורים פיננסים: בנק ישראל, רשות שוק ההון, ביטוח וחיסכון והרשות לניירות ערך. לפי הוראותיהם, כל המידע הפיננסי מוצפן ומופרד באופן הרמטי ממערכות עובדי החברה, כך שרק לכם ולמערכת הטכנולוגית יש גישה אליו. אף אחד מאיתנו לא יכול לגשת למידע בלי אישורכם!</t>
   </si>
 </sst>
 </file>
@@ -443,7 +977,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,7 +999,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -476,7 +1010,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -487,7 +1021,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -498,7 +1032,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -509,7 +1043,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -520,7 +1054,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -531,7 +1065,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -542,7 +1076,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -553,7 +1087,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -564,7 +1098,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -575,7 +1109,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -586,7 +1120,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -597,9 +1131,1032 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="b">
+      <c r="B22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>165</v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>166</v>
+      </c>
+      <c r="C62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>168</v>
+      </c>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>169</v>
+      </c>
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>171</v>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>174</v>
+      </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>177</v>
+      </c>
+      <c r="C73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>178</v>
+      </c>
+      <c r="C74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>179</v>
+      </c>
+      <c r="C75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>180</v>
+      </c>
+      <c r="C76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>181</v>
+      </c>
+      <c r="C77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
+        <v>183</v>
+      </c>
+      <c r="C79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
+        <v>184</v>
+      </c>
+      <c r="C80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s">
+        <v>185</v>
+      </c>
+      <c r="C81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>186</v>
+      </c>
+      <c r="C82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>187</v>
+      </c>
+      <c r="C83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>188</v>
+      </c>
+      <c r="C84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
+        <v>190</v>
+      </c>
+      <c r="C86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>191</v>
+      </c>
+      <c r="C87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>193</v>
+      </c>
+      <c r="C89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>194</v>
+      </c>
+      <c r="C90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" t="s">
+        <v>195</v>
+      </c>
+      <c r="C91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>196</v>
+      </c>
+      <c r="C92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" t="s">
+        <v>197</v>
+      </c>
+      <c r="C93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" t="s">
+        <v>198</v>
+      </c>
+      <c r="C94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" t="s">
+        <v>199</v>
+      </c>
+      <c r="C96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" t="s">
+        <v>200</v>
+      </c>
+      <c r="C97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" t="s">
+        <v>201</v>
+      </c>
+      <c r="C98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107" t="b">
         <v>0</v>
       </c>
     </row>

--- a/update_assets/input.xlsx
+++ b/update_assets/input.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nadav\Documents\ALL_PROJECTS\smapy\update_assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415A01B1-7D2A-4277-AAFA-4F20C5242904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-6825" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="215">
   <si>
     <t>key</t>
   </si>
@@ -343,6 +349,21 @@
     <t>nav.agent_entry</t>
   </si>
   <si>
+    <t>login.label</t>
+  </si>
+  <si>
+    <t>login.entry_customer</t>
+  </si>
+  <si>
+    <t>login.entry_advisor</t>
+  </si>
+  <si>
+    <t>login.id_card_number.label</t>
+  </si>
+  <si>
+    <t>login.phone.label</t>
+  </si>
+  <si>
     <t>בואו לבדוק את מחירי הביטוח שלנו!</t>
   </si>
   <si>
@@ -620,13 +641,37 @@
   </si>
   <si>
     <t>[img] גאה להיות מפוקחת על ידי רגולטורים פיננסים: בנק ישראל, רשות שוק ההון, ביטוח וחיסכון והרשות לניירות ערך. לפי הוראותיהם, כל המידע הפיננסי מוצפן ומופרד באופן הרמטי ממערכות עובדי החברה, כך שרק לכם ולמערכת הטכנולוגית יש גישה אליו. אף אחד מאיתנו לא יכול לגשת למידע בלי אישורכם!</t>
+  </si>
+  <si>
+    <t>קצת עלינו</t>
+  </si>
+  <si>
+    <t>כניסת לקוחות</t>
+  </si>
+  <si>
+    <t>כניסת יועצים/סוכנים</t>
+  </si>
+  <si>
+    <t>תוחוקל תסינכ</t>
+  </si>
+  <si>
+    <t>!בוש ךתוארל םיחמש</t>
+  </si>
+  <si>
+    <t>תוהז תדועת</t>
+  </si>
+  <si>
+    <t>ןופלט רפסמ</t>
+  </si>
+  <si>
+    <t>םינכוס/םיצעוי תסינכ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,6 +734,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -735,7 +788,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -767,9 +820,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -801,6 +872,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -976,14 +1065,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -994,1030 +1085,1030 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -2028,40 +2119,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C98" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -2072,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -2083,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -2094,70 +2185,125 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>207</v>
       </c>
       <c r="C102" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="C103" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c r="C104" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="C105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>107</v>
+        <v>208</v>
       </c>
       <c r="C106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
+        <v>209</v>
       </c>
       <c r="C107" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" t="s">
+        <v>211</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" t="s">
+        <v>210</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" t="s">
+        <v>214</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" t="s">
+        <v>212</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" t="s">
+        <v>213</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/update_assets/input.xlsx
+++ b/update_assets/input.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nadav\Documents\ALL_PROJECTS\smapy\update_assets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415A01B1-7D2A-4277-AAFA-4F20C5242904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6825" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="226">
   <si>
     <t>key</t>
   </si>
@@ -364,6 +358,30 @@
     <t>login.phone.label</t>
   </si>
   <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>otp.label</t>
+  </si>
+  <si>
+    <t>otp.placeholder</t>
+  </si>
+  <si>
+    <t>otp.entry_customer</t>
+  </si>
+  <si>
+    <t>otp.entry_advisor</t>
+  </si>
+  <si>
+    <t>otp.pin.label</t>
+  </si>
+  <si>
+    <t>Token has expired or is invalid</t>
+  </si>
+  <si>
+    <t>Not valid israeli id number</t>
+  </si>
+  <si>
     <t>בואו לבדוק את מחירי הביטוח שלנו!</t>
   </si>
   <si>
@@ -652,26 +670,35 @@
     <t>כניסת יועצים/סוכנים</t>
   </si>
   <si>
-    <t>תוחוקל תסינכ</t>
-  </si>
-  <si>
-    <t>!בוש ךתוארל םיחמש</t>
-  </si>
-  <si>
-    <t>תוהז תדועת</t>
-  </si>
-  <si>
-    <t>ןופלט רפסמ</t>
-  </si>
-  <si>
-    <t>םינכוס/םיצעוי תסינכ</t>
+    <t>שמחים לראותך שוב!</t>
+  </si>
+  <si>
+    <t>תעודת זהות</t>
+  </si>
+  <si>
+    <t>מספר טלפון</t>
+  </si>
+  <si>
+    <t>Confirmation and continue</t>
+  </si>
+  <si>
+    <t>Sent you confirmation code in SMS message</t>
+  </si>
+  <si>
+    <t>Customer entry</t>
+  </si>
+  <si>
+    <t>Advisor entry</t>
+  </si>
+  <si>
+    <t>What is your code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,14 +761,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -788,7 +807,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -820,27 +839,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -872,24 +873,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1065,16 +1048,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1085,1030 +1066,1030 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -2119,40 +2100,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C98" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -2163,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -2174,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -2185,125 +2166,213 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C102" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C103" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C104" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>211</v>
-      </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="C108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>210</v>
-      </c>
-      <c r="C109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="C109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>214</v>
-      </c>
-      <c r="C110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="C110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>212</v>
-      </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="C111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>213</v>
-      </c>
-      <c r="C112">
-        <v>1</v>
+        <v>220</v>
+      </c>
+      <c r="C112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" t="s">
+        <v>114</v>
+      </c>
+      <c r="C113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" t="s">
+        <v>221</v>
+      </c>
+      <c r="C114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" t="s">
+        <v>222</v>
+      </c>
+      <c r="C115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" t="s">
+        <v>223</v>
+      </c>
+      <c r="C116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" t="s">
+        <v>224</v>
+      </c>
+      <c r="C117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" t="s">
+        <v>225</v>
+      </c>
+      <c r="C118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/update_assets/input.xlsx
+++ b/update_assets/input.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nadav\Documents\ALL_PROJECTS\smapy\update_assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9D98BD-D5F3-43A7-A023-9CE29D0F50D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="5280" yWindow="3030" windowWidth="16410" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="235">
   <si>
     <t>key</t>
   </si>
@@ -376,12 +382,24 @@
     <t>otp.pin.label</t>
   </si>
   <si>
+    <t>otp.next</t>
+  </si>
+  <si>
     <t>Token has expired or is invalid</t>
   </si>
   <si>
     <t>Not valid israeli id number</t>
   </si>
   <si>
+    <t>String must contain at least 6 character(s)</t>
+  </si>
+  <si>
+    <t>Not a valid phone number</t>
+  </si>
+  <si>
+    <t>user_id.next</t>
+  </si>
+  <si>
     <t>בואו לבדוק את מחירי הביטוח שלנו!</t>
   </si>
   <si>
@@ -679,7 +697,10 @@
     <t>מספר טלפון</t>
   </si>
   <si>
-    <t>Confirmation and continue</t>
+    <t>שדה חובה</t>
+  </si>
+  <si>
+    <t>אימות קטן וממשיכים..</t>
   </si>
   <si>
     <t>Sent you confirmation code in SMS message</t>
@@ -688,17 +709,29 @@
     <t>Customer entry</t>
   </si>
   <si>
-    <t>Advisor entry</t>
-  </si>
-  <si>
-    <t>What is your code</t>
+    <t>כניסת יועצים/ות</t>
+  </si>
+  <si>
+    <t>מהו הקוד שקיבלת?</t>
+  </si>
+  <si>
+    <t>המשך</t>
+  </si>
+  <si>
+    <t>קוד אימות שגוי או לא בתוקף</t>
+  </si>
+  <si>
+    <t>מספר זהות בלתי חוקי</t>
+  </si>
+  <si>
+    <t>מספר טלפון בלתי חוקי</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -761,6 +794,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -807,7 +848,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -839,9 +880,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -873,6 +932,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1048,14 +1125,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C120"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1066,1030 +1145,1030 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -2100,40 +2179,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C98" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -2144,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -2155,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -2166,212 +2245,256 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C102" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C103" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C104" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C111" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C112" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>114</v>
+        <v>225</v>
       </c>
       <c r="C113" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C114" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C115" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C116" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C117" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C118" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="C119" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>121</v>
+        <v>232</v>
       </c>
       <c r="C120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" t="s">
+        <v>233</v>
+      </c>
+      <c r="C121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" t="s">
+        <v>123</v>
+      </c>
+      <c r="C122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" t="s">
+        <v>234</v>
+      </c>
+      <c r="C123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" t="s">
+        <v>231</v>
+      </c>
+      <c r="C124" t="b">
         <v>0</v>
       </c>
     </row>

--- a/update_assets/input.xlsx
+++ b/update_assets/input.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nadav\Documents\ALL_PROJECTS\smapy\update_assets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9D98BD-D5F3-43A7-A023-9CE29D0F50D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="3030" windowWidth="16410" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="236">
   <si>
     <t>key</t>
   </si>
@@ -347,6 +341,9 @@
   </si>
   <si>
     <t>nav.agent_entry</t>
+  </si>
+  <si>
+    <t>nav.faqData</t>
   </si>
   <si>
     <t>login.label</t>
@@ -730,8 +727,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -794,14 +791,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -848,7 +837,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -880,27 +869,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -932,24 +903,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1125,16 +1078,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C124"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1145,1030 +1096,1030 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -2179,40 +2130,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C98" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -2223,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -2234,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -2245,95 +2196,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C102" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C103" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C104" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>222</v>
+        <v>109</v>
       </c>
       <c r="C108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>111</v>
       </c>
@@ -2344,18 +2295,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C111" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>113</v>
       </c>
@@ -2366,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>114</v>
       </c>
@@ -2377,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -2388,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>116</v>
       </c>
@@ -2399,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>117</v>
       </c>
@@ -2410,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>118</v>
       </c>
@@ -2421,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>119</v>
       </c>
@@ -2432,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>120</v>
       </c>
@@ -2443,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -2454,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>122</v>
       </c>
@@ -2465,36 +2416,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="C122" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>234</v>
+        <v>124</v>
       </c>
       <c r="C123" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" t="s">
+        <v>232</v>
+      </c>
+      <c r="C125" t="b">
         <v>0</v>
       </c>
     </row>

--- a/update_assets/input.xlsx
+++ b/update_assets/input.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="413">
   <si>
     <t>key</t>
   </si>
@@ -25,283 +25,1234 @@
     <t>format_flag</t>
   </si>
   <si>
-    <t>customerCompareAndBuy.title_life</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.title_mortgage</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.title_property</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.howDoesItWork.label</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.howDoesItWork.text_1</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.howDoesItWork.text_2</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.howDoesItWork.text_3</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.howDoesItWork.text_life4</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.howDoesItWork.text_mortgage4</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.howDoesItWork.text_property4</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.howDoesItWork.next</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.thanks.label</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.thanks.placeholder</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.thanks.text1</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.thanks.text2</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.end.label</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.end.placeholder</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.end.text1</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.end.text2</t>
-  </si>
-  <si>
-    <t>contactUsEmail.label</t>
-  </si>
-  <si>
-    <t>contactUsEmail.contactDetailsEmail.full_name.label</t>
-  </si>
-  <si>
-    <t>contactUsEmail.contactDetailsEmail.email.label</t>
-  </si>
-  <si>
-    <t>contactUsEmail.contactDetailsEmail.subject.label</t>
-  </si>
-  <si>
-    <t>contactUsEmail.contactDetailsEmail.product.label</t>
-  </si>
-  <si>
-    <t>contactUsEmail.contactDetailsEmail.product.choices.life</t>
-  </si>
-  <si>
-    <t>contactUsEmail.contactDetailsEmail.product.choices.life-mortgage</t>
-  </si>
-  <si>
-    <t>contactUsEmail.contactDetailsEmail.product.choices.property</t>
-  </si>
-  <si>
-    <t>contactUsEmail.contactDetailsEmail.product.choices.property-mortgage</t>
-  </si>
-  <si>
-    <t>contactUsEmail.contactDetailsEmail.header</t>
-  </si>
-  <si>
-    <t>contactUsEmail.contactDetailsEmail.contact_info.label</t>
-  </si>
-  <si>
-    <t>contactUsEmail.contactDetailsEmail.name.label</t>
-  </si>
-  <si>
-    <t>contactUsEmail.end.label</t>
-  </si>
-  <si>
-    <t>contactUsEmail.end.placeholder</t>
-  </si>
-  <si>
-    <t>contactUsEmail.end.text1</t>
-  </si>
-  <si>
-    <t>contactUsEmail.end.text2</t>
+    <t>register.id_card_number.validation</t>
+  </si>
+  <si>
+    <t>register.id_card_number.label</t>
+  </si>
+  <si>
+    <t>register.phone.validation</t>
+  </si>
+  <si>
+    <t>register.phone.label</t>
+  </si>
+  <si>
+    <t>register.label</t>
+  </si>
+  <si>
+    <t>register.first_name.label</t>
+  </si>
+  <si>
+    <t>register.last_name.label</t>
+  </si>
+  <si>
+    <t>test.layer1.layer2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>.label</t>
+  </si>
+  <si>
+    <t>numberOfCustomers.label</t>
+  </si>
+  <si>
+    <t>numberOfCustomers.number_of_customers.choices.1</t>
+  </si>
+  <si>
+    <t>numberOfCustomers.number_of_customers.choices.2</t>
+  </si>
+  <si>
+    <t>numberOfCustomers.number_of_customers.label</t>
+  </si>
+  <si>
+    <t>customerDetails1.label</t>
+  </si>
+  <si>
+    <t>customerDetails1.gender.choices.male</t>
+  </si>
+  <si>
+    <t>customerDetails1.gender.choices.female</t>
+  </si>
+  <si>
+    <t>customerDetails1.gender.label</t>
+  </si>
+  <si>
+    <t>customerDetails1.smoking.choices.yes</t>
+  </si>
+  <si>
+    <t>customerDetails1.smoking.choices.no</t>
+  </si>
+  <si>
+    <t>customerDetails1.smoking.choices.stop</t>
+  </si>
+  <si>
+    <t>customerDetails1.smoking.label</t>
+  </si>
+  <si>
+    <t>customerDetails1.smoking_stop_month.label</t>
+  </si>
+  <si>
+    <t>customerDetails1.first_name.label</t>
+  </si>
+  <si>
+    <t>customerDetails1.last_name.label</t>
+  </si>
+  <si>
+    <t>customerDetails1.family_status.choices.Single</t>
+  </si>
+  <si>
+    <t>customerDetails1.family_status.choices.Married</t>
+  </si>
+  <si>
+    <t>customerDetails1.family_status.choices.Divorced</t>
+  </si>
+  <si>
+    <t>customerDetails1.family_status.choices.Separated</t>
+  </si>
+  <si>
+    <t>customerDetails1.family_status.choices.Widowed</t>
+  </si>
+  <si>
+    <t>customerDetails1.family_status.label</t>
+  </si>
+  <si>
+    <t>customerDetails1.birthDate.label</t>
+  </si>
+  <si>
+    <t>customerDetails2.label</t>
+  </si>
+  <si>
+    <t>customerDetails2.occupation.label</t>
+  </si>
+  <si>
+    <t>customerDetails2.dangerous_hobby_has.choices.0</t>
+  </si>
+  <si>
+    <t>customerDetails2.dangerous_hobby_has.choices.1</t>
+  </si>
+  <si>
+    <t>customerDetails2.dangerous_hobby_has.label</t>
+  </si>
+  <si>
+    <t>customerDetails2.dangerous_hobby.label</t>
+  </si>
+  <si>
+    <t>customerDetails2.dangerous_hobby_desc.label</t>
+  </si>
+  <si>
+    <t>loanTracksCount.label</t>
+  </si>
+  <si>
+    <t>loanTracksCount.loan_tracks_count.choices.1</t>
+  </si>
+  <si>
+    <t>loanTracksCount.loan_tracks_count.choices.2</t>
+  </si>
+  <si>
+    <t>loanTracksCount.loan_tracks_count.choices.3</t>
+  </si>
+  <si>
+    <t>loanTracksCount.loan_tracks_count.choices.4</t>
+  </si>
+  <si>
+    <t>loanTracksCount.loan_tracks_count.choices.5</t>
+  </si>
+  <si>
+    <t>loanTracksCount.loan_tracks_count.choices.6</t>
+  </si>
+  <si>
+    <t>loanTracksCount.loan_tracks_count.choices.7</t>
+  </si>
+  <si>
+    <t>loanTracksCount.loan_tracks_count.choices.8</t>
+  </si>
+  <si>
+    <t>loanTracksCount.loan_tracks_count.label</t>
+  </si>
+  <si>
+    <t>loanTracks.label</t>
+  </si>
+  <si>
+    <t>loanTracks.balance.label</t>
+  </si>
+  <si>
+    <t>loanTracks.endDate.label</t>
+  </si>
+  <si>
+    <t>loanTracks.interest_rate.label</t>
+  </si>
+  <si>
+    <t>loanTracks.interest_type.choices.fixed</t>
+  </si>
+  <si>
+    <t>loanTracks.interest_type.choices.change</t>
+  </si>
+  <si>
+    <t>loanTracks.interest_type.label</t>
+  </si>
+  <si>
+    <t>loanTracks.linkage_type.choices.fixed</t>
+  </si>
+  <si>
+    <t>loanTracks.linkage_type.choices.cpi</t>
+  </si>
+  <si>
+    <t>loanTracks.linkage_type.choices.dollar</t>
+  </si>
+  <si>
+    <t>loanTracks.linkage_type.label</t>
+  </si>
+  <si>
+    <t>loanTracks.loan_type.choices.ballon</t>
+  </si>
+  <si>
+    <t>loanTracks.loan_type.choices.shpizer</t>
+  </si>
+  <si>
+    <t>loanTracks.loan_type.choices.equal</t>
+  </si>
+  <si>
+    <t>loanTracks.loan_type.label</t>
+  </si>
+  <si>
+    <t>customerMoreDetails.label</t>
+  </si>
+  <si>
+    <t>customerMoreDetails.first_name.label</t>
+  </si>
+  <si>
+    <t>customerMoreDetails.last_name.label</t>
+  </si>
+  <si>
+    <t>customerMoreDetails.card_id.label</t>
+  </si>
+  <si>
+    <t>customerMoreDetails.phone.label</t>
+  </si>
+  <si>
+    <t>customerMoreDetails.email.label</t>
+  </si>
+  <si>
+    <t>customerMoreDetails.city.label</t>
+  </si>
+  <si>
+    <t>customerMoreDetails.street.label</t>
+  </si>
+  <si>
+    <t>customerMoreDetails.street_number.label</t>
+  </si>
+  <si>
+    <t>customerMoreDetails.apartment_number.label</t>
+  </si>
+  <si>
+    <t>mortgagePropertyAddress.label</t>
+  </si>
+  <si>
+    <t>mortgagePropertyAddress.same_address_mortgage.label</t>
+  </si>
+  <si>
+    <t>mortgagePropertyAddress.property_city.label</t>
+  </si>
+  <si>
+    <t>mortgagePropertyAddress.property_street.label</t>
+  </si>
+  <si>
+    <t>mortgagePropertyAddress.property_street_number.label</t>
+  </si>
+  <si>
+    <t>mortgagePropertyAddress.property_apartment_number.label</t>
+  </si>
+  <si>
+    <t>insuranceDetails.label</t>
+  </si>
+  <si>
+    <t>insuranceDetails.insurance_start_date.label</t>
+  </si>
+  <si>
+    <t>insuranceDetails.bank_name.label</t>
+  </si>
+  <si>
+    <t>insuranceDetails.bank_name.placeholder</t>
+  </si>
+  <si>
+    <t>insuranceDetails.bank_number.label</t>
+  </si>
+  <si>
+    <t>insuranceDetails.bank_number.placeholder</t>
+  </si>
+  <si>
+    <t>insuranceDetails.bank_branch.label</t>
+  </si>
+  <si>
+    <t>insuranceDetails.bank_branch.placeholder</t>
+  </si>
+  <si>
+    <t>insuranceDetails.bank_branch_number.label</t>
+  </si>
+  <si>
+    <t>insuranceDetails.bank_branch_number.placeholder</t>
+  </si>
+  <si>
+    <t>sendLinksToComplete.label</t>
+  </si>
+  <si>
+    <t>sendLinksToComplete.email_customer1.label</t>
+  </si>
+  <si>
+    <t>sendLinksToComplete.phone_customer1.label</t>
+  </si>
+  <si>
+    <t>sendLinksToComplete.email_customer2.label</t>
+  </si>
+  <si>
+    <t>sendLinksToComplete.phone_customer2.label</t>
+  </si>
+  <si>
+    <t>sendLinksToComplete.details_approval.label</t>
+  </si>
+  <si>
+    <t>newInsuranceThanksPage.label</t>
+  </si>
+  <si>
+    <t>knowTheAgent.label</t>
+  </si>
+  <si>
+    <t>knowTheAgent.placeholder</t>
+  </si>
+  <si>
+    <t>knowTheAgent.years_experience.label</t>
+  </si>
+  <si>
+    <t>knowTheAgent.years_experience.placeholder</t>
+  </si>
+  <si>
+    <t>knowTheAgent.worker_type.choices.freelancer</t>
+  </si>
+  <si>
+    <t>knowTheAgent.worker_type.choices.hired</t>
+  </si>
+  <si>
+    <t>knowTheAgent.worker_type.label</t>
+  </si>
+  <si>
+    <t>knowTheAgent.workplace_name.label</t>
+  </si>
+  <si>
+    <t>knowTheAgent.workplace_name.placeholder</t>
+  </si>
+  <si>
+    <t>knowTheAgent.number_of_files.label</t>
+  </si>
+  <si>
+    <t>knowTheAgent.number_of_files.placeholder</t>
+  </si>
+  <si>
+    <t>uploadIdPicture.label</t>
+  </si>
+  <si>
+    <t>uploadIdPicture.certificate_id_picture.label</t>
+  </si>
+  <si>
+    <t>uploadIdPicture.certificate_id_picture_later.label</t>
+  </si>
+  <si>
+    <t>bankDetails.bank_name.label</t>
+  </si>
+  <si>
+    <t>bankDetails.bank_name.placeholder</t>
+  </si>
+  <si>
+    <t>bankDetails.bank_number.label</t>
+  </si>
+  <si>
+    <t>bankDetails.bank_number.placeholder</t>
+  </si>
+  <si>
+    <t>bankDetails.bank_branch.label</t>
+  </si>
+  <si>
+    <t>bankDetails.bank_branch.placeholder</t>
+  </si>
+  <si>
+    <t>bankDetails.bank_branch_number.label</t>
+  </si>
+  <si>
+    <t>bankDetails.bank_branch_number.placeholder</t>
+  </si>
+  <si>
+    <t>bankDetails.bank_account.label</t>
+  </si>
+  <si>
+    <t>bankDetails.bank_account.placeholder</t>
+  </si>
+  <si>
+    <t>bankDetails.bank_details_later.label</t>
+  </si>
+  <si>
+    <t>agreeToTerms.label</t>
+  </si>
+  <si>
+    <t>agreeToTerms.signed_terms.label</t>
+  </si>
+  <si>
+    <t>registrationThanksPage.label</t>
+  </si>
+  <si>
+    <t>Not a valid phone number</t>
   </si>
   <si>
     <t>Required</t>
   </si>
   <si>
-    <t>contactUsPhone.label</t>
-  </si>
-  <si>
-    <t>contactUsPhone.contactDetailsPhone.full_name.label</t>
-  </si>
-  <si>
-    <t>contactUsPhone.contactDetailsPhone.phone.label</t>
-  </si>
-  <si>
-    <t>contactUsPhone.contactDetailsPhone.subject.label</t>
-  </si>
-  <si>
-    <t>contactUsPhone.contactDetailsPhone.product.label</t>
-  </si>
-  <si>
-    <t>contactUsPhone.contactDetailsPhone.product.choices.life</t>
-  </si>
-  <si>
-    <t>contactUsPhone.contactDetailsPhone.product.choices.life-mortgage</t>
-  </si>
-  <si>
-    <t>contactUsPhone.contactDetailsPhone.product.choices.property</t>
-  </si>
-  <si>
-    <t>contactUsPhone.contactDetailsPhone.product.choices.property-mortgage</t>
-  </si>
-  <si>
-    <t>contactUsPhone.contactDetailsPhone.product.header</t>
-  </si>
-  <si>
-    <t>contactUsPhone.contactDetailsPhone.header</t>
-  </si>
-  <si>
-    <t>contactUsPhone.contactDetailsPhone.name.label</t>
-  </si>
-  <si>
-    <t>contactUsPhone.contactDetailsPhone.contact_info.label</t>
-  </si>
-  <si>
-    <t>contactUsPhone.end.label</t>
-  </si>
-  <si>
-    <t>contactUsPhone.end.placeholder</t>
-  </si>
-  <si>
-    <t>contactUsPhone.end.text1</t>
-  </si>
-  <si>
-    <t>contactUsPhone.end.text2</t>
-  </si>
-  <si>
-    <t>Invalid email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">השוואה ורכישת ביטוח חיים </t>
-  </si>
-  <si>
-    <t>השוואה ורכישת ביטוח משכנתה</t>
-  </si>
-  <si>
-    <t>השוואה ורכישת ביטוח דירה</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> איך זה עובד?</t>
-  </si>
-  <si>
-    <t>מתאימים את הביטוח לנתונים האישיים שלכם, ממש כמו כפפה ליד</t>
-  </si>
-  <si>
-    <t>משווים לכם מחירים ללא אינטרס, ואתם בוחרים בהצעה המשתלמת ביותר</t>
-  </si>
-  <si>
-    <t>אנו עוקבים אחרי מחיר הביטוח שלכם, כך נדאג שתחסכו עד עשרות אלפי ₪</t>
-  </si>
-  <si>
-    <t>יש לכם כבר ביטוח חיים? העברת הביטוח עלינו.</t>
-  </si>
-  <si>
-    <t>יש לכם כבר ביטוח חיים למשכנתה? העברת הביטוח עלינו.</t>
-  </si>
-  <si>
-    <t>יש לכם כבר ביטוח דירה? העברת הביטוח עלינו.</t>
-  </si>
-  <si>
-    <t>להשוואה</t>
-  </si>
-  <si>
-    <t>Thanks for your interest in Smapy</t>
-  </si>
-  <si>
-    <t>Right now the service is available only through agents</t>
-  </si>
-  <si>
-    <t>Soon will be able to buy from the site</t>
-  </si>
-  <si>
-    <t>You will enjoy great service</t>
-  </si>
-  <si>
-    <t>Smapy -תודה שהתעניינת ב</t>
-  </si>
-  <si>
-    <t xml:space="preserve">כרגע השירות שלנו ניתן דרך יועצי משכנתאות וסוכני ביטוח. </t>
-  </si>
-  <si>
-    <t>בקרוב יהיה ניתן לרכוש ביטוח סמאפי מהאתר.</t>
-  </si>
-  <si>
-    <t>בסמאפי תהנו מחווית שירות שירות שטרם הכרתם.</t>
-  </si>
-  <si>
-    <t>צרו איתי קשר</t>
-  </si>
-  <si>
-    <t>Full name</t>
+    <t>Not valid israeli id number</t>
+  </si>
+  <si>
+    <t>registrationFlow.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.register.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.register.first_name.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.register.last_name.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.knowTheAgent.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.knowTheAgent.placeholder</t>
+  </si>
+  <si>
+    <t>registrationFlow.knowTheAgent.years_experience.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.knowTheAgent.years_experience.placeholder</t>
+  </si>
+  <si>
+    <t>registrationFlow.knowTheAgent.worker_type.choices.freelancer</t>
+  </si>
+  <si>
+    <t>registrationFlow.knowTheAgent.worker_type.choices.hired</t>
+  </si>
+  <si>
+    <t>registrationFlow.knowTheAgent.worker_type.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.knowTheAgent.workplace_name.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.knowTheAgent.workplace_name.placeholder</t>
+  </si>
+  <si>
+    <t>registrationFlow.knowTheAgent.number_of_files.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.knowTheAgent.number_of_files.placeholder</t>
+  </si>
+  <si>
+    <t>registrationFlow.knowTheAgent.step_sub</t>
+  </si>
+  <si>
+    <t>registrationFlow.uploadIdPicture.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.uploadIdPicture.certificate_id_picture.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.uploadIdPicture.certificate_id_picture_later.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.uploadIdPicture.step_sub</t>
+  </si>
+  <si>
+    <t>registrationFlow.bankDetails.bank_name.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.bankDetails.bank_name.placeholder</t>
+  </si>
+  <si>
+    <t>registrationFlow.bankDetails.bank_number.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.bankDetails.bank_number.placeholder</t>
+  </si>
+  <si>
+    <t>registrationFlow.bankDetails.bank_branch.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.bankDetails.bank_branch.placeholder</t>
+  </si>
+  <si>
+    <t>registrationFlow.bankDetails.bank_branch_number.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.bankDetails.bank_branch_number.placeholder</t>
+  </si>
+  <si>
+    <t>registrationFlow.bankDetails.bank_account.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.bankDetails.bank_account.placeholder</t>
+  </si>
+  <si>
+    <t>registrationFlow.bankDetails.bank_details_later.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.bankDetails.step_sub</t>
+  </si>
+  <si>
+    <t>registrationFlow.agreeToTerms.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.agreeToTerms.signed_terms.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.agreeToTerms.step_sub</t>
+  </si>
+  <si>
+    <t>registrationFlow.end.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.end.placeholder</t>
+  </si>
+  <si>
+    <t>registrationFlow.end.text2</t>
+  </si>
+  <si>
+    <t>registrationFlow.end.step_sub</t>
+  </si>
+  <si>
+    <t>registrationFlow.userNames.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.userNames.first_name.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.userNames.last_name.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.userNames.step_sub</t>
+  </si>
+  <si>
+    <t>Bank name is required</t>
+  </si>
+  <si>
+    <t>lifeInsurance.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.howDoesItWork.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.howDoesItWork.text_1</t>
+  </si>
+  <si>
+    <t>lifeInsurance.howDoesItWork.text_2</t>
+  </si>
+  <si>
+    <t>lifeInsurance.howDoesItWork.text_3</t>
+  </si>
+  <si>
+    <t>lifeInsurance.howDoesItWork.text_life4</t>
+  </si>
+  <si>
+    <t>lifeInsurance.howDoesItWork.text_mortgage4</t>
+  </si>
+  <si>
+    <t>lifeInsurance.howDoesItWork.text_property4</t>
+  </si>
+  <si>
+    <t>lifeInsurance.howDoesItWork.next</t>
+  </si>
+  <si>
+    <t>lifeInsurance.numberOfCustomers.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.numberOfCustomers.number_of_customers.choices.1</t>
+  </si>
+  <si>
+    <t>lifeInsurance.numberOfCustomers.number_of_customers.choices.2</t>
+  </si>
+  <si>
+    <t>lifeInsurance.numberOfCustomers.number_of_customers.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.gender.choices.male</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.gender.choices.female</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.gender.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.smoking.choices.yes</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.smoking.choices.no</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.smoking.choices.stop</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.smoking.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.smoking_stop_month.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.first_name.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.last_name.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.family_status.choices.Single</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.family_status.choices.Married</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.family_status.choices.Divorced</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.family_status.choices.Separated</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.family_status.choices.Widowed</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.family_status.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.birthDate.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails2.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails2.occupation.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails2.dangerous_hobby_has.choices.0</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails2.dangerous_hobby_has.choices.1</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails2.dangerous_hobby_has.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails2.dangerous_hobby.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails2.dangerous_hobby_desc.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracksCount.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracksCount.loan_tracks_count.choices.1</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracksCount.loan_tracks_count.choices.2</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracksCount.loan_tracks_count.choices.3</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracksCount.loan_tracks_count.choices.4</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracksCount.loan_tracks_count.choices.5</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracksCount.loan_tracks_count.choices.6</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracksCount.loan_tracks_count.choices.7</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracksCount.loan_tracks_count.choices.8</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracksCount.loan_tracks_count.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracks.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracks.balance.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracks.endDate.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracks.interest_rate.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracks.interest_type.choices.fixed</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracks.interest_type.choices.change</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracks.interest_type.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracks.linkage_type.choices.fixed</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracks.linkage_type.choices.cpi</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracks.linkage_type.choices.dollar</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracks.linkage_type.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracks.loan_type.choices.ballon</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracks.loan_type.choices.shpizer</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracks.loan_type.choices.equal</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracks.loan_type.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerMoreDetails.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerMoreDetails.first_name.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerMoreDetails.last_name.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerMoreDetails.card_id.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerMoreDetails.phone.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerMoreDetails.email.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerMoreDetails.city.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerMoreDetails.street.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerMoreDetails.street_number.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerMoreDetails.apartment_number.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.mortgagePropertyAddress.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.mortgagePropertyAddress.same_address_mortgage.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.mortgagePropertyAddress.property_city.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.mortgagePropertyAddress.property_street.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.mortgagePropertyAddress.property_street_number.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.mortgagePropertyAddress.property_apartment_number.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.insuranceDetails.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.insuranceDetails.insurance_start_date.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.insuranceDetails.bank_name.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.insuranceDetails.bank_name.placeholder</t>
+  </si>
+  <si>
+    <t>lifeInsurance.insuranceDetails.bank_number.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.insuranceDetails.bank_number.placeholder</t>
+  </si>
+  <si>
+    <t>lifeInsurance.insuranceDetails.bank_branch.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.insuranceDetails.bank_branch.placeholder</t>
+  </si>
+  <si>
+    <t>lifeInsurance.insuranceDetails.bank_branch_number.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.insuranceDetails.bank_branch_number.placeholder</t>
+  </si>
+  <si>
+    <t>lifeInsurance.sendLinksToComplete.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.sendLinksToComplete.email_customer1.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.sendLinksToComplete.phone_customer1.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.sendLinksToComplete.email_customer2.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.sendLinksToComplete.phone_customer2.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.sendLinksToComplete.details_approval.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.end.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.end.placeholder</t>
+  </si>
+  <si>
+    <t>lifeInsurance.end.text1</t>
+  </si>
+  <si>
+    <t>lifeInsurance.end.text2</t>
+  </si>
+  <si>
+    <t>lifeInsurance.end.question</t>
+  </si>
+  <si>
+    <t>lifeInsurance.end.yesMessage</t>
+  </si>
+  <si>
+    <t>lifeInsurance.end.yes</t>
+  </si>
+  <si>
+    <t>lifeInsurance.end.no</t>
+  </si>
+  <si>
+    <t>lifeInsurance.end.end</t>
+  </si>
+  <si>
+    <t>*TRANSLATE*</t>
+  </si>
+  <si>
+    <t>ID Card Number</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>schemaRegister</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>default test</t>
+  </si>
+  <si>
+    <t>Test 3 - default test</t>
+  </si>
+  <si>
+    <t>New Life Insurance for Mortgage</t>
+  </si>
+  <si>
+    <t>Choose number of customers</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>How many customers</t>
+  </si>
+  <si>
+    <t>Personal Details</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Stop Last 2 Years</t>
+  </si>
+  <si>
+    <t>Smoked last 2 years?</t>
+  </si>
+  <si>
+    <t>How long ago you stop?</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Divorced</t>
+  </si>
+  <si>
+    <t>Separated</t>
+  </si>
+  <si>
+    <t>Widowed</t>
+  </si>
+  <si>
+    <t>Family Status</t>
+  </si>
+  <si>
+    <t>Date of birth</t>
+  </si>
+  <si>
+    <t>General Details</t>
+  </si>
+  <si>
+    <t>Customer occupation</t>
+  </si>
+  <si>
+    <t>Customer has dangerous hobby?</t>
+  </si>
+  <si>
+    <t>Hobby</t>
+  </si>
+  <si>
+    <t>Hobby Description</t>
+  </si>
+  <si>
+    <t>Select mortgage track count</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>How many mortgage path?</t>
+  </si>
+  <si>
+    <t>Mortgage track details</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Loan end Date</t>
+  </si>
+  <si>
+    <t>Interest percentage</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>Interest Type</t>
+  </si>
+  <si>
+    <t>cpi</t>
+  </si>
+  <si>
+    <t>dollar</t>
+  </si>
+  <si>
+    <t>Linkage Type</t>
+  </si>
+  <si>
+    <t>ballon</t>
+  </si>
+  <si>
+    <t>shpizer</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>Loan Type</t>
+  </si>
+  <si>
+    <t>Complete Personal Details</t>
+  </si>
+  <si>
+    <t>Card ID</t>
+  </si>
+  <si>
+    <t>Phone</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>הודעה</t>
-  </si>
-  <si>
-    <t>באיזה ביטוח היית רוצה שנעזור לך?</t>
-  </si>
-  <si>
-    <t>ביטוח חיים</t>
-  </si>
-  <si>
-    <t>ביטוח חיים למשכנתא</t>
-  </si>
-  <si>
-    <t>ביטוח מבנה</t>
-  </si>
-  <si>
-    <t>ביטוח מבנה משכנתא</t>
-  </si>
-  <si>
-    <t>מלאו פרטים ונחזור אליכם בהקדם</t>
-  </si>
-  <si>
-    <t>מייל</t>
-  </si>
-  <si>
-    <t>שם מלא</t>
+    <t>City name</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>Street Number</t>
+  </si>
+  <si>
+    <t>Apartment Number</t>
+  </si>
+  <si>
+    <t>Property Address</t>
+  </si>
+  <si>
+    <t>Same address for mortgage property?</t>
+  </si>
+  <si>
+    <t>Insurance details</t>
+  </si>
+  <si>
+    <t>Insurance start date</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Bank name</t>
+  </si>
+  <si>
+    <t>Bank Number</t>
+  </si>
+  <si>
+    <t>Bank Number...</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Branch...</t>
+  </si>
+  <si>
+    <t>Branch Number</t>
+  </si>
+  <si>
+    <t>Branch Number...</t>
+  </si>
+  <si>
+    <t>Send links to complete</t>
+  </si>
+  <si>
+    <t>Email customer 1</t>
+  </si>
+  <si>
+    <t>Phone customer 1</t>
+  </si>
+  <si>
+    <t>Email customer 2</t>
+  </si>
+  <si>
+    <t>Phone customer 2</t>
+  </si>
+  <si>
+    <t>I confirm all details are correct and complete</t>
+  </si>
+  <si>
+    <t>newInsuranceThanksPage</t>
+  </si>
+  <si>
+    <t>Partnership start with a good recognition</t>
+  </si>
+  <si>
+    <t>Some of your experience</t>
+  </si>
+  <si>
+    <t>Advisory years of experience</t>
+  </si>
+  <si>
+    <t>Years...</t>
+  </si>
+  <si>
+    <t>Freelancer</t>
+  </si>
+  <si>
+    <t>Hired</t>
+  </si>
+  <si>
+    <t>Are you</t>
+  </si>
+  <si>
+    <t>Name of workplace</t>
+  </si>
+  <si>
+    <t>Name...</t>
+  </si>
+  <si>
+    <t>Number of files a month (Optional)</t>
+  </si>
+  <si>
+    <t>Average...,</t>
+  </si>
+  <si>
+    <t>Identification</t>
+  </si>
+  <si>
+    <t>Upload ID Picture</t>
+  </si>
+  <si>
+    <t>Will upload ID later</t>
+  </si>
+  <si>
+    <t>Account Number</t>
+  </si>
+  <si>
+    <t>Account Number...</t>
+  </si>
+  <si>
+    <t>Will fill later</t>
+  </si>
+  <si>
+    <t>Terms</t>
+  </si>
+  <si>
+    <t>Confirm terms</t>
+  </si>
+  <si>
+    <t>registrationThanksPage</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Complete missing details</t>
+  </si>
+  <si>
+    <t>Know You</t>
+  </si>
+  <si>
+    <t>Identify</t>
+  </si>
+  <si>
+    <t>Bank Details</t>
+  </si>
+  <si>
+    <t>Thanks for join the Smapy</t>
+  </si>
+  <si>
+    <t>really excited</t>
+  </si>
+  <si>
+    <t>Will do everything to give service to you and your customers</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Advisor details</t>
+  </si>
+  <si>
+    <t>Personal details</t>
+  </si>
+  <si>
+    <t>How Does It Work?</t>
+  </si>
+  <si>
+    <t>text_1</t>
+  </si>
+  <si>
+    <t>text_2</t>
+  </si>
+  <si>
+    <t>text_3</t>
+  </si>
+  <si>
+    <t>text_life4</t>
+  </si>
+  <si>
+    <t>text_mortgage4</t>
+  </si>
+  <si>
+    <t>text_property4</t>
+  </si>
+  <si>
+    <t>Compare</t>
   </si>
   <si>
     <t>Thanks for choosing Smapy</t>
   </si>
   <si>
-    <t>Thanks</t>
-  </si>
-  <si>
-    <t>Will contact you soon</t>
-  </si>
-  <si>
-    <t>שדה חובה</t>
-  </si>
-  <si>
-    <t>מספר טלפון</t>
-  </si>
-  <si>
-    <t>נושא</t>
-  </si>
-  <si>
-    <t>Fill details and will return to you</t>
-  </si>
-  <si>
-    <t>מייל בלתי חוקי</t>
+    <t>Order received successfully</t>
+  </si>
+  <si>
+    <t>Link to complete was sent</t>
+  </si>
+  <si>
+    <t>In 2 years we will compare again</t>
+  </si>
+  <si>
+    <t>Customer need property insurance?</t>
+  </si>
+  <si>
+    <t>Cool, we will call him</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>end</t>
   </si>
 </sst>
 </file>
@@ -659,7 +1610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -681,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>279</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -692,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>280</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -703,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>279</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -714,7 +1665,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>281</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -725,7 +1676,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>282</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -736,7 +1687,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>283</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -747,7 +1698,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>284</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -758,7 +1709,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>285</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -769,7 +1720,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>286</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -780,7 +1731,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>287</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -791,7 +1742,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>288</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -802,7 +1753,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>289</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -813,7 +1764,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>290</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -824,7 +1775,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>291</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -835,7 +1786,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>292</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -846,7 +1797,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>293</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -857,7 +1808,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>294</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -868,7 +1819,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>295</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -879,7 +1830,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>296</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -890,7 +1841,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>297</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -901,7 +1852,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -912,7 +1863,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>299</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -923,7 +1874,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>300</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -934,7 +1885,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>301</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -945,7 +1896,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -956,7 +1907,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>302</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -967,7 +1918,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>303</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -978,7 +1929,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -989,7 +1940,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>305</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -1000,7 +1951,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>306</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -1011,7 +1962,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>307</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -1022,7 +1973,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>308</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -1033,7 +1984,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>309</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -1044,7 +1995,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>310</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -1055,7 +2006,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>297</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -1066,7 +2017,7 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>296</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -1077,7 +2028,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>311</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -1088,7 +2039,7 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>312</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -1099,7 +2050,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>313</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -1110,7 +2061,7 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>314</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -1121,7 +2072,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -1132,7 +2083,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>316</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -1143,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>317</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -1154,7 +2105,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>318</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
@@ -1165,7 +2116,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>319</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -1176,7 +2127,7 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>320</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -1187,7 +2138,7 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>321</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -1198,7 +2149,7 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>322</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -1209,7 +2160,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>323</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -1220,7 +2171,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>324</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -1231,7 +2182,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>325</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -1242,7 +2193,7 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>326</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -1253,7 +2204,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>327</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -1264,9 +2215,2451 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
+        <v>328</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>329</v>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>330</v>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>328</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>331</v>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>332</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>333</v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>334</v>
+      </c>
+      <c r="C62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>335</v>
+      </c>
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>336</v>
+      </c>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>337</v>
+      </c>
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>338</v>
+      </c>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>301</v>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>301</v>
+      </c>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>339</v>
+      </c>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>340</v>
+      </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>341</v>
+      </c>
+      <c r="C71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>342</v>
+      </c>
+      <c r="C72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>343</v>
+      </c>
+      <c r="C73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>344</v>
+      </c>
+      <c r="C74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>345</v>
+      </c>
+      <c r="C75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>346</v>
+      </c>
+      <c r="C76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>347</v>
+      </c>
+      <c r="C77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>342</v>
+      </c>
+      <c r="C78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
+        <v>343</v>
+      </c>
+      <c r="C79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
+        <v>344</v>
+      </c>
+      <c r="C80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s">
+        <v>345</v>
+      </c>
+      <c r="C81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>348</v>
+      </c>
+      <c r="C82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>349</v>
+      </c>
+      <c r="C83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>350</v>
+      </c>
+      <c r="C84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>351</v>
+      </c>
+      <c r="C85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
+        <v>352</v>
+      </c>
+      <c r="C86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>353</v>
+      </c>
+      <c r="C87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>354</v>
+      </c>
+      <c r="C88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>355</v>
+      </c>
+      <c r="C89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>356</v>
+      </c>
+      <c r="C90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" t="s">
+        <v>357</v>
+      </c>
+      <c r="C91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>358</v>
+      </c>
+      <c r="C92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" t="s">
+        <v>359</v>
+      </c>
+      <c r="C93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
         <v>95</v>
       </c>
-      <c r="C55" t="b">
+      <c r="B94" t="s">
+        <v>360</v>
+      </c>
+      <c r="C94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s">
+        <v>361</v>
+      </c>
+      <c r="C95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" t="s">
+        <v>362</v>
+      </c>
+      <c r="C96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" t="s">
+        <v>363</v>
+      </c>
+      <c r="C97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" t="s">
+        <v>364</v>
+      </c>
+      <c r="C98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" t="s">
+        <v>365</v>
+      </c>
+      <c r="C99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" t="s">
+        <v>366</v>
+      </c>
+      <c r="C100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" t="s">
+        <v>367</v>
+      </c>
+      <c r="C101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" t="s">
+        <v>368</v>
+      </c>
+      <c r="C102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" t="s">
+        <v>369</v>
+      </c>
+      <c r="C103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" t="s">
+        <v>370</v>
+      </c>
+      <c r="C104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" t="s">
+        <v>371</v>
+      </c>
+      <c r="C105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" t="s">
+        <v>372</v>
+      </c>
+      <c r="C106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" t="s">
+        <v>373</v>
+      </c>
+      <c r="C107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" t="s">
+        <v>374</v>
+      </c>
+      <c r="C108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" t="s">
+        <v>375</v>
+      </c>
+      <c r="C109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" t="s">
+        <v>376</v>
+      </c>
+      <c r="C110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" t="s">
+        <v>377</v>
+      </c>
+      <c r="C111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" t="s">
+        <v>378</v>
+      </c>
+      <c r="C112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" t="s">
+        <v>350</v>
+      </c>
+      <c r="C113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" t="s">
+        <v>351</v>
+      </c>
+      <c r="C114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" t="s">
+        <v>352</v>
+      </c>
+      <c r="C115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" t="s">
+        <v>353</v>
+      </c>
+      <c r="C116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" t="s">
+        <v>354</v>
+      </c>
+      <c r="C117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" t="s">
+        <v>355</v>
+      </c>
+      <c r="C118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" t="s">
+        <v>356</v>
+      </c>
+      <c r="C119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" t="s">
+        <v>357</v>
+      </c>
+      <c r="C120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" t="s">
+        <v>379</v>
+      </c>
+      <c r="C121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" t="s">
+        <v>380</v>
+      </c>
+      <c r="C122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" t="s">
+        <v>381</v>
+      </c>
+      <c r="C123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" t="s">
+        <v>382</v>
+      </c>
+      <c r="C124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" t="s">
+        <v>383</v>
+      </c>
+      <c r="C125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" t="s">
+        <v>384</v>
+      </c>
+      <c r="C126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" t="s">
+        <v>128</v>
+      </c>
+      <c r="C127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" t="s">
+        <v>129</v>
+      </c>
+      <c r="C128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" t="s">
+        <v>130</v>
+      </c>
+      <c r="C129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" t="s">
+        <v>385</v>
+      </c>
+      <c r="C130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" t="s">
+        <v>386</v>
+      </c>
+      <c r="C131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" t="s">
+        <v>283</v>
+      </c>
+      <c r="C132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133" t="s">
+        <v>284</v>
+      </c>
+      <c r="C133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" t="s">
+        <v>365</v>
+      </c>
+      <c r="C134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" t="s">
+        <v>366</v>
+      </c>
+      <c r="C135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" t="s">
+        <v>367</v>
+      </c>
+      <c r="C136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" t="s">
+        <v>368</v>
+      </c>
+      <c r="C137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" t="s">
+        <v>369</v>
+      </c>
+      <c r="C138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" t="s">
+        <v>370</v>
+      </c>
+      <c r="C139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" t="s">
+        <v>371</v>
+      </c>
+      <c r="C140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" t="s">
+        <v>372</v>
+      </c>
+      <c r="C141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142" t="s">
+        <v>373</v>
+      </c>
+      <c r="C142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143" t="s">
+        <v>374</v>
+      </c>
+      <c r="C143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144" t="s">
+        <v>375</v>
+      </c>
+      <c r="C144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145" t="s">
+        <v>387</v>
+      </c>
+      <c r="C145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146" t="s">
+        <v>376</v>
+      </c>
+      <c r="C146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147" t="s">
+        <v>377</v>
+      </c>
+      <c r="C147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" t="s">
+        <v>378</v>
+      </c>
+      <c r="C148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149" t="s">
+        <v>388</v>
+      </c>
+      <c r="C149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150" t="s">
+        <v>350</v>
+      </c>
+      <c r="C150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151" t="s">
+        <v>351</v>
+      </c>
+      <c r="C151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152" t="s">
+        <v>352</v>
+      </c>
+      <c r="C152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153" t="s">
+        <v>353</v>
+      </c>
+      <c r="C153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154" t="s">
+        <v>354</v>
+      </c>
+      <c r="C154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155" t="s">
+        <v>355</v>
+      </c>
+      <c r="C155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156" t="s">
+        <v>356</v>
+      </c>
+      <c r="C156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157" t="s">
+        <v>357</v>
+      </c>
+      <c r="C157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158" t="s">
+        <v>379</v>
+      </c>
+      <c r="C158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159" t="s">
+        <v>380</v>
+      </c>
+      <c r="C159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160" t="s">
+        <v>381</v>
+      </c>
+      <c r="C160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161" t="s">
+        <v>389</v>
+      </c>
+      <c r="C161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162" t="s">
+        <v>382</v>
+      </c>
+      <c r="C162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163" t="s">
+        <v>383</v>
+      </c>
+      <c r="C163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164" t="s">
+        <v>382</v>
+      </c>
+      <c r="C164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165" t="s">
+        <v>390</v>
+      </c>
+      <c r="C165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166" t="s">
+        <v>391</v>
+      </c>
+      <c r="C166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167" t="s">
+        <v>392</v>
+      </c>
+      <c r="C167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168" t="s">
+        <v>393</v>
+      </c>
+      <c r="C168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169" t="s">
+        <v>394</v>
+      </c>
+      <c r="C169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>171</v>
+      </c>
+      <c r="B170" t="s">
+        <v>283</v>
+      </c>
+      <c r="C170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171" t="s">
+        <v>284</v>
+      </c>
+      <c r="C171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172" t="s">
+        <v>395</v>
+      </c>
+      <c r="C172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173" t="s">
+        <v>174</v>
+      </c>
+      <c r="C173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>175</v>
+      </c>
+      <c r="B174" t="s">
+        <v>287</v>
+      </c>
+      <c r="C174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175" t="s">
+        <v>396</v>
+      </c>
+      <c r="C175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176" t="s">
+        <v>397</v>
+      </c>
+      <c r="C176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177" t="s">
+        <v>398</v>
+      </c>
+      <c r="C177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178" t="s">
+        <v>399</v>
+      </c>
+      <c r="C178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>180</v>
+      </c>
+      <c r="B179" t="s">
+        <v>400</v>
+      </c>
+      <c r="C179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180" t="s">
+        <v>401</v>
+      </c>
+      <c r="C180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181" t="s">
+        <v>402</v>
+      </c>
+      <c r="C181" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>183</v>
+      </c>
+      <c r="B182" t="s">
+        <v>403</v>
+      </c>
+      <c r="C182" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>184</v>
+      </c>
+      <c r="B183" t="s">
+        <v>288</v>
+      </c>
+      <c r="C183" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184" t="s">
+        <v>289</v>
+      </c>
+      <c r="C184" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>186</v>
+      </c>
+      <c r="B185" t="s">
+        <v>290</v>
+      </c>
+      <c r="C185" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186" t="s">
+        <v>291</v>
+      </c>
+      <c r="C186" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>188</v>
+      </c>
+      <c r="B187" t="s">
+        <v>292</v>
+      </c>
+      <c r="C187" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188" t="s">
+        <v>293</v>
+      </c>
+      <c r="C188" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189" t="s">
+        <v>294</v>
+      </c>
+      <c r="C189" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>191</v>
+      </c>
+      <c r="B190" t="s">
+        <v>295</v>
+      </c>
+      <c r="C190" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>192</v>
+      </c>
+      <c r="B191" t="s">
+        <v>296</v>
+      </c>
+      <c r="C191" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>193</v>
+      </c>
+      <c r="B192" t="s">
+        <v>297</v>
+      </c>
+      <c r="C192" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193" t="s">
+        <v>298</v>
+      </c>
+      <c r="C193" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>195</v>
+      </c>
+      <c r="B194" t="s">
+        <v>299</v>
+      </c>
+      <c r="C194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>196</v>
+      </c>
+      <c r="B195" t="s">
+        <v>300</v>
+      </c>
+      <c r="C195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>197</v>
+      </c>
+      <c r="B196" t="s">
+        <v>301</v>
+      </c>
+      <c r="C196" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>198</v>
+      </c>
+      <c r="B197" t="s">
+        <v>301</v>
+      </c>
+      <c r="C197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>199</v>
+      </c>
+      <c r="B198" t="s">
+        <v>302</v>
+      </c>
+      <c r="C198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>200</v>
+      </c>
+      <c r="B199" t="s">
+        <v>303</v>
+      </c>
+      <c r="C199" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>201</v>
+      </c>
+      <c r="B200" t="s">
+        <v>304</v>
+      </c>
+      <c r="C200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>202</v>
+      </c>
+      <c r="B201" t="s">
+        <v>305</v>
+      </c>
+      <c r="C201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>203</v>
+      </c>
+      <c r="B202" t="s">
+        <v>306</v>
+      </c>
+      <c r="C202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>204</v>
+      </c>
+      <c r="B203" t="s">
+        <v>307</v>
+      </c>
+      <c r="C203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>205</v>
+      </c>
+      <c r="B204" t="s">
+        <v>308</v>
+      </c>
+      <c r="C204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>206</v>
+      </c>
+      <c r="B205" t="s">
+        <v>309</v>
+      </c>
+      <c r="C205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>207</v>
+      </c>
+      <c r="B206" t="s">
+        <v>310</v>
+      </c>
+      <c r="C206" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>208</v>
+      </c>
+      <c r="B207" t="s">
+        <v>297</v>
+      </c>
+      <c r="C207" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>209</v>
+      </c>
+      <c r="B208" t="s">
+        <v>296</v>
+      </c>
+      <c r="C208" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>210</v>
+      </c>
+      <c r="B209" t="s">
+        <v>311</v>
+      </c>
+      <c r="C209" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>211</v>
+      </c>
+      <c r="B210" t="s">
+        <v>312</v>
+      </c>
+      <c r="C210" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>212</v>
+      </c>
+      <c r="B211" t="s">
+        <v>313</v>
+      </c>
+      <c r="C211" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>213</v>
+      </c>
+      <c r="B212" t="s">
+        <v>314</v>
+      </c>
+      <c r="C212" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>214</v>
+      </c>
+      <c r="B213" t="s">
+        <v>315</v>
+      </c>
+      <c r="C213" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>215</v>
+      </c>
+      <c r="B214" t="s">
+        <v>316</v>
+      </c>
+      <c r="C214" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>216</v>
+      </c>
+      <c r="B215" t="s">
+        <v>317</v>
+      </c>
+      <c r="C215" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>217</v>
+      </c>
+      <c r="B216" t="s">
+        <v>318</v>
+      </c>
+      <c r="C216" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>218</v>
+      </c>
+      <c r="B217" t="s">
+        <v>319</v>
+      </c>
+      <c r="C217" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>219</v>
+      </c>
+      <c r="B218" t="s">
+        <v>320</v>
+      </c>
+      <c r="C218" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>220</v>
+      </c>
+      <c r="B219" t="s">
+        <v>321</v>
+      </c>
+      <c r="C219" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>221</v>
+      </c>
+      <c r="B220" t="s">
+        <v>322</v>
+      </c>
+      <c r="C220" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>222</v>
+      </c>
+      <c r="B221" t="s">
+        <v>323</v>
+      </c>
+      <c r="C221" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>223</v>
+      </c>
+      <c r="B222" t="s">
+        <v>324</v>
+      </c>
+      <c r="C222" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>224</v>
+      </c>
+      <c r="B223" t="s">
+        <v>325</v>
+      </c>
+      <c r="C223" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>225</v>
+      </c>
+      <c r="B224" t="s">
+        <v>326</v>
+      </c>
+      <c r="C224" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>226</v>
+      </c>
+      <c r="B225" t="s">
+        <v>327</v>
+      </c>
+      <c r="C225" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>227</v>
+      </c>
+      <c r="B226" t="s">
+        <v>328</v>
+      </c>
+      <c r="C226" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>228</v>
+      </c>
+      <c r="B227" t="s">
+        <v>329</v>
+      </c>
+      <c r="C227" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>229</v>
+      </c>
+      <c r="B228" t="s">
+        <v>330</v>
+      </c>
+      <c r="C228" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>230</v>
+      </c>
+      <c r="B229" t="s">
+        <v>328</v>
+      </c>
+      <c r="C229" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>231</v>
+      </c>
+      <c r="B230" t="s">
+        <v>331</v>
+      </c>
+      <c r="C230" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>232</v>
+      </c>
+      <c r="B231" t="s">
+        <v>332</v>
+      </c>
+      <c r="C231" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>233</v>
+      </c>
+      <c r="B232" t="s">
+        <v>333</v>
+      </c>
+      <c r="C232" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>234</v>
+      </c>
+      <c r="B233" t="s">
+        <v>334</v>
+      </c>
+      <c r="C233" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>235</v>
+      </c>
+      <c r="B234" t="s">
+        <v>335</v>
+      </c>
+      <c r="C234" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>236</v>
+      </c>
+      <c r="B235" t="s">
+        <v>336</v>
+      </c>
+      <c r="C235" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>237</v>
+      </c>
+      <c r="B236" t="s">
+        <v>337</v>
+      </c>
+      <c r="C236" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>238</v>
+      </c>
+      <c r="B237" t="s">
+        <v>338</v>
+      </c>
+      <c r="C237" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>239</v>
+      </c>
+      <c r="B238" t="s">
+        <v>301</v>
+      </c>
+      <c r="C238" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>240</v>
+      </c>
+      <c r="B239" t="s">
+        <v>301</v>
+      </c>
+      <c r="C239" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>241</v>
+      </c>
+      <c r="B240" t="s">
+        <v>339</v>
+      </c>
+      <c r="C240" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>242</v>
+      </c>
+      <c r="B241" t="s">
+        <v>340</v>
+      </c>
+      <c r="C241" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>243</v>
+      </c>
+      <c r="B242" t="s">
+        <v>341</v>
+      </c>
+      <c r="C242" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>244</v>
+      </c>
+      <c r="B243" t="s">
+        <v>342</v>
+      </c>
+      <c r="C243" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>245</v>
+      </c>
+      <c r="B244" t="s">
+        <v>343</v>
+      </c>
+      <c r="C244" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>246</v>
+      </c>
+      <c r="B245" t="s">
+        <v>344</v>
+      </c>
+      <c r="C245" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>247</v>
+      </c>
+      <c r="B246" t="s">
+        <v>345</v>
+      </c>
+      <c r="C246" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>248</v>
+      </c>
+      <c r="B247" t="s">
+        <v>346</v>
+      </c>
+      <c r="C247" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>249</v>
+      </c>
+      <c r="B248" t="s">
+        <v>347</v>
+      </c>
+      <c r="C248" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>250</v>
+      </c>
+      <c r="B249" t="s">
+        <v>342</v>
+      </c>
+      <c r="C249" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>251</v>
+      </c>
+      <c r="B250" t="s">
+        <v>343</v>
+      </c>
+      <c r="C250" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>252</v>
+      </c>
+      <c r="B251" t="s">
+        <v>344</v>
+      </c>
+      <c r="C251" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>253</v>
+      </c>
+      <c r="B252" t="s">
+        <v>345</v>
+      </c>
+      <c r="C252" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>254</v>
+      </c>
+      <c r="B253" t="s">
+        <v>348</v>
+      </c>
+      <c r="C253" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>255</v>
+      </c>
+      <c r="B254" t="s">
+        <v>349</v>
+      </c>
+      <c r="C254" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>256</v>
+      </c>
+      <c r="B255" t="s">
+        <v>350</v>
+      </c>
+      <c r="C255" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>257</v>
+      </c>
+      <c r="B256" t="s">
+        <v>351</v>
+      </c>
+      <c r="C256" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>258</v>
+      </c>
+      <c r="B257" t="s">
+        <v>352</v>
+      </c>
+      <c r="C257" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>259</v>
+      </c>
+      <c r="B258" t="s">
+        <v>353</v>
+      </c>
+      <c r="C258" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>260</v>
+      </c>
+      <c r="B259" t="s">
+        <v>354</v>
+      </c>
+      <c r="C259" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>261</v>
+      </c>
+      <c r="B260" t="s">
+        <v>355</v>
+      </c>
+      <c r="C260" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>262</v>
+      </c>
+      <c r="B261" t="s">
+        <v>356</v>
+      </c>
+      <c r="C261" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>263</v>
+      </c>
+      <c r="B262" t="s">
+        <v>357</v>
+      </c>
+      <c r="C262" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>264</v>
+      </c>
+      <c r="B263" t="s">
+        <v>358</v>
+      </c>
+      <c r="C263" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>265</v>
+      </c>
+      <c r="B264" t="s">
+        <v>359</v>
+      </c>
+      <c r="C264" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>266</v>
+      </c>
+      <c r="B265" t="s">
+        <v>360</v>
+      </c>
+      <c r="C265" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>267</v>
+      </c>
+      <c r="B266" t="s">
+        <v>361</v>
+      </c>
+      <c r="C266" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>268</v>
+      </c>
+      <c r="B267" t="s">
+        <v>362</v>
+      </c>
+      <c r="C267" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>269</v>
+      </c>
+      <c r="B268" t="s">
+        <v>363</v>
+      </c>
+      <c r="C268" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
+        <v>270</v>
+      </c>
+      <c r="B269" t="s">
+        <v>404</v>
+      </c>
+      <c r="C269" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>271</v>
+      </c>
+      <c r="B270" t="s">
+        <v>405</v>
+      </c>
+      <c r="C270" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>272</v>
+      </c>
+      <c r="B271" t="s">
+        <v>406</v>
+      </c>
+      <c r="C271" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>273</v>
+      </c>
+      <c r="B272" t="s">
+        <v>407</v>
+      </c>
+      <c r="C272" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>274</v>
+      </c>
+      <c r="B273" t="s">
+        <v>408</v>
+      </c>
+      <c r="C273" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>275</v>
+      </c>
+      <c r="B274" t="s">
+        <v>409</v>
+      </c>
+      <c r="C274" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
+        <v>276</v>
+      </c>
+      <c r="B275" t="s">
+        <v>410</v>
+      </c>
+      <c r="C275" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
+        <v>277</v>
+      </c>
+      <c r="B276" t="s">
+        <v>411</v>
+      </c>
+      <c r="C276" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>278</v>
+      </c>
+      <c r="B277" t="s">
+        <v>412</v>
+      </c>
+      <c r="C277" t="b">
         <v>0</v>
       </c>
     </row>

--- a/update_assets/input.xlsx
+++ b/update_assets/input.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="503">
   <si>
     <t>key</t>
   </si>
@@ -25,283 +25,1504 @@
     <t>format_flag</t>
   </si>
   <si>
-    <t>customerCompareAndBuy.title_life</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.title_mortgage</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.title_property</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.howDoesItWork.label</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.howDoesItWork.text_1</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.howDoesItWork.text_2</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.howDoesItWork.text_3</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.howDoesItWork.text_life4</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.howDoesItWork.text_mortgage4</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.howDoesItWork.text_property4</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.howDoesItWork.next</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.thanks.label</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.thanks.placeholder</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.thanks.text1</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.thanks.text2</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.end.label</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.end.placeholder</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.end.text1</t>
-  </si>
-  <si>
-    <t>customerCompareAndBuy.end.text2</t>
-  </si>
-  <si>
-    <t>contactUsEmail.label</t>
-  </si>
-  <si>
-    <t>contactUsEmail.contactDetailsEmail.full_name.label</t>
-  </si>
-  <si>
-    <t>contactUsEmail.contactDetailsEmail.email.label</t>
-  </si>
-  <si>
-    <t>contactUsEmail.contactDetailsEmail.subject.label</t>
-  </si>
-  <si>
-    <t>contactUsEmail.contactDetailsEmail.product.label</t>
-  </si>
-  <si>
-    <t>contactUsEmail.contactDetailsEmail.product.choices.life</t>
-  </si>
-  <si>
-    <t>contactUsEmail.contactDetailsEmail.product.choices.life-mortgage</t>
-  </si>
-  <si>
-    <t>contactUsEmail.contactDetailsEmail.product.choices.property</t>
-  </si>
-  <si>
-    <t>contactUsEmail.contactDetailsEmail.product.choices.property-mortgage</t>
-  </si>
-  <si>
-    <t>contactUsEmail.contactDetailsEmail.header</t>
-  </si>
-  <si>
-    <t>contactUsEmail.contactDetailsEmail.contact_info.label</t>
-  </si>
-  <si>
-    <t>contactUsEmail.contactDetailsEmail.name.label</t>
-  </si>
-  <si>
-    <t>contactUsEmail.end.label</t>
-  </si>
-  <si>
-    <t>contactUsEmail.end.placeholder</t>
-  </si>
-  <si>
-    <t>contactUsEmail.end.text1</t>
-  </si>
-  <si>
-    <t>contactUsEmail.end.text2</t>
+    <t>register.id_card_number.validation</t>
+  </si>
+  <si>
+    <t>register.id_card_number.label</t>
+  </si>
+  <si>
+    <t>register.phone.validation</t>
+  </si>
+  <si>
+    <t>register.phone.label</t>
+  </si>
+  <si>
+    <t>register.label</t>
+  </si>
+  <si>
+    <t>register.first_name.label</t>
+  </si>
+  <si>
+    <t>register.last_name.label</t>
+  </si>
+  <si>
+    <t>test.layer1.layer2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>.label</t>
+  </si>
+  <si>
+    <t>numberOfCustomers.label</t>
+  </si>
+  <si>
+    <t>numberOfCustomers.number_of_customers.choices.1</t>
+  </si>
+  <si>
+    <t>numberOfCustomers.number_of_customers.choices.2</t>
+  </si>
+  <si>
+    <t>numberOfCustomers.number_of_customers.label</t>
+  </si>
+  <si>
+    <t>customerDetails1.label</t>
+  </si>
+  <si>
+    <t>customerDetails1.gender.choices.male</t>
+  </si>
+  <si>
+    <t>customerDetails1.gender.choices.female</t>
+  </si>
+  <si>
+    <t>customerDetails1.gender.label</t>
+  </si>
+  <si>
+    <t>customerDetails1.smoking.choices.yes</t>
+  </si>
+  <si>
+    <t>customerDetails1.smoking.choices.no</t>
+  </si>
+  <si>
+    <t>customerDetails1.smoking.choices.stop</t>
+  </si>
+  <si>
+    <t>customerDetails1.smoking.label</t>
+  </si>
+  <si>
+    <t>customerDetails1.smoking_stop_month.label</t>
+  </si>
+  <si>
+    <t>customerDetails1.first_name.label</t>
+  </si>
+  <si>
+    <t>customerDetails1.last_name.label</t>
+  </si>
+  <si>
+    <t>customerDetails1.family_status.choices.Single</t>
+  </si>
+  <si>
+    <t>customerDetails1.family_status.choices.Married</t>
+  </si>
+  <si>
+    <t>customerDetails1.family_status.choices.Divorced</t>
+  </si>
+  <si>
+    <t>customerDetails1.family_status.choices.Separated</t>
+  </si>
+  <si>
+    <t>customerDetails1.family_status.choices.Widowed</t>
+  </si>
+  <si>
+    <t>customerDetails1.family_status.label</t>
+  </si>
+  <si>
+    <t>customerDetails1.birthDate.label</t>
+  </si>
+  <si>
+    <t>customerDetails2.label</t>
+  </si>
+  <si>
+    <t>customerDetails2.occupation.label</t>
+  </si>
+  <si>
+    <t>customerDetails2.dangerous_hobby_has.choices.0</t>
+  </si>
+  <si>
+    <t>customerDetails2.dangerous_hobby_has.choices.1</t>
+  </si>
+  <si>
+    <t>customerDetails2.dangerous_hobby_has.label</t>
+  </si>
+  <si>
+    <t>customerDetails2.dangerous_hobby.label</t>
+  </si>
+  <si>
+    <t>customerDetails2.dangerous_hobby_desc.label</t>
+  </si>
+  <si>
+    <t>loanTracksCount.label</t>
+  </si>
+  <si>
+    <t>loanTracksCount.loan_tracks_count.choices.1</t>
+  </si>
+  <si>
+    <t>loanTracksCount.loan_tracks_count.choices.2</t>
+  </si>
+  <si>
+    <t>loanTracksCount.loan_tracks_count.choices.3</t>
+  </si>
+  <si>
+    <t>loanTracksCount.loan_tracks_count.choices.4</t>
+  </si>
+  <si>
+    <t>loanTracksCount.loan_tracks_count.choices.5</t>
+  </si>
+  <si>
+    <t>loanTracksCount.loan_tracks_count.choices.6</t>
+  </si>
+  <si>
+    <t>loanTracksCount.loan_tracks_count.choices.7</t>
+  </si>
+  <si>
+    <t>loanTracksCount.loan_tracks_count.choices.8</t>
+  </si>
+  <si>
+    <t>loanTracksCount.loan_tracks_count.label</t>
+  </si>
+  <si>
+    <t>loanTracks.label</t>
+  </si>
+  <si>
+    <t>loanTracks.balance.label</t>
+  </si>
+  <si>
+    <t>loanTracks.endDate.label</t>
+  </si>
+  <si>
+    <t>loanTracks.interest_rate.label</t>
+  </si>
+  <si>
+    <t>loanTracks.interest_type.choices.fixed</t>
+  </si>
+  <si>
+    <t>loanTracks.interest_type.choices.change</t>
+  </si>
+  <si>
+    <t>loanTracks.interest_type.label</t>
+  </si>
+  <si>
+    <t>loanTracks.linkage_type.choices.fixed</t>
+  </si>
+  <si>
+    <t>loanTracks.linkage_type.choices.cpi</t>
+  </si>
+  <si>
+    <t>loanTracks.linkage_type.choices.dollar</t>
+  </si>
+  <si>
+    <t>loanTracks.linkage_type.label</t>
+  </si>
+  <si>
+    <t>loanTracks.loan_type.choices.ballon</t>
+  </si>
+  <si>
+    <t>loanTracks.loan_type.choices.shpizer</t>
+  </si>
+  <si>
+    <t>loanTracks.loan_type.choices.equal</t>
+  </si>
+  <si>
+    <t>loanTracks.loan_type.label</t>
+  </si>
+  <si>
+    <t>customerMoreDetails.label</t>
+  </si>
+  <si>
+    <t>customerMoreDetails.first_name.label</t>
+  </si>
+  <si>
+    <t>customerMoreDetails.last_name.label</t>
+  </si>
+  <si>
+    <t>customerMoreDetails.card_id.label</t>
+  </si>
+  <si>
+    <t>customerMoreDetails.phone.label</t>
+  </si>
+  <si>
+    <t>customerMoreDetails.email.label</t>
+  </si>
+  <si>
+    <t>customerMoreDetails.city.label</t>
+  </si>
+  <si>
+    <t>customerMoreDetails.street.label</t>
+  </si>
+  <si>
+    <t>customerMoreDetails.street_number.label</t>
+  </si>
+  <si>
+    <t>customerMoreDetails.apartment_number.label</t>
+  </si>
+  <si>
+    <t>mortgagePropertyAddress.label</t>
+  </si>
+  <si>
+    <t>mortgagePropertyAddress.same_address_mortgage.label</t>
+  </si>
+  <si>
+    <t>mortgagePropertyAddress.property_city.label</t>
+  </si>
+  <si>
+    <t>mortgagePropertyAddress.property_street.label</t>
+  </si>
+  <si>
+    <t>mortgagePropertyAddress.property_street_number.label</t>
+  </si>
+  <si>
+    <t>mortgagePropertyAddress.property_apartment_number.label</t>
+  </si>
+  <si>
+    <t>insuranceDetails.label</t>
+  </si>
+  <si>
+    <t>insuranceDetails.insurance_start_date.label</t>
+  </si>
+  <si>
+    <t>insuranceDetails.bank_name.label</t>
+  </si>
+  <si>
+    <t>insuranceDetails.bank_name.placeholder</t>
+  </si>
+  <si>
+    <t>insuranceDetails.bank_number.label</t>
+  </si>
+  <si>
+    <t>insuranceDetails.bank_number.placeholder</t>
+  </si>
+  <si>
+    <t>insuranceDetails.bank_branch.label</t>
+  </si>
+  <si>
+    <t>insuranceDetails.bank_branch.placeholder</t>
+  </si>
+  <si>
+    <t>insuranceDetails.bank_branch_number.label</t>
+  </si>
+  <si>
+    <t>insuranceDetails.bank_branch_number.placeholder</t>
+  </si>
+  <si>
+    <t>sendLinksToComplete.label</t>
+  </si>
+  <si>
+    <t>sendLinksToComplete.email_customer1.label</t>
+  </si>
+  <si>
+    <t>sendLinksToComplete.phone_customer1.label</t>
+  </si>
+  <si>
+    <t>sendLinksToComplete.email_customer2.label</t>
+  </si>
+  <si>
+    <t>sendLinksToComplete.phone_customer2.label</t>
+  </si>
+  <si>
+    <t>sendLinksToComplete.details_approval.label</t>
+  </si>
+  <si>
+    <t>newInsuranceThanksPage.label</t>
+  </si>
+  <si>
+    <t>knowTheAgent.label</t>
+  </si>
+  <si>
+    <t>knowTheAgent.placeholder</t>
+  </si>
+  <si>
+    <t>knowTheAgent.years_experience.label</t>
+  </si>
+  <si>
+    <t>knowTheAgent.years_experience.placeholder</t>
+  </si>
+  <si>
+    <t>knowTheAgent.worker_type.choices.freelancer</t>
+  </si>
+  <si>
+    <t>knowTheAgent.worker_type.choices.hired</t>
+  </si>
+  <si>
+    <t>knowTheAgent.worker_type.label</t>
+  </si>
+  <si>
+    <t>knowTheAgent.workplace_name.label</t>
+  </si>
+  <si>
+    <t>knowTheAgent.workplace_name.placeholder</t>
+  </si>
+  <si>
+    <t>knowTheAgent.number_of_files.label</t>
+  </si>
+  <si>
+    <t>knowTheAgent.number_of_files.placeholder</t>
+  </si>
+  <si>
+    <t>uploadIdPicture.label</t>
+  </si>
+  <si>
+    <t>uploadIdPicture.certificate_id_picture.label</t>
+  </si>
+  <si>
+    <t>uploadIdPicture.certificate_id_picture_later.label</t>
+  </si>
+  <si>
+    <t>bankDetails.bank_name.label</t>
+  </si>
+  <si>
+    <t>bankDetails.bank_name.placeholder</t>
+  </si>
+  <si>
+    <t>bankDetails.bank_number.label</t>
+  </si>
+  <si>
+    <t>bankDetails.bank_number.placeholder</t>
+  </si>
+  <si>
+    <t>bankDetails.bank_branch.label</t>
+  </si>
+  <si>
+    <t>bankDetails.bank_branch.placeholder</t>
+  </si>
+  <si>
+    <t>bankDetails.bank_branch_number.label</t>
+  </si>
+  <si>
+    <t>bankDetails.bank_branch_number.placeholder</t>
+  </si>
+  <si>
+    <t>bankDetails.bank_account.label</t>
+  </si>
+  <si>
+    <t>bankDetails.bank_account.placeholder</t>
+  </si>
+  <si>
+    <t>bankDetails.bank_details_later.label</t>
+  </si>
+  <si>
+    <t>agreeToTerms.label</t>
+  </si>
+  <si>
+    <t>agreeToTerms.signed_terms.label</t>
+  </si>
+  <si>
+    <t>registrationThanksPage.label</t>
+  </si>
+  <si>
+    <t>Not a valid phone number</t>
   </si>
   <si>
     <t>Required</t>
   </si>
   <si>
-    <t>contactUsPhone.label</t>
-  </si>
-  <si>
-    <t>contactUsPhone.contactDetailsPhone.full_name.label</t>
-  </si>
-  <si>
-    <t>contactUsPhone.contactDetailsPhone.phone.label</t>
-  </si>
-  <si>
-    <t>contactUsPhone.contactDetailsPhone.subject.label</t>
-  </si>
-  <si>
-    <t>contactUsPhone.contactDetailsPhone.product.label</t>
-  </si>
-  <si>
-    <t>contactUsPhone.contactDetailsPhone.product.choices.life</t>
-  </si>
-  <si>
-    <t>contactUsPhone.contactDetailsPhone.product.choices.life-mortgage</t>
-  </si>
-  <si>
-    <t>contactUsPhone.contactDetailsPhone.product.choices.property</t>
-  </si>
-  <si>
-    <t>contactUsPhone.contactDetailsPhone.product.choices.property-mortgage</t>
-  </si>
-  <si>
-    <t>contactUsPhone.contactDetailsPhone.product.header</t>
-  </si>
-  <si>
-    <t>contactUsPhone.contactDetailsPhone.header</t>
-  </si>
-  <si>
-    <t>contactUsPhone.contactDetailsPhone.name.label</t>
-  </si>
-  <si>
-    <t>contactUsPhone.contactDetailsPhone.contact_info.label</t>
-  </si>
-  <si>
-    <t>contactUsPhone.end.label</t>
-  </si>
-  <si>
-    <t>contactUsPhone.end.placeholder</t>
-  </si>
-  <si>
-    <t>contactUsPhone.end.text1</t>
-  </si>
-  <si>
-    <t>contactUsPhone.end.text2</t>
-  </si>
-  <si>
-    <t>Invalid email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">השוואה ורכישת ביטוח חיים </t>
-  </si>
-  <si>
-    <t>השוואה ורכישת ביטוח משכנתה</t>
-  </si>
-  <si>
-    <t>השוואה ורכישת ביטוח דירה</t>
+    <t>Not valid israeli id number</t>
+  </si>
+  <si>
+    <t>registrationFlow.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.register.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.register.first_name.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.register.last_name.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.knowTheAgent.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.knowTheAgent.placeholder</t>
+  </si>
+  <si>
+    <t>registrationFlow.knowTheAgent.years_experience.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.knowTheAgent.years_experience.placeholder</t>
+  </si>
+  <si>
+    <t>registrationFlow.knowTheAgent.worker_type.choices.freelancer</t>
+  </si>
+  <si>
+    <t>registrationFlow.knowTheAgent.worker_type.choices.hired</t>
+  </si>
+  <si>
+    <t>registrationFlow.knowTheAgent.worker_type.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.knowTheAgent.workplace_name.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.knowTheAgent.workplace_name.placeholder</t>
+  </si>
+  <si>
+    <t>registrationFlow.knowTheAgent.number_of_files.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.knowTheAgent.number_of_files.placeholder</t>
+  </si>
+  <si>
+    <t>registrationFlow.knowTheAgent.step_sub</t>
+  </si>
+  <si>
+    <t>registrationFlow.uploadIdPicture.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.uploadIdPicture.certificate_id_picture.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.uploadIdPicture.certificate_id_picture_later.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.uploadIdPicture.step_sub</t>
+  </si>
+  <si>
+    <t>registrationFlow.bankDetails.bank_name.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.bankDetails.bank_name.placeholder</t>
+  </si>
+  <si>
+    <t>registrationFlow.bankDetails.bank_number.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.bankDetails.bank_number.placeholder</t>
+  </si>
+  <si>
+    <t>registrationFlow.bankDetails.bank_branch.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.bankDetails.bank_branch.placeholder</t>
+  </si>
+  <si>
+    <t>registrationFlow.bankDetails.bank_branch_number.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.bankDetails.bank_branch_number.placeholder</t>
+  </si>
+  <si>
+    <t>registrationFlow.bankDetails.bank_account.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.bankDetails.bank_account.placeholder</t>
+  </si>
+  <si>
+    <t>registrationFlow.bankDetails.bank_details_later.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.bankDetails.step_sub</t>
+  </si>
+  <si>
+    <t>registrationFlow.agreeToTerms.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.agreeToTerms.signed_terms.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.agreeToTerms.step_sub</t>
+  </si>
+  <si>
+    <t>registrationFlow.end.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.end.placeholder</t>
+  </si>
+  <si>
+    <t>registrationFlow.end.text2</t>
+  </si>
+  <si>
+    <t>registrationFlow.end.step_sub</t>
+  </si>
+  <si>
+    <t>registrationFlow.userNames.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.userNames.first_name.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.userNames.last_name.label</t>
+  </si>
+  <si>
+    <t>registrationFlow.userNames.step_sub</t>
+  </si>
+  <si>
+    <t>Bank name is required</t>
+  </si>
+  <si>
+    <t>lifeInsurance.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.howDoesItWork.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.howDoesItWork.text_1</t>
+  </si>
+  <si>
+    <t>lifeInsurance.howDoesItWork.text_2</t>
+  </si>
+  <si>
+    <t>lifeInsurance.howDoesItWork.text_3</t>
+  </si>
+  <si>
+    <t>lifeInsurance.howDoesItWork.text_life4</t>
+  </si>
+  <si>
+    <t>lifeInsurance.howDoesItWork.text_mortgage4</t>
+  </si>
+  <si>
+    <t>lifeInsurance.howDoesItWork.text_property4</t>
+  </si>
+  <si>
+    <t>lifeInsurance.howDoesItWork.next</t>
+  </si>
+  <si>
+    <t>lifeInsurance.numberOfCustomers.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.numberOfCustomers.number_of_customers.choices.1</t>
+  </si>
+  <si>
+    <t>lifeInsurance.numberOfCustomers.number_of_customers.choices.2</t>
+  </si>
+  <si>
+    <t>lifeInsurance.numberOfCustomers.number_of_customers.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.gender.choices.male</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.gender.choices.female</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.gender.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.smoking.choices.yes</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.smoking.choices.no</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.smoking.choices.stop</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.smoking.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.smoking_stop_month.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.first_name.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.last_name.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.family_status.choices.Single</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.family_status.choices.Married</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.family_status.choices.Divorced</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.family_status.choices.Separated</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.family_status.choices.Widowed</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.family_status.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails1.birthDate.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails2.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails2.occupation.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails2.dangerous_hobby_has.choices.0</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails2.dangerous_hobby_has.choices.1</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails2.dangerous_hobby_has.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails2.dangerous_hobby.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerDetails2.dangerous_hobby_desc.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracksCount.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracksCount.loan_tracks_count.choices.1</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracksCount.loan_tracks_count.choices.2</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracksCount.loan_tracks_count.choices.3</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracksCount.loan_tracks_count.choices.4</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracksCount.loan_tracks_count.choices.5</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracksCount.loan_tracks_count.choices.6</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracksCount.loan_tracks_count.choices.7</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracksCount.loan_tracks_count.choices.8</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracksCount.loan_tracks_count.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracks.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracks.balance.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracks.endDate.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracks.interest_rate.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracks.interest_type.choices.fixed</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracks.interest_type.choices.change</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracks.interest_type.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracks.linkage_type.choices.fixed</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracks.linkage_type.choices.cpi</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracks.linkage_type.choices.dollar</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracks.linkage_type.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracks.loan_type.choices.ballon</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracks.loan_type.choices.shpizer</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracks.loan_type.choices.equal</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanTracks.loan_type.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerMoreDetails.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerMoreDetails.first_name.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerMoreDetails.last_name.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerMoreDetails.card_id.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerMoreDetails.phone.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerMoreDetails.email.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerMoreDetails.city.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerMoreDetails.street.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerMoreDetails.street_number.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerMoreDetails.apartment_number.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.mortgagePropertyAddress.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.mortgagePropertyAddress.same_address_mortgage.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.mortgagePropertyAddress.property_city.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.mortgagePropertyAddress.property_street.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.mortgagePropertyAddress.property_street_number.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.mortgagePropertyAddress.property_apartment_number.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.insuranceDetails.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.insuranceDetails.insurance_start_date.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.insuranceDetails.bank_name.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.insuranceDetails.bank_name.placeholder</t>
+  </si>
+  <si>
+    <t>lifeInsurance.insuranceDetails.bank_number.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.insuranceDetails.bank_number.placeholder</t>
+  </si>
+  <si>
+    <t>lifeInsurance.insuranceDetails.bank_branch.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.insuranceDetails.bank_branch.placeholder</t>
+  </si>
+  <si>
+    <t>lifeInsurance.insuranceDetails.bank_branch_number.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.insuranceDetails.bank_branch_number.placeholder</t>
+  </si>
+  <si>
+    <t>lifeInsurance.sendLinksToComplete.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.sendLinksToComplete.email_customer1.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.sendLinksToComplete.phone_customer1.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.sendLinksToComplete.email_customer2.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.sendLinksToComplete.phone_customer2.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.sendLinksToComplete.details_approval.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.end.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.end.placeholder</t>
+  </si>
+  <si>
+    <t>lifeInsurance.end.text1</t>
+  </si>
+  <si>
+    <t>lifeInsurance.end.text2</t>
+  </si>
+  <si>
+    <t>lifeInsurance.end.question</t>
+  </si>
+  <si>
+    <t>lifeInsurance.end.yesMessage</t>
+  </si>
+  <si>
+    <t>lifeInsurance.end.yes</t>
+  </si>
+  <si>
+    <t>lifeInsurance.end.no</t>
+  </si>
+  <si>
+    <t>lifeInsurance.end.end</t>
+  </si>
+  <si>
+    <t>*TRANSLATE*</t>
+  </si>
+  <si>
+    <t>ID Card Number</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>schemaRegister</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>default test</t>
+  </si>
+  <si>
+    <t>Test 3 - default test</t>
+  </si>
+  <si>
+    <t>New Life Insurance for Mortgage</t>
+  </si>
+  <si>
+    <t>Choose number of customers</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>How many customers</t>
+  </si>
+  <si>
+    <t>Personal Details</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Stop Last 2 Years</t>
+  </si>
+  <si>
+    <t>Smoked last 2 years?</t>
+  </si>
+  <si>
+    <t>How long ago you stop?</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Divorced</t>
+  </si>
+  <si>
+    <t>Separated</t>
+  </si>
+  <si>
+    <t>Widowed</t>
+  </si>
+  <si>
+    <t>Family Status</t>
+  </si>
+  <si>
+    <t>Date of birth</t>
+  </si>
+  <si>
+    <t>General Details</t>
+  </si>
+  <si>
+    <t>Customer occupation</t>
+  </si>
+  <si>
+    <t>Customer has dangerous hobby?</t>
+  </si>
+  <si>
+    <t>Hobby</t>
+  </si>
+  <si>
+    <t>Hobby Description</t>
+  </si>
+  <si>
+    <t>Select mortgage track count</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>How many mortgage path?</t>
+  </si>
+  <si>
+    <t>Mortgage track details</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Loan end Date</t>
+  </si>
+  <si>
+    <t>Interest percentage</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>Interest Type</t>
+  </si>
+  <si>
+    <t>cpi</t>
+  </si>
+  <si>
+    <t>dollar</t>
+  </si>
+  <si>
+    <t>Linkage Type</t>
+  </si>
+  <si>
+    <t>ballon</t>
+  </si>
+  <si>
+    <t>shpizer</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>Loan Type</t>
+  </si>
+  <si>
+    <t>Complete Personal Details</t>
+  </si>
+  <si>
+    <t>Card ID</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>City name</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>Street Number</t>
+  </si>
+  <si>
+    <t>Apartment Number</t>
+  </si>
+  <si>
+    <t>Property Address</t>
+  </si>
+  <si>
+    <t>Same address for mortgage property?</t>
+  </si>
+  <si>
+    <t>Insurance details</t>
+  </si>
+  <si>
+    <t>Insurance start date</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Bank name</t>
+  </si>
+  <si>
+    <t>Bank Number</t>
+  </si>
+  <si>
+    <t>Bank Number...</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Branch...</t>
+  </si>
+  <si>
+    <t>Branch Number</t>
+  </si>
+  <si>
+    <t>Branch Number...</t>
+  </si>
+  <si>
+    <t>Send links to complete</t>
+  </si>
+  <si>
+    <t>Email customer 1</t>
+  </si>
+  <si>
+    <t>Phone customer 1</t>
+  </si>
+  <si>
+    <t>Email customer 2</t>
+  </si>
+  <si>
+    <t>Phone customer 2</t>
+  </si>
+  <si>
+    <t>I confirm all details are correct and complete</t>
+  </si>
+  <si>
+    <t>newInsuranceThanksPage</t>
+  </si>
+  <si>
+    <t>Partnership start with a good recognition</t>
+  </si>
+  <si>
+    <t>Some of your experience</t>
+  </si>
+  <si>
+    <t>Advisory years of experience</t>
+  </si>
+  <si>
+    <t>Years...</t>
+  </si>
+  <si>
+    <t>Freelancer</t>
+  </si>
+  <si>
+    <t>Hired</t>
+  </si>
+  <si>
+    <t>Are you</t>
+  </si>
+  <si>
+    <t>Name of workplace</t>
+  </si>
+  <si>
+    <t>Name...</t>
+  </si>
+  <si>
+    <t>Number of files a month (Optional)</t>
+  </si>
+  <si>
+    <t>Average...,</t>
+  </si>
+  <si>
+    <t>Identification</t>
+  </si>
+  <si>
+    <t>Upload ID Picture</t>
+  </si>
+  <si>
+    <t>Will upload ID later</t>
+  </si>
+  <si>
+    <t>Account Number</t>
+  </si>
+  <si>
+    <t>Account Number...</t>
+  </si>
+  <si>
+    <t>Will fill later</t>
+  </si>
+  <si>
+    <t>Terms</t>
+  </si>
+  <si>
+    <t>Confirm terms</t>
+  </si>
+  <si>
+    <t>registrationThanksPage</t>
+  </si>
+  <si>
+    <t>שדה חובה</t>
+  </si>
+  <si>
+    <t>מספר זהות לא תקין</t>
+  </si>
+  <si>
+    <t>הרשמה</t>
+  </si>
+  <si>
+    <t>Complete missing details</t>
+  </si>
+  <si>
+    <t>שותפות מוצלחת מתחילה בהיכרות טובה!</t>
+  </si>
+  <si>
+    <t>קצת על הרקע והניסיון שיש לך בתחום..</t>
+  </si>
+  <si>
+    <t>כמה זמן הנך יועץ/ת משכנתאות?</t>
+  </si>
+  <si>
+    <t>...םינש</t>
+  </si>
+  <si>
+    <t>עצמאי/ת</t>
+  </si>
+  <si>
+    <t>שכיר/ה</t>
+  </si>
+  <si>
+    <t>האם את/ה</t>
+  </si>
+  <si>
+    <t>שם מקום העבודה</t>
+  </si>
+  <si>
+    <t>מקום עבודה</t>
+  </si>
+  <si>
+    <t>מספר תיקים חדשים בחודש? (ממוצע)</t>
+  </si>
+  <si>
+    <t>לא חובה</t>
+  </si>
+  <si>
+    <t>היכרות</t>
+  </si>
+  <si>
+    <t>הזדהות</t>
+  </si>
+  <si>
+    <t>צילום תעודת זהות</t>
+  </si>
+  <si>
+    <t>אעלה צילום מאוחר יותר</t>
+  </si>
+  <si>
+    <t>בנק</t>
+  </si>
+  <si>
+    <t>בחר</t>
+  </si>
+  <si>
+    <t>מספר בנק</t>
+  </si>
+  <si>
+    <t>שם הסניף</t>
+  </si>
+  <si>
+    <t>שם סניף...</t>
+  </si>
+  <si>
+    <t>מספר סניף</t>
+  </si>
+  <si>
+    <t>מספר חשבון</t>
+  </si>
+  <si>
+    <t>מספר חשבון...</t>
+  </si>
+  <si>
+    <t>אמלא מאוחר יותר</t>
+  </si>
+  <si>
+    <t>פרטי חשבון</t>
+  </si>
+  <si>
+    <t>תנאים ואישור</t>
+  </si>
+  <si>
+    <t>אני מאשר את התנאים</t>
+  </si>
+  <si>
+    <t>סיום</t>
+  </si>
+  <si>
+    <t>Smapy תודה שבחרת להצטרף למשפחת</t>
+  </si>
+  <si>
+    <t>אנחנו ממש נרגשים! ומצפים להתחיל לעבוד יחד ולתת לך כלים שיאיצו את ההתפתחות הפיננסית והמקצועית שלך.</t>
+  </si>
+  <si>
+    <t>נעשה הכל כדי לתת לך וללקוחותיך שירות שטרם הכרתם.</t>
+  </si>
+  <si>
+    <t>[exit not a step]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שמחים שהגעת, נעים להכיר.. </t>
+  </si>
+  <si>
+    <t>שם פרטי</t>
+  </si>
+  <si>
+    <t>שם משפחה</t>
+  </si>
+  <si>
+    <t>[init not a step]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ביטוח חיים למשכנתה </t>
   </si>
   <si>
     <t xml:space="preserve"> איך זה עובד?</t>
   </si>
   <si>
-    <t>מתאימים את הביטוח לנתונים האישיים שלכם, ממש כמו כפפה ליד</t>
-  </si>
-  <si>
-    <t>משווים לכם מחירים ללא אינטרס, ואתם בוחרים בהצעה המשתלמת ביותר</t>
-  </si>
-  <si>
-    <t>אנו עוקבים אחרי מחיר הביטוח שלכם, כך נדאג שתחסכו עד עשרות אלפי ₪</t>
-  </si>
-  <si>
-    <t>יש לכם כבר ביטוח חיים? העברת הביטוח עלינו.</t>
-  </si>
-  <si>
-    <t>יש לכם כבר ביטוח חיים למשכנתה? העברת הביטוח עלינו.</t>
-  </si>
-  <si>
-    <t>יש לכם כבר ביטוח דירה? העברת הביטוח עלינו.</t>
-  </si>
-  <si>
-    <t>להשוואה</t>
-  </si>
-  <si>
-    <t>Thanks for your interest in Smapy</t>
-  </si>
-  <si>
-    <t>Right now the service is available only through agents</t>
-  </si>
-  <si>
-    <t>Soon will be able to buy from the site</t>
-  </si>
-  <si>
-    <t>You will enjoy great service</t>
-  </si>
-  <si>
-    <t>Smapy -תודה שהתעניינת ב</t>
-  </si>
-  <si>
-    <t xml:space="preserve">כרגע השירות שלנו ניתן דרך יועצי משכנתאות וסוכני ביטוח. </t>
-  </si>
-  <si>
-    <t>בקרוב יהיה ניתן לרכוש ביטוח סמאפי מהאתר.</t>
-  </si>
-  <si>
-    <t>בסמאפי תהנו מחווית שירות שירות שטרם הכרתם.</t>
-  </si>
-  <si>
-    <t>צרו איתי קשר</t>
-  </si>
-  <si>
-    <t>Full name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>הודעה</t>
-  </si>
-  <si>
-    <t>באיזה ביטוח היית רוצה שנעזור לך?</t>
-  </si>
-  <si>
-    <t>ביטוח חיים</t>
-  </si>
-  <si>
-    <t>ביטוח חיים למשכנתא</t>
-  </si>
-  <si>
-    <t>ביטוח מבנה</t>
-  </si>
-  <si>
-    <t>ביטוח מבנה משכנתא</t>
-  </si>
-  <si>
-    <t>מלאו פרטים ונחזור אליכם בהקדם</t>
-  </si>
-  <si>
-    <t>מייל</t>
-  </si>
-  <si>
-    <t>שם מלא</t>
-  </si>
-  <si>
-    <t>Thanks for choosing Smapy</t>
-  </si>
-  <si>
-    <t>Thanks</t>
-  </si>
-  <si>
-    <t>Will contact you soon</t>
-  </si>
-  <si>
-    <t>שדה חובה</t>
+    <t>ממלאים פרטי לקוח ופרטי משכנתה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מקבלים את ההצעות המשתלמות ביותר </t>
+  </si>
+  <si>
+    <t>שולחים ללקוח קישור לאישור וסיום רכישה</t>
+  </si>
+  <si>
+    <t>קיים ללקוח ביטוח משכנתה? העברת הביטוח עלינו!</t>
+  </si>
+  <si>
+    <t>text_mortgage4</t>
+  </si>
+  <si>
+    <t>text_property4</t>
+  </si>
+  <si>
+    <t>המשך</t>
+  </si>
+  <si>
+    <t>בחירת מספר מבוטחים</t>
+  </si>
+  <si>
+    <t>אחד</t>
+  </si>
+  <si>
+    <t>שניים</t>
+  </si>
+  <si>
+    <t>על כמה אנשים רשומה המשכנתה?</t>
+  </si>
+  <si>
+    <t>פרטים אישיים</t>
+  </si>
+  <si>
+    <t>זכר</t>
+  </si>
+  <si>
+    <t>נקבה</t>
+  </si>
+  <si>
+    <t>מין</t>
+  </si>
+  <si>
+    <t>כן</t>
+  </si>
+  <si>
+    <t>לא</t>
+  </si>
+  <si>
+    <t>הפסיק בשנתיים האחרונות</t>
+  </si>
+  <si>
+    <t>האם הלקוח עישן בשנתיים האחרונות?</t>
+  </si>
+  <si>
+    <t>לפני כמה חודשים הפסקת לעשן?</t>
+  </si>
+  <si>
+    <t>רווק/ה</t>
+  </si>
+  <si>
+    <t>נשוי/אה</t>
+  </si>
+  <si>
+    <t>גרוש/ה</t>
+  </si>
+  <si>
+    <t>פרוד/ה</t>
+  </si>
+  <si>
+    <t>אלמן/נה</t>
+  </si>
+  <si>
+    <t>מצב משפחתי</t>
+  </si>
+  <si>
+    <t>תאריך לידה</t>
+  </si>
+  <si>
+    <t>פרטים כלליים</t>
+  </si>
+  <si>
+    <t>מהו העיסוק של הלקוח?</t>
+  </si>
+  <si>
+    <t>האם יש ללקוח תחביב מסוכן?</t>
+  </si>
+  <si>
+    <t>סוג התחביב</t>
+  </si>
+  <si>
+    <t>תיאור</t>
+  </si>
+  <si>
+    <t>פרטי המשכנתה</t>
+  </si>
+  <si>
+    <t>כמה מסלולי הלוואה יש במשכנתה?</t>
+  </si>
+  <si>
+    <t>[track number] סכום היתרה בהלוואה</t>
+  </si>
+  <si>
+    <t>תאריך סיום הלוואה</t>
+  </si>
+  <si>
+    <t>אחוז הריבית</t>
+  </si>
+  <si>
+    <t>קבועה</t>
+  </si>
+  <si>
+    <t>משתנה</t>
+  </si>
+  <si>
+    <t>סוג ריבית</t>
+  </si>
+  <si>
+    <t>לא צמוד</t>
+  </si>
+  <si>
+    <t>צמוד למדד</t>
+  </si>
+  <si>
+    <t>צמוד לדולר</t>
+  </si>
+  <si>
+    <t>סוג הצמדה</t>
+  </si>
+  <si>
+    <t>בלון</t>
+  </si>
+  <si>
+    <t>שפיצר</t>
+  </si>
+  <si>
+    <t>קרן שווה</t>
+  </si>
+  <si>
+    <t>סוג הלוואה</t>
+  </si>
+  <si>
+    <t>השלמת פרטים אישיים</t>
+  </si>
+  <si>
+    <t>תעודת זהות</t>
   </si>
   <si>
     <t>מספר טלפון</t>
   </si>
   <si>
-    <t>נושא</t>
-  </si>
-  <si>
-    <t>Fill details and will return to you</t>
-  </si>
-  <si>
-    <t>מייל בלתי חוקי</t>
+    <t>כתובת מייל</t>
+  </si>
+  <si>
+    <t>עיר מגורים</t>
+  </si>
+  <si>
+    <t>רחוב</t>
+  </si>
+  <si>
+    <t>מספר בית</t>
+  </si>
+  <si>
+    <t>דירה</t>
+  </si>
+  <si>
+    <t>כתובת נכס ממושכן</t>
+  </si>
+  <si>
+    <t>אותה הכתובת ?</t>
+  </si>
+  <si>
+    <t>פרטי ביטוח</t>
+  </si>
+  <si>
+    <t>בחירת תאריך תחילת הביטוח</t>
+  </si>
+  <si>
+    <t>שם הבנק ממנו לקחת את המשכנתא?</t>
+  </si>
+  <si>
+    <t>בחירה</t>
+  </si>
+  <si>
+    <t>מספר הסניף</t>
+  </si>
+  <si>
+    <t>שליחת קישור להשלמת רכישה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כתובת מייל מבוטח 1 </t>
+  </si>
+  <si>
+    <t>מספר טלפון מבוטח 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כתובת מייל מבוטח 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">מספר טלפון מבוטח 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אני מאשר/ת בזאת שכל הפרטים שמסרתי הינם נכונים ומלאים </t>
+  </si>
+  <si>
+    <t>Smapy תודה שבחרת</t>
+  </si>
+  <si>
+    <t>הזמנתך התקבלה בהצלחה!</t>
+  </si>
+  <si>
+    <t>אישור ההזמנה והעתק פוליסה ישלחו אליך ואל הלקוח.</t>
+  </si>
+  <si>
+    <t>בעוד כשנתיים האלגוריתם שלנו יבצע עבור הלקוח שלך השוואת מחירים באופן אוטומטי ויעדכן אתכם בהצעה הטובה ביותר שתהיה.</t>
+  </si>
+  <si>
+    <t>האם יש ללקוח שלך צורך בביטוח מבנה?</t>
+  </si>
+  <si>
+    <t>מעולה! אנו נחייג אליו ונדאג לו לביטוח הטוב ביותר ונעדכן אותך כשנסיים להפיק לו פוליסה.</t>
+  </si>
+  <si>
+    <t>end</t>
   </si>
 </sst>
 </file>
@@ -659,7 +1880,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -681,7 +1902,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>279</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -692,7 +1913,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>280</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -703,7 +1924,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>279</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -714,7 +1935,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>281</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -725,7 +1946,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>282</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -736,7 +1957,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>283</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -747,7 +1968,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>284</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -758,7 +1979,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>285</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -769,7 +1990,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>286</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -780,7 +2001,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>287</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -791,7 +2012,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>288</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -802,7 +2023,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>289</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -813,7 +2034,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>290</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -824,7 +2045,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>291</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -835,7 +2056,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>292</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -846,7 +2067,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>293</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -857,7 +2078,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>294</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -868,7 +2089,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>295</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -879,7 +2100,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>296</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -890,7 +2111,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>297</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -901,7 +2122,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -912,7 +2133,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>299</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -923,7 +2144,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>300</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -934,7 +2155,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>301</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -945,7 +2166,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -956,7 +2177,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>302</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -967,7 +2188,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>303</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -978,7 +2199,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -989,7 +2210,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>305</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -1000,7 +2221,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>306</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -1011,7 +2232,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>307</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -1022,7 +2243,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>308</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -1033,7 +2254,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>309</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -1044,7 +2265,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>310</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -1055,7 +2276,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>297</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -1066,7 +2287,7 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>296</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -1077,7 +2298,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>311</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -1088,7 +2309,7 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>312</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -1099,7 +2320,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>313</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -1110,7 +2331,7 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>314</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -1121,7 +2342,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -1132,7 +2353,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>316</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -1143,7 +2364,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>317</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -1154,7 +2375,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>318</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
@@ -1165,7 +2386,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>319</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -1176,7 +2397,7 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>320</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -1187,7 +2408,7 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>321</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -1198,7 +2419,7 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>322</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -1209,7 +2430,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>323</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -1220,7 +2441,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>324</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -1231,7 +2452,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>325</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -1242,7 +2463,7 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>326</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -1253,7 +2474,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>327</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -1264,9 +2485,2451 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
+        <v>328</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>329</v>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>330</v>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>328</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>331</v>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>332</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>333</v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>334</v>
+      </c>
+      <c r="C62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>335</v>
+      </c>
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>336</v>
+      </c>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>337</v>
+      </c>
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>338</v>
+      </c>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>301</v>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>301</v>
+      </c>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>339</v>
+      </c>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>340</v>
+      </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>341</v>
+      </c>
+      <c r="C71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>342</v>
+      </c>
+      <c r="C72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>343</v>
+      </c>
+      <c r="C73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>344</v>
+      </c>
+      <c r="C74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>345</v>
+      </c>
+      <c r="C75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>346</v>
+      </c>
+      <c r="C76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>347</v>
+      </c>
+      <c r="C77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>342</v>
+      </c>
+      <c r="C78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
+        <v>343</v>
+      </c>
+      <c r="C79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
+        <v>344</v>
+      </c>
+      <c r="C80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s">
+        <v>345</v>
+      </c>
+      <c r="C81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>348</v>
+      </c>
+      <c r="C82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>349</v>
+      </c>
+      <c r="C83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>350</v>
+      </c>
+      <c r="C84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>351</v>
+      </c>
+      <c r="C85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
+        <v>352</v>
+      </c>
+      <c r="C86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>353</v>
+      </c>
+      <c r="C87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>354</v>
+      </c>
+      <c r="C88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>355</v>
+      </c>
+      <c r="C89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>356</v>
+      </c>
+      <c r="C90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" t="s">
+        <v>357</v>
+      </c>
+      <c r="C91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>358</v>
+      </c>
+      <c r="C92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" t="s">
+        <v>359</v>
+      </c>
+      <c r="C93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
         <v>95</v>
       </c>
-      <c r="C55" t="b">
+      <c r="B94" t="s">
+        <v>360</v>
+      </c>
+      <c r="C94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s">
+        <v>361</v>
+      </c>
+      <c r="C95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" t="s">
+        <v>362</v>
+      </c>
+      <c r="C96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" t="s">
+        <v>363</v>
+      </c>
+      <c r="C97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" t="s">
+        <v>364</v>
+      </c>
+      <c r="C98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" t="s">
+        <v>365</v>
+      </c>
+      <c r="C99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" t="s">
+        <v>366</v>
+      </c>
+      <c r="C100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" t="s">
+        <v>367</v>
+      </c>
+      <c r="C101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" t="s">
+        <v>368</v>
+      </c>
+      <c r="C102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" t="s">
+        <v>369</v>
+      </c>
+      <c r="C103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" t="s">
+        <v>370</v>
+      </c>
+      <c r="C104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" t="s">
+        <v>371</v>
+      </c>
+      <c r="C105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" t="s">
+        <v>372</v>
+      </c>
+      <c r="C106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" t="s">
+        <v>373</v>
+      </c>
+      <c r="C107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" t="s">
+        <v>374</v>
+      </c>
+      <c r="C108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" t="s">
+        <v>375</v>
+      </c>
+      <c r="C109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" t="s">
+        <v>376</v>
+      </c>
+      <c r="C110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" t="s">
+        <v>377</v>
+      </c>
+      <c r="C111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" t="s">
+        <v>378</v>
+      </c>
+      <c r="C112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" t="s">
+        <v>350</v>
+      </c>
+      <c r="C113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" t="s">
+        <v>351</v>
+      </c>
+      <c r="C114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" t="s">
+        <v>352</v>
+      </c>
+      <c r="C115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" t="s">
+        <v>353</v>
+      </c>
+      <c r="C116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" t="s">
+        <v>354</v>
+      </c>
+      <c r="C117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" t="s">
+        <v>355</v>
+      </c>
+      <c r="C118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" t="s">
+        <v>356</v>
+      </c>
+      <c r="C119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" t="s">
+        <v>357</v>
+      </c>
+      <c r="C120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" t="s">
+        <v>379</v>
+      </c>
+      <c r="C121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" t="s">
+        <v>380</v>
+      </c>
+      <c r="C122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" t="s">
+        <v>381</v>
+      </c>
+      <c r="C123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" t="s">
+        <v>382</v>
+      </c>
+      <c r="C124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" t="s">
+        <v>383</v>
+      </c>
+      <c r="C125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" t="s">
+        <v>384</v>
+      </c>
+      <c r="C126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" t="s">
+        <v>128</v>
+      </c>
+      <c r="C127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" t="s">
+        <v>385</v>
+      </c>
+      <c r="C128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" t="s">
+        <v>386</v>
+      </c>
+      <c r="C129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" t="s">
+        <v>387</v>
+      </c>
+      <c r="C130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" t="s">
+        <v>388</v>
+      </c>
+      <c r="C131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" t="s">
+        <v>283</v>
+      </c>
+      <c r="C132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133" t="s">
+        <v>284</v>
+      </c>
+      <c r="C133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" t="s">
+        <v>389</v>
+      </c>
+      <c r="C134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" t="s">
+        <v>390</v>
+      </c>
+      <c r="C135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" t="s">
+        <v>391</v>
+      </c>
+      <c r="C136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" t="s">
+        <v>392</v>
+      </c>
+      <c r="C137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" t="s">
+        <v>393</v>
+      </c>
+      <c r="C138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" t="s">
+        <v>394</v>
+      </c>
+      <c r="C139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" t="s">
+        <v>395</v>
+      </c>
+      <c r="C140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" t="s">
+        <v>396</v>
+      </c>
+      <c r="C141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142" t="s">
+        <v>397</v>
+      </c>
+      <c r="C142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143" t="s">
+        <v>398</v>
+      </c>
+      <c r="C143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144" t="s">
+        <v>399</v>
+      </c>
+      <c r="C144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145" t="s">
+        <v>400</v>
+      </c>
+      <c r="C145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146" t="s">
+        <v>401</v>
+      </c>
+      <c r="C146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147" t="s">
+        <v>402</v>
+      </c>
+      <c r="C147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" t="s">
+        <v>403</v>
+      </c>
+      <c r="C148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149" t="s">
+        <v>401</v>
+      </c>
+      <c r="C149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150" t="s">
+        <v>404</v>
+      </c>
+      <c r="C150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151" t="s">
+        <v>405</v>
+      </c>
+      <c r="C151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152" t="s">
+        <v>406</v>
+      </c>
+      <c r="C152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153" t="s">
+        <v>405</v>
+      </c>
+      <c r="C153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154" t="s">
+        <v>407</v>
+      </c>
+      <c r="C154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155" t="s">
+        <v>408</v>
+      </c>
+      <c r="C155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156" t="s">
+        <v>409</v>
+      </c>
+      <c r="C156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157" t="s">
+        <v>405</v>
+      </c>
+      <c r="C157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158" t="s">
+        <v>410</v>
+      </c>
+      <c r="C158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159" t="s">
+        <v>411</v>
+      </c>
+      <c r="C159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160" t="s">
+        <v>412</v>
+      </c>
+      <c r="C160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161" t="s">
+        <v>413</v>
+      </c>
+      <c r="C161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162" t="s">
+        <v>414</v>
+      </c>
+      <c r="C162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163" t="s">
+        <v>415</v>
+      </c>
+      <c r="C163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164" t="s">
+        <v>416</v>
+      </c>
+      <c r="C164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165" t="s">
+        <v>417</v>
+      </c>
+      <c r="C165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166" t="s">
+        <v>418</v>
+      </c>
+      <c r="C166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167" t="s">
+        <v>419</v>
+      </c>
+      <c r="C167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168" t="s">
+        <v>420</v>
+      </c>
+      <c r="C168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169" t="s">
+        <v>421</v>
+      </c>
+      <c r="C169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>171</v>
+      </c>
+      <c r="B170" t="s">
+        <v>422</v>
+      </c>
+      <c r="C170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171" t="s">
+        <v>423</v>
+      </c>
+      <c r="C171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172" t="s">
+        <v>424</v>
+      </c>
+      <c r="C172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173" t="s">
+        <v>174</v>
+      </c>
+      <c r="C173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>175</v>
+      </c>
+      <c r="B174" t="s">
+        <v>425</v>
+      </c>
+      <c r="C174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175" t="s">
+        <v>426</v>
+      </c>
+      <c r="C175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176" t="s">
+        <v>427</v>
+      </c>
+      <c r="C176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177" t="s">
+        <v>428</v>
+      </c>
+      <c r="C177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178" t="s">
+        <v>429</v>
+      </c>
+      <c r="C178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>180</v>
+      </c>
+      <c r="B179" t="s">
+        <v>430</v>
+      </c>
+      <c r="C179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180" t="s">
+        <v>431</v>
+      </c>
+      <c r="C180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181" t="s">
+        <v>432</v>
+      </c>
+      <c r="C181" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>183</v>
+      </c>
+      <c r="B182" t="s">
+        <v>433</v>
+      </c>
+      <c r="C182" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>184</v>
+      </c>
+      <c r="B183" t="s">
+        <v>434</v>
+      </c>
+      <c r="C183" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184" t="s">
+        <v>435</v>
+      </c>
+      <c r="C184" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>186</v>
+      </c>
+      <c r="B185" t="s">
+        <v>436</v>
+      </c>
+      <c r="C185" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186" t="s">
+        <v>437</v>
+      </c>
+      <c r="C186" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>188</v>
+      </c>
+      <c r="B187" t="s">
+        <v>438</v>
+      </c>
+      <c r="C187" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188" t="s">
+        <v>439</v>
+      </c>
+      <c r="C188" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189" t="s">
+        <v>440</v>
+      </c>
+      <c r="C189" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>191</v>
+      </c>
+      <c r="B190" t="s">
+        <v>441</v>
+      </c>
+      <c r="C190" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>192</v>
+      </c>
+      <c r="B191" t="s">
+        <v>442</v>
+      </c>
+      <c r="C191" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>193</v>
+      </c>
+      <c r="B192" t="s">
+        <v>443</v>
+      </c>
+      <c r="C192" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193" t="s">
+        <v>444</v>
+      </c>
+      <c r="C193" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>195</v>
+      </c>
+      <c r="B194" t="s">
+        <v>445</v>
+      </c>
+      <c r="C194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>196</v>
+      </c>
+      <c r="B195" t="s">
+        <v>446</v>
+      </c>
+      <c r="C195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>197</v>
+      </c>
+      <c r="B196" t="s">
+        <v>422</v>
+      </c>
+      <c r="C196" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>198</v>
+      </c>
+      <c r="B197" t="s">
+        <v>423</v>
+      </c>
+      <c r="C197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>199</v>
+      </c>
+      <c r="B198" t="s">
+        <v>447</v>
+      </c>
+      <c r="C198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>200</v>
+      </c>
+      <c r="B199" t="s">
+        <v>448</v>
+      </c>
+      <c r="C199" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>201</v>
+      </c>
+      <c r="B200" t="s">
+        <v>449</v>
+      </c>
+      <c r="C200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>202</v>
+      </c>
+      <c r="B201" t="s">
+        <v>450</v>
+      </c>
+      <c r="C201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>203</v>
+      </c>
+      <c r="B202" t="s">
+        <v>451</v>
+      </c>
+      <c r="C202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>204</v>
+      </c>
+      <c r="B203" t="s">
+        <v>452</v>
+      </c>
+      <c r="C203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>205</v>
+      </c>
+      <c r="B204" t="s">
+        <v>453</v>
+      </c>
+      <c r="C204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>206</v>
+      </c>
+      <c r="B205" t="s">
+        <v>454</v>
+      </c>
+      <c r="C205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>207</v>
+      </c>
+      <c r="B206" t="s">
+        <v>455</v>
+      </c>
+      <c r="C206" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>208</v>
+      </c>
+      <c r="B207" t="s">
+        <v>443</v>
+      </c>
+      <c r="C207" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>209</v>
+      </c>
+      <c r="B208" t="s">
+        <v>442</v>
+      </c>
+      <c r="C208" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>210</v>
+      </c>
+      <c r="B209" t="s">
+        <v>456</v>
+      </c>
+      <c r="C209" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>211</v>
+      </c>
+      <c r="B210" t="s">
+        <v>457</v>
+      </c>
+      <c r="C210" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>212</v>
+      </c>
+      <c r="B211" t="s">
+        <v>458</v>
+      </c>
+      <c r="C211" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>213</v>
+      </c>
+      <c r="B212" t="s">
+        <v>459</v>
+      </c>
+      <c r="C212" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>214</v>
+      </c>
+      <c r="B213" t="s">
+        <v>315</v>
+      </c>
+      <c r="C213" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>215</v>
+      </c>
+      <c r="B214" t="s">
+        <v>316</v>
+      </c>
+      <c r="C214" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>216</v>
+      </c>
+      <c r="B215" t="s">
+        <v>317</v>
+      </c>
+      <c r="C215" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>217</v>
+      </c>
+      <c r="B216" t="s">
+        <v>318</v>
+      </c>
+      <c r="C216" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>218</v>
+      </c>
+      <c r="B217" t="s">
+        <v>319</v>
+      </c>
+      <c r="C217" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>219</v>
+      </c>
+      <c r="B218" t="s">
+        <v>320</v>
+      </c>
+      <c r="C218" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>220</v>
+      </c>
+      <c r="B219" t="s">
+        <v>321</v>
+      </c>
+      <c r="C219" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>221</v>
+      </c>
+      <c r="B220" t="s">
+        <v>322</v>
+      </c>
+      <c r="C220" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>222</v>
+      </c>
+      <c r="B221" t="s">
+        <v>460</v>
+      </c>
+      <c r="C221" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>223</v>
+      </c>
+      <c r="B222" t="s">
+        <v>459</v>
+      </c>
+      <c r="C222" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>224</v>
+      </c>
+      <c r="B223" t="s">
+        <v>461</v>
+      </c>
+      <c r="C223" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>225</v>
+      </c>
+      <c r="B224" t="s">
+        <v>462</v>
+      </c>
+      <c r="C224" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>226</v>
+      </c>
+      <c r="B225" t="s">
+        <v>463</v>
+      </c>
+      <c r="C225" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>227</v>
+      </c>
+      <c r="B226" t="s">
+        <v>464</v>
+      </c>
+      <c r="C226" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>228</v>
+      </c>
+      <c r="B227" t="s">
+        <v>465</v>
+      </c>
+      <c r="C227" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>229</v>
+      </c>
+      <c r="B228" t="s">
+        <v>466</v>
+      </c>
+      <c r="C228" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>230</v>
+      </c>
+      <c r="B229" t="s">
+        <v>467</v>
+      </c>
+      <c r="C229" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>231</v>
+      </c>
+      <c r="B230" t="s">
+        <v>468</v>
+      </c>
+      <c r="C230" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>232</v>
+      </c>
+      <c r="B231" t="s">
+        <v>469</v>
+      </c>
+      <c r="C231" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>233</v>
+      </c>
+      <c r="B232" t="s">
+        <v>470</v>
+      </c>
+      <c r="C232" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>234</v>
+      </c>
+      <c r="B233" t="s">
+        <v>471</v>
+      </c>
+      <c r="C233" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>235</v>
+      </c>
+      <c r="B234" t="s">
+        <v>472</v>
+      </c>
+      <c r="C234" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>236</v>
+      </c>
+      <c r="B235" t="s">
+        <v>473</v>
+      </c>
+      <c r="C235" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>237</v>
+      </c>
+      <c r="B236" t="s">
+        <v>474</v>
+      </c>
+      <c r="C236" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>238</v>
+      </c>
+      <c r="B237" t="s">
+        <v>475</v>
+      </c>
+      <c r="C237" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>239</v>
+      </c>
+      <c r="B238" t="s">
+        <v>422</v>
+      </c>
+      <c r="C238" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>240</v>
+      </c>
+      <c r="B239" t="s">
+        <v>423</v>
+      </c>
+      <c r="C239" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>241</v>
+      </c>
+      <c r="B240" t="s">
+        <v>476</v>
+      </c>
+      <c r="C240" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>242</v>
+      </c>
+      <c r="B241" t="s">
+        <v>477</v>
+      </c>
+      <c r="C241" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>243</v>
+      </c>
+      <c r="B242" t="s">
+        <v>478</v>
+      </c>
+      <c r="C242" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>244</v>
+      </c>
+      <c r="B243" t="s">
+        <v>479</v>
+      </c>
+      <c r="C243" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>245</v>
+      </c>
+      <c r="B244" t="s">
+        <v>480</v>
+      </c>
+      <c r="C244" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>246</v>
+      </c>
+      <c r="B245" t="s">
+        <v>481</v>
+      </c>
+      <c r="C245" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>247</v>
+      </c>
+      <c r="B246" t="s">
+        <v>482</v>
+      </c>
+      <c r="C246" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>248</v>
+      </c>
+      <c r="B247" t="s">
+        <v>483</v>
+      </c>
+      <c r="C247" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>249</v>
+      </c>
+      <c r="B248" t="s">
+        <v>484</v>
+      </c>
+      <c r="C248" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>250</v>
+      </c>
+      <c r="B249" t="s">
+        <v>479</v>
+      </c>
+      <c r="C249" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>251</v>
+      </c>
+      <c r="B250" t="s">
+        <v>480</v>
+      </c>
+      <c r="C250" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>252</v>
+      </c>
+      <c r="B251" t="s">
+        <v>481</v>
+      </c>
+      <c r="C251" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>253</v>
+      </c>
+      <c r="B252" t="s">
+        <v>482</v>
+      </c>
+      <c r="C252" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>254</v>
+      </c>
+      <c r="B253" t="s">
+        <v>485</v>
+      </c>
+      <c r="C253" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>255</v>
+      </c>
+      <c r="B254" t="s">
+        <v>486</v>
+      </c>
+      <c r="C254" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>256</v>
+      </c>
+      <c r="B255" t="s">
+        <v>487</v>
+      </c>
+      <c r="C255" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>257</v>
+      </c>
+      <c r="B256" t="s">
+        <v>488</v>
+      </c>
+      <c r="C256" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>258</v>
+      </c>
+      <c r="B257" t="s">
+        <v>489</v>
+      </c>
+      <c r="C257" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>259</v>
+      </c>
+      <c r="B258" t="s">
+        <v>488</v>
+      </c>
+      <c r="C258" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>260</v>
+      </c>
+      <c r="B259" t="s">
+        <v>354</v>
+      </c>
+      <c r="C259" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>261</v>
+      </c>
+      <c r="B260" t="s">
+        <v>355</v>
+      </c>
+      <c r="C260" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>262</v>
+      </c>
+      <c r="B261" t="s">
+        <v>356</v>
+      </c>
+      <c r="C261" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>263</v>
+      </c>
+      <c r="B262" t="s">
+        <v>357</v>
+      </c>
+      <c r="C262" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>264</v>
+      </c>
+      <c r="B263" t="s">
+        <v>490</v>
+      </c>
+      <c r="C263" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>265</v>
+      </c>
+      <c r="B264" t="s">
+        <v>491</v>
+      </c>
+      <c r="C264" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>266</v>
+      </c>
+      <c r="B265" t="s">
+        <v>492</v>
+      </c>
+      <c r="C265" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>267</v>
+      </c>
+      <c r="B266" t="s">
+        <v>493</v>
+      </c>
+      <c r="C266" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>268</v>
+      </c>
+      <c r="B267" t="s">
+        <v>494</v>
+      </c>
+      <c r="C267" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>269</v>
+      </c>
+      <c r="B268" t="s">
+        <v>495</v>
+      </c>
+      <c r="C268" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
+        <v>270</v>
+      </c>
+      <c r="B269" t="s">
+        <v>496</v>
+      </c>
+      <c r="C269" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>271</v>
+      </c>
+      <c r="B270" t="s">
+        <v>497</v>
+      </c>
+      <c r="C270" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>272</v>
+      </c>
+      <c r="B271" t="s">
+        <v>498</v>
+      </c>
+      <c r="C271" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>273</v>
+      </c>
+      <c r="B272" t="s">
+        <v>499</v>
+      </c>
+      <c r="C272" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>274</v>
+      </c>
+      <c r="B273" t="s">
+        <v>500</v>
+      </c>
+      <c r="C273" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>275</v>
+      </c>
+      <c r="B274" t="s">
+        <v>501</v>
+      </c>
+      <c r="C274" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
+        <v>276</v>
+      </c>
+      <c r="B275" t="s">
+        <v>442</v>
+      </c>
+      <c r="C275" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
+        <v>277</v>
+      </c>
+      <c r="B276" t="s">
+        <v>443</v>
+      </c>
+      <c r="C276" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>278</v>
+      </c>
+      <c r="B277" t="s">
+        <v>502</v>
+      </c>
+      <c r="C277" t="b">
         <v>0</v>
       </c>
     </row>

--- a/update_assets/input.xlsx
+++ b/update_assets/input.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="512">
   <si>
     <t>key</t>
   </si>
@@ -634,6 +634,9 @@
     <t>lifeInsurance.customerDetails1.birthDate.label</t>
   </si>
   <si>
+    <t>lifeInsurance.customerDetails1.subTitle</t>
+  </si>
+  <si>
     <t>lifeInsurance.customerDetails2.label</t>
   </si>
   <si>
@@ -655,6 +658,9 @@
     <t>lifeInsurance.customerDetails2.dangerous_hobby_desc.label</t>
   </si>
   <si>
+    <t>lifeInsurance.customerDetails2.subTitle</t>
+  </si>
+  <si>
     <t>lifeInsurance.loanTracksCount.label</t>
   </si>
   <si>
@@ -730,6 +736,9 @@
     <t>lifeInsurance.loanTracks.loan_type.label</t>
   </si>
   <si>
+    <t>lifeInsurance.loanTracks.subTitle</t>
+  </si>
+  <si>
     <t>lifeInsurance.customerMoreDetails.label</t>
   </si>
   <si>
@@ -760,6 +769,9 @@
     <t>lifeInsurance.customerMoreDetails.apartment_number.label</t>
   </si>
   <si>
+    <t>lifeInsurance.customerMoreDetails.subTitle</t>
+  </si>
+  <si>
     <t>lifeInsurance.mortgagePropertyAddress.label</t>
   </si>
   <si>
@@ -853,6 +865,12 @@
     <t>lifeInsurance.end.end</t>
   </si>
   <si>
+    <t>lifeInsurance.mortgageSummary.step_name</t>
+  </si>
+  <si>
+    <t>lifeInsurance.mortgageSummary.step_sub</t>
+  </si>
+  <si>
     <t>*TRANSLATE*</t>
   </si>
   <si>
@@ -1378,6 +1396,9 @@
     <t>תאריך לידה</t>
   </si>
   <si>
+    <t>subTitle.person2</t>
+  </si>
+  <si>
     <t>פרטים כלליים</t>
   </si>
   <si>
@@ -1441,6 +1462,9 @@
     <t>סוג הלוואה</t>
   </si>
   <si>
+    <t>subTitle.track2</t>
+  </si>
+  <si>
     <t>השלמת פרטים אישיים</t>
   </si>
   <si>
@@ -1523,6 +1547,9 @@
   </si>
   <si>
     <t>end</t>
+  </si>
+  <si>
+    <t>Receiver Offers</t>
   </si>
 </sst>
 </file>
@@ -1880,7 +1907,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C277"/>
+  <dimension ref="A1:C283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1902,7 +1929,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -1913,7 +1940,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -1924,7 +1951,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -1935,7 +1962,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -1946,7 +1973,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -1957,7 +1984,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -1968,7 +1995,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -1979,7 +2006,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -1990,7 +2017,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -2001,7 +2028,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -2012,7 +2039,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -2023,7 +2050,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -2034,7 +2061,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -2045,7 +2072,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -2056,7 +2083,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -2067,7 +2094,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -2078,7 +2105,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -2089,7 +2116,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -2100,7 +2127,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -2111,7 +2138,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -2122,7 +2149,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -2133,7 +2160,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -2144,7 +2171,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -2155,7 +2182,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -2166,7 +2193,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -2177,7 +2204,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -2188,7 +2215,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -2199,7 +2226,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -2210,7 +2237,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -2221,7 +2248,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -2232,7 +2259,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -2243,7 +2270,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -2254,7 +2281,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -2265,7 +2292,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -2276,7 +2303,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -2287,7 +2314,7 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -2298,7 +2325,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -2309,7 +2336,7 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -2320,7 +2347,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -2331,7 +2358,7 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -2342,7 +2369,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -2353,7 +2380,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -2364,7 +2391,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -2375,7 +2402,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
@@ -2386,7 +2413,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -2397,7 +2424,7 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -2408,7 +2435,7 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -2419,7 +2446,7 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -2430,7 +2457,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -2441,7 +2468,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -2452,7 +2479,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -2463,7 +2490,7 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -2474,7 +2501,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -2485,7 +2512,7 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -2496,7 +2523,7 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
@@ -2507,7 +2534,7 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
@@ -2518,7 +2545,7 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
@@ -2529,7 +2556,7 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
@@ -2540,7 +2567,7 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
@@ -2551,7 +2578,7 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
@@ -2562,7 +2589,7 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
@@ -2573,7 +2600,7 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
@@ -2584,7 +2611,7 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
@@ -2595,7 +2622,7 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
@@ -2606,7 +2633,7 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
@@ -2617,7 +2644,7 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
@@ -2628,7 +2655,7 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
@@ -2639,7 +2666,7 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
@@ -2650,7 +2677,7 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
@@ -2661,7 +2688,7 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
@@ -2672,7 +2699,7 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
@@ -2683,7 +2710,7 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
@@ -2694,7 +2721,7 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
@@ -2705,7 +2732,7 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
@@ -2716,7 +2743,7 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
@@ -2727,7 +2754,7 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
@@ -2738,7 +2765,7 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
@@ -2749,7 +2776,7 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
@@ -2760,7 +2787,7 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
@@ -2771,7 +2798,7 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
@@ -2782,7 +2809,7 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
@@ -2793,7 +2820,7 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -2804,7 +2831,7 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
@@ -2815,7 +2842,7 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
@@ -2826,7 +2853,7 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
@@ -2837,7 +2864,7 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
@@ -2848,7 +2875,7 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
@@ -2859,7 +2886,7 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
@@ -2870,7 +2897,7 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
@@ -2881,7 +2908,7 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
@@ -2892,7 +2919,7 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C92" t="b">
         <v>0</v>
@@ -2903,7 +2930,7 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
@@ -2914,7 +2941,7 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C94" t="b">
         <v>0</v>
@@ -2925,7 +2952,7 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C95" t="b">
         <v>0</v>
@@ -2936,7 +2963,7 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
@@ -2947,7 +2974,7 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C97" t="b">
         <v>0</v>
@@ -2958,7 +2985,7 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C98" t="b">
         <v>0</v>
@@ -2969,7 +2996,7 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C99" t="b">
         <v>0</v>
@@ -2980,7 +3007,7 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C100" t="b">
         <v>0</v>
@@ -2991,7 +3018,7 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="C101" t="b">
         <v>0</v>
@@ -3002,7 +3029,7 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C102" t="b">
         <v>0</v>
@@ -3013,7 +3040,7 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C103" t="b">
         <v>0</v>
@@ -3024,7 +3051,7 @@
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C104" t="b">
         <v>0</v>
@@ -3035,7 +3062,7 @@
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C105" t="b">
         <v>0</v>
@@ -3046,7 +3073,7 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C106" t="b">
         <v>0</v>
@@ -3057,7 +3084,7 @@
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C107" t="b">
         <v>0</v>
@@ -3068,7 +3095,7 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C108" t="b">
         <v>0</v>
@@ -3079,7 +3106,7 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C109" t="b">
         <v>0</v>
@@ -3090,7 +3117,7 @@
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C110" t="b">
         <v>0</v>
@@ -3101,7 +3128,7 @@
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C111" t="b">
         <v>0</v>
@@ -3112,7 +3139,7 @@
         <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C112" t="b">
         <v>0</v>
@@ -3123,7 +3150,7 @@
         <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C113" t="b">
         <v>0</v>
@@ -3134,7 +3161,7 @@
         <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C114" t="b">
         <v>0</v>
@@ -3145,7 +3172,7 @@
         <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C115" t="b">
         <v>0</v>
@@ -3156,7 +3183,7 @@
         <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C116" t="b">
         <v>0</v>
@@ -3167,7 +3194,7 @@
         <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C117" t="b">
         <v>0</v>
@@ -3178,7 +3205,7 @@
         <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C118" t="b">
         <v>0</v>
@@ -3189,7 +3216,7 @@
         <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C119" t="b">
         <v>0</v>
@@ -3200,7 +3227,7 @@
         <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C120" t="b">
         <v>0</v>
@@ -3211,7 +3238,7 @@
         <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C121" t="b">
         <v>0</v>
@@ -3222,7 +3249,7 @@
         <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C122" t="b">
         <v>0</v>
@@ -3233,7 +3260,7 @@
         <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C123" t="b">
         <v>0</v>
@@ -3244,7 +3271,7 @@
         <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C124" t="b">
         <v>0</v>
@@ -3255,7 +3282,7 @@
         <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C125" t="b">
         <v>0</v>
@@ -3266,7 +3293,7 @@
         <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C126" t="b">
         <v>0</v>
@@ -3288,7 +3315,7 @@
         <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C128" t="b">
         <v>0</v>
@@ -3299,7 +3326,7 @@
         <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C129" t="b">
         <v>0</v>
@@ -3310,7 +3337,7 @@
         <v>131</v>
       </c>
       <c r="B130" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C130" t="b">
         <v>0</v>
@@ -3321,7 +3348,7 @@
         <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C131" t="b">
         <v>0</v>
@@ -3332,7 +3359,7 @@
         <v>133</v>
       </c>
       <c r="B132" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C132" t="b">
         <v>0</v>
@@ -3343,7 +3370,7 @@
         <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C133" t="b">
         <v>0</v>
@@ -3354,7 +3381,7 @@
         <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C134" t="b">
         <v>0</v>
@@ -3365,7 +3392,7 @@
         <v>136</v>
       </c>
       <c r="B135" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C135" t="b">
         <v>0</v>
@@ -3376,7 +3403,7 @@
         <v>137</v>
       </c>
       <c r="B136" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C136" t="b">
         <v>0</v>
@@ -3387,7 +3414,7 @@
         <v>138</v>
       </c>
       <c r="B137" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C137" t="b">
         <v>0</v>
@@ -3398,7 +3425,7 @@
         <v>139</v>
       </c>
       <c r="B138" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C138" t="b">
         <v>0</v>
@@ -3409,7 +3436,7 @@
         <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C139" t="b">
         <v>0</v>
@@ -3420,7 +3447,7 @@
         <v>141</v>
       </c>
       <c r="B140" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C140" t="b">
         <v>0</v>
@@ -3431,7 +3458,7 @@
         <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C141" t="b">
         <v>0</v>
@@ -3442,7 +3469,7 @@
         <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C142" t="b">
         <v>0</v>
@@ -3453,7 +3480,7 @@
         <v>144</v>
       </c>
       <c r="B143" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C143" t="b">
         <v>0</v>
@@ -3464,7 +3491,7 @@
         <v>145</v>
       </c>
       <c r="B144" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C144" t="b">
         <v>0</v>
@@ -3475,7 +3502,7 @@
         <v>146</v>
       </c>
       <c r="B145" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C145" t="b">
         <v>0</v>
@@ -3486,7 +3513,7 @@
         <v>147</v>
       </c>
       <c r="B146" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C146" t="b">
         <v>0</v>
@@ -3497,7 +3524,7 @@
         <v>148</v>
       </c>
       <c r="B147" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C147" t="b">
         <v>0</v>
@@ -3508,7 +3535,7 @@
         <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C148" t="b">
         <v>0</v>
@@ -3519,7 +3546,7 @@
         <v>150</v>
       </c>
       <c r="B149" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C149" t="b">
         <v>0</v>
@@ -3530,7 +3557,7 @@
         <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C150" t="b">
         <v>0</v>
@@ -3541,7 +3568,7 @@
         <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C151" t="b">
         <v>0</v>
@@ -3552,7 +3579,7 @@
         <v>153</v>
       </c>
       <c r="B152" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C152" t="b">
         <v>0</v>
@@ -3563,7 +3590,7 @@
         <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C153" t="b">
         <v>0</v>
@@ -3574,7 +3601,7 @@
         <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C154" t="b">
         <v>0</v>
@@ -3585,7 +3612,7 @@
         <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C155" t="b">
         <v>0</v>
@@ -3596,7 +3623,7 @@
         <v>157</v>
       </c>
       <c r="B156" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C156" t="b">
         <v>0</v>
@@ -3607,7 +3634,7 @@
         <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C157" t="b">
         <v>0</v>
@@ -3618,7 +3645,7 @@
         <v>159</v>
       </c>
       <c r="B158" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C158" t="b">
         <v>0</v>
@@ -3629,7 +3656,7 @@
         <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C159" t="b">
         <v>0</v>
@@ -3640,7 +3667,7 @@
         <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C160" t="b">
         <v>0</v>
@@ -3651,7 +3678,7 @@
         <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C161" t="b">
         <v>0</v>
@@ -3662,7 +3689,7 @@
         <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C162" t="b">
         <v>0</v>
@@ -3673,7 +3700,7 @@
         <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C163" t="b">
         <v>0</v>
@@ -3684,7 +3711,7 @@
         <v>165</v>
       </c>
       <c r="B164" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C164" t="b">
         <v>0</v>
@@ -3695,7 +3722,7 @@
         <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="C165" t="b">
         <v>0</v>
@@ -3706,7 +3733,7 @@
         <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C166" t="b">
         <v>0</v>
@@ -3717,7 +3744,7 @@
         <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="C167" t="b">
         <v>0</v>
@@ -3728,7 +3755,7 @@
         <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C168" t="b">
         <v>0</v>
@@ -3739,7 +3766,7 @@
         <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="C169" t="b">
         <v>0</v>
@@ -3750,7 +3777,7 @@
         <v>171</v>
       </c>
       <c r="B170" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C170" t="b">
         <v>0</v>
@@ -3761,7 +3788,7 @@
         <v>172</v>
       </c>
       <c r="B171" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="C171" t="b">
         <v>0</v>
@@ -3772,7 +3799,7 @@
         <v>173</v>
       </c>
       <c r="B172" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C172" t="b">
         <v>0</v>
@@ -3794,7 +3821,7 @@
         <v>175</v>
       </c>
       <c r="B174" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C174" t="b">
         <v>0</v>
@@ -3805,7 +3832,7 @@
         <v>176</v>
       </c>
       <c r="B175" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C175" t="b">
         <v>0</v>
@@ -3816,7 +3843,7 @@
         <v>177</v>
       </c>
       <c r="B176" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C176" t="b">
         <v>0</v>
@@ -3827,7 +3854,7 @@
         <v>178</v>
       </c>
       <c r="B177" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C177" t="b">
         <v>0</v>
@@ -3838,7 +3865,7 @@
         <v>179</v>
       </c>
       <c r="B178" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C178" t="b">
         <v>0</v>
@@ -3849,7 +3876,7 @@
         <v>180</v>
       </c>
       <c r="B179" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="C179" t="b">
         <v>0</v>
@@ -3860,7 +3887,7 @@
         <v>181</v>
       </c>
       <c r="B180" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C180" t="b">
         <v>0</v>
@@ -3871,7 +3898,7 @@
         <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C181" t="b">
         <v>0</v>
@@ -3882,7 +3909,7 @@
         <v>183</v>
       </c>
       <c r="B182" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="C182" t="b">
         <v>0</v>
@@ -3893,7 +3920,7 @@
         <v>184</v>
       </c>
       <c r="B183" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C183" t="b">
         <v>0</v>
@@ -3904,7 +3931,7 @@
         <v>185</v>
       </c>
       <c r="B184" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C184" t="b">
         <v>0</v>
@@ -3915,7 +3942,7 @@
         <v>186</v>
       </c>
       <c r="B185" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="C185" t="b">
         <v>0</v>
@@ -3926,7 +3953,7 @@
         <v>187</v>
       </c>
       <c r="B186" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="C186" t="b">
         <v>0</v>
@@ -3937,7 +3964,7 @@
         <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C187" t="b">
         <v>0</v>
@@ -3948,7 +3975,7 @@
         <v>189</v>
       </c>
       <c r="B188" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C188" t="b">
         <v>0</v>
@@ -3959,7 +3986,7 @@
         <v>190</v>
       </c>
       <c r="B189" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C189" t="b">
         <v>0</v>
@@ -3970,7 +3997,7 @@
         <v>191</v>
       </c>
       <c r="B190" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C190" t="b">
         <v>0</v>
@@ -3981,7 +4008,7 @@
         <v>192</v>
       </c>
       <c r="B191" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C191" t="b">
         <v>0</v>
@@ -3992,7 +4019,7 @@
         <v>193</v>
       </c>
       <c r="B192" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C192" t="b">
         <v>0</v>
@@ -4003,7 +4030,7 @@
         <v>194</v>
       </c>
       <c r="B193" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C193" t="b">
         <v>0</v>
@@ -4014,7 +4041,7 @@
         <v>195</v>
       </c>
       <c r="B194" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C194" t="b">
         <v>0</v>
@@ -4025,7 +4052,7 @@
         <v>196</v>
       </c>
       <c r="B195" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C195" t="b">
         <v>0</v>
@@ -4036,7 +4063,7 @@
         <v>197</v>
       </c>
       <c r="B196" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C196" t="b">
         <v>0</v>
@@ -4047,7 +4074,7 @@
         <v>198</v>
       </c>
       <c r="B197" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="C197" t="b">
         <v>0</v>
@@ -4058,7 +4085,7 @@
         <v>199</v>
       </c>
       <c r="B198" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C198" t="b">
         <v>0</v>
@@ -4069,7 +4096,7 @@
         <v>200</v>
       </c>
       <c r="B199" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C199" t="b">
         <v>0</v>
@@ -4080,7 +4107,7 @@
         <v>201</v>
       </c>
       <c r="B200" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C200" t="b">
         <v>0</v>
@@ -4091,7 +4118,7 @@
         <v>202</v>
       </c>
       <c r="B201" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C201" t="b">
         <v>0</v>
@@ -4102,7 +4129,7 @@
         <v>203</v>
       </c>
       <c r="B202" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="C202" t="b">
         <v>0</v>
@@ -4113,7 +4140,7 @@
         <v>204</v>
       </c>
       <c r="B203" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C203" t="b">
         <v>0</v>
@@ -4124,7 +4151,7 @@
         <v>205</v>
       </c>
       <c r="B204" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C204" t="b">
         <v>0</v>
@@ -4135,7 +4162,7 @@
         <v>206</v>
       </c>
       <c r="B205" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="C205" t="b">
         <v>0</v>
@@ -4146,7 +4173,7 @@
         <v>207</v>
       </c>
       <c r="B206" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C206" t="b">
         <v>0</v>
@@ -4157,7 +4184,7 @@
         <v>208</v>
       </c>
       <c r="B207" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="C207" t="b">
         <v>0</v>
@@ -4168,7 +4195,7 @@
         <v>209</v>
       </c>
       <c r="B208" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C208" t="b">
         <v>0</v>
@@ -4179,7 +4206,7 @@
         <v>210</v>
       </c>
       <c r="B209" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C209" t="b">
         <v>0</v>
@@ -4190,7 +4217,7 @@
         <v>211</v>
       </c>
       <c r="B210" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C210" t="b">
         <v>0</v>
@@ -4201,7 +4228,7 @@
         <v>212</v>
       </c>
       <c r="B211" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="C211" t="b">
         <v>0</v>
@@ -4212,7 +4239,7 @@
         <v>213</v>
       </c>
       <c r="B212" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C212" t="b">
         <v>0</v>
@@ -4223,7 +4250,7 @@
         <v>214</v>
       </c>
       <c r="B213" t="s">
-        <v>315</v>
+        <v>460</v>
       </c>
       <c r="C213" t="b">
         <v>0</v>
@@ -4234,7 +4261,7 @@
         <v>215</v>
       </c>
       <c r="B214" t="s">
-        <v>316</v>
+        <v>466</v>
       </c>
       <c r="C214" t="b">
         <v>0</v>
@@ -4245,7 +4272,7 @@
         <v>216</v>
       </c>
       <c r="B215" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C215" t="b">
         <v>0</v>
@@ -4256,7 +4283,7 @@
         <v>217</v>
       </c>
       <c r="B216" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C216" t="b">
         <v>0</v>
@@ -4267,7 +4294,7 @@
         <v>218</v>
       </c>
       <c r="B217" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C217" t="b">
         <v>0</v>
@@ -4278,7 +4305,7 @@
         <v>219</v>
       </c>
       <c r="B218" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C218" t="b">
         <v>0</v>
@@ -4289,7 +4316,7 @@
         <v>220</v>
       </c>
       <c r="B219" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C219" t="b">
         <v>0</v>
@@ -4300,7 +4327,7 @@
         <v>221</v>
       </c>
       <c r="B220" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C220" t="b">
         <v>0</v>
@@ -4311,7 +4338,7 @@
         <v>222</v>
       </c>
       <c r="B221" t="s">
-        <v>460</v>
+        <v>327</v>
       </c>
       <c r="C221" t="b">
         <v>0</v>
@@ -4322,7 +4349,7 @@
         <v>223</v>
       </c>
       <c r="B222" t="s">
-        <v>459</v>
+        <v>328</v>
       </c>
       <c r="C222" t="b">
         <v>0</v>
@@ -4333,7 +4360,7 @@
         <v>224</v>
       </c>
       <c r="B223" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C223" t="b">
         <v>0</v>
@@ -4344,7 +4371,7 @@
         <v>225</v>
       </c>
       <c r="B224" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C224" t="b">
         <v>0</v>
@@ -4355,7 +4382,7 @@
         <v>226</v>
       </c>
       <c r="B225" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C225" t="b">
         <v>0</v>
@@ -4366,7 +4393,7 @@
         <v>227</v>
       </c>
       <c r="B226" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C226" t="b">
         <v>0</v>
@@ -4377,7 +4404,7 @@
         <v>228</v>
       </c>
       <c r="B227" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C227" t="b">
         <v>0</v>
@@ -4388,7 +4415,7 @@
         <v>229</v>
       </c>
       <c r="B228" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="C228" t="b">
         <v>0</v>
@@ -4399,7 +4426,7 @@
         <v>230</v>
       </c>
       <c r="B229" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C229" t="b">
         <v>0</v>
@@ -4410,7 +4437,7 @@
         <v>231</v>
       </c>
       <c r="B230" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="C230" t="b">
         <v>0</v>
@@ -4421,7 +4448,7 @@
         <v>232</v>
       </c>
       <c r="B231" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="C231" t="b">
         <v>0</v>
@@ -4432,7 +4459,7 @@
         <v>233</v>
       </c>
       <c r="B232" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="C232" t="b">
         <v>0</v>
@@ -4443,7 +4470,7 @@
         <v>234</v>
       </c>
       <c r="B233" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C233" t="b">
         <v>0</v>
@@ -4454,7 +4481,7 @@
         <v>235</v>
       </c>
       <c r="B234" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="C234" t="b">
         <v>0</v>
@@ -4465,7 +4492,7 @@
         <v>236</v>
       </c>
       <c r="B235" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="C235" t="b">
         <v>0</v>
@@ -4476,7 +4503,7 @@
         <v>237</v>
       </c>
       <c r="B236" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C236" t="b">
         <v>0</v>
@@ -4487,7 +4514,7 @@
         <v>238</v>
       </c>
       <c r="B237" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="C237" t="b">
         <v>0</v>
@@ -4498,7 +4525,7 @@
         <v>239</v>
       </c>
       <c r="B238" t="s">
-        <v>422</v>
+        <v>481</v>
       </c>
       <c r="C238" t="b">
         <v>0</v>
@@ -4509,7 +4536,7 @@
         <v>240</v>
       </c>
       <c r="B239" t="s">
-        <v>423</v>
+        <v>482</v>
       </c>
       <c r="C239" t="b">
         <v>0</v>
@@ -4520,7 +4547,7 @@
         <v>241</v>
       </c>
       <c r="B240" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="C240" t="b">
         <v>0</v>
@@ -4531,7 +4558,7 @@
         <v>242</v>
       </c>
       <c r="B241" t="s">
-        <v>477</v>
+        <v>428</v>
       </c>
       <c r="C241" t="b">
         <v>0</v>
@@ -4542,7 +4569,7 @@
         <v>243</v>
       </c>
       <c r="B242" t="s">
-        <v>478</v>
+        <v>429</v>
       </c>
       <c r="C242" t="b">
         <v>0</v>
@@ -4553,7 +4580,7 @@
         <v>244</v>
       </c>
       <c r="B243" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C243" t="b">
         <v>0</v>
@@ -4564,7 +4591,7 @@
         <v>245</v>
       </c>
       <c r="B244" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C244" t="b">
         <v>0</v>
@@ -4575,7 +4602,7 @@
         <v>246</v>
       </c>
       <c r="B245" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C245" t="b">
         <v>0</v>
@@ -4586,7 +4613,7 @@
         <v>247</v>
       </c>
       <c r="B246" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C246" t="b">
         <v>0</v>
@@ -4597,7 +4624,7 @@
         <v>248</v>
       </c>
       <c r="B247" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C247" t="b">
         <v>0</v>
@@ -4608,7 +4635,7 @@
         <v>249</v>
       </c>
       <c r="B248" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C248" t="b">
         <v>0</v>
@@ -4619,7 +4646,7 @@
         <v>250</v>
       </c>
       <c r="B249" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="C249" t="b">
         <v>0</v>
@@ -4630,7 +4657,7 @@
         <v>251</v>
       </c>
       <c r="B250" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="C250" t="b">
         <v>0</v>
@@ -4641,7 +4668,7 @@
         <v>252</v>
       </c>
       <c r="B251" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="C251" t="b">
         <v>0</v>
@@ -4652,7 +4679,7 @@
         <v>253</v>
       </c>
       <c r="B252" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="C252" t="b">
         <v>0</v>
@@ -4663,7 +4690,7 @@
         <v>254</v>
       </c>
       <c r="B253" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C253" t="b">
         <v>0</v>
@@ -4674,7 +4701,7 @@
         <v>255</v>
       </c>
       <c r="B254" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C254" t="b">
         <v>0</v>
@@ -4685,7 +4712,7 @@
         <v>256</v>
       </c>
       <c r="B255" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C255" t="b">
         <v>0</v>
@@ -4696,7 +4723,7 @@
         <v>257</v>
       </c>
       <c r="B256" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C256" t="b">
         <v>0</v>
@@ -4707,7 +4734,7 @@
         <v>258</v>
       </c>
       <c r="B257" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C257" t="b">
         <v>0</v>
@@ -4718,7 +4745,7 @@
         <v>259</v>
       </c>
       <c r="B258" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="C258" t="b">
         <v>0</v>
@@ -4729,7 +4756,7 @@
         <v>260</v>
       </c>
       <c r="B259" t="s">
-        <v>354</v>
+        <v>495</v>
       </c>
       <c r="C259" t="b">
         <v>0</v>
@@ -4740,7 +4767,7 @@
         <v>261</v>
       </c>
       <c r="B260" t="s">
-        <v>355</v>
+        <v>496</v>
       </c>
       <c r="C260" t="b">
         <v>0</v>
@@ -4751,7 +4778,7 @@
         <v>262</v>
       </c>
       <c r="B261" t="s">
-        <v>356</v>
+        <v>497</v>
       </c>
       <c r="C261" t="b">
         <v>0</v>
@@ -4762,7 +4789,7 @@
         <v>263</v>
       </c>
       <c r="B262" t="s">
-        <v>357</v>
+        <v>496</v>
       </c>
       <c r="C262" t="b">
         <v>0</v>
@@ -4773,7 +4800,7 @@
         <v>264</v>
       </c>
       <c r="B263" t="s">
-        <v>490</v>
+        <v>360</v>
       </c>
       <c r="C263" t="b">
         <v>0</v>
@@ -4784,7 +4811,7 @@
         <v>265</v>
       </c>
       <c r="B264" t="s">
-        <v>491</v>
+        <v>361</v>
       </c>
       <c r="C264" t="b">
         <v>0</v>
@@ -4795,7 +4822,7 @@
         <v>266</v>
       </c>
       <c r="B265" t="s">
-        <v>492</v>
+        <v>362</v>
       </c>
       <c r="C265" t="b">
         <v>0</v>
@@ -4806,7 +4833,7 @@
         <v>267</v>
       </c>
       <c r="B266" t="s">
-        <v>493</v>
+        <v>363</v>
       </c>
       <c r="C266" t="b">
         <v>0</v>
@@ -4817,7 +4844,7 @@
         <v>268</v>
       </c>
       <c r="B267" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C267" t="b">
         <v>0</v>
@@ -4828,7 +4855,7 @@
         <v>269</v>
       </c>
       <c r="B268" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C268" t="b">
         <v>0</v>
@@ -4839,7 +4866,7 @@
         <v>270</v>
       </c>
       <c r="B269" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C269" t="b">
         <v>0</v>
@@ -4850,7 +4877,7 @@
         <v>271</v>
       </c>
       <c r="B270" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C270" t="b">
         <v>0</v>
@@ -4861,7 +4888,7 @@
         <v>272</v>
       </c>
       <c r="B271" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C271" t="b">
         <v>0</v>
@@ -4872,7 +4899,7 @@
         <v>273</v>
       </c>
       <c r="B272" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C272" t="b">
         <v>0</v>
@@ -4883,7 +4910,7 @@
         <v>274</v>
       </c>
       <c r="B273" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C273" t="b">
         <v>0</v>
@@ -4894,7 +4921,7 @@
         <v>275</v>
       </c>
       <c r="B274" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C274" t="b">
         <v>0</v>
@@ -4905,7 +4932,7 @@
         <v>276</v>
       </c>
       <c r="B275" t="s">
-        <v>442</v>
+        <v>506</v>
       </c>
       <c r="C275" t="b">
         <v>0</v>
@@ -4916,7 +4943,7 @@
         <v>277</v>
       </c>
       <c r="B276" t="s">
-        <v>443</v>
+        <v>507</v>
       </c>
       <c r="C276" t="b">
         <v>0</v>
@@ -4927,9 +4954,75 @@
         <v>278</v>
       </c>
       <c r="B277" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="C277" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
+        <v>279</v>
+      </c>
+      <c r="B278" t="s">
+        <v>509</v>
+      </c>
+      <c r="C278" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
+        <v>280</v>
+      </c>
+      <c r="B279" t="s">
+        <v>448</v>
+      </c>
+      <c r="C279" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
+        <v>281</v>
+      </c>
+      <c r="B280" t="s">
+        <v>449</v>
+      </c>
+      <c r="C280" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
+        <v>282</v>
+      </c>
+      <c r="B281" t="s">
+        <v>510</v>
+      </c>
+      <c r="C281" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
+        <v>283</v>
+      </c>
+      <c r="B282" t="s">
+        <v>511</v>
+      </c>
+      <c r="C282" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
+        <v>284</v>
+      </c>
+      <c r="B283" t="s">
+        <v>511</v>
+      </c>
+      <c r="C283" t="b">
         <v>0</v>
       </c>
     </row>

--- a/update_assets/input.xlsx
+++ b/update_assets/input.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="545">
   <si>
     <t>key</t>
   </si>
@@ -580,6 +580,12 @@
     <t>lifeInsurance.numberOfCustomers.number_of_customers.label</t>
   </si>
   <si>
+    <t>lifeInsurance.numberOfCustomers.step_name</t>
+  </si>
+  <si>
+    <t>lifeInsurance.numberOfCustomers.step_sub</t>
+  </si>
+  <si>
     <t>lifeInsurance.customerDetails1.label</t>
   </si>
   <si>
@@ -637,6 +643,9 @@
     <t>lifeInsurance.customerDetails1.subTitle</t>
   </si>
   <si>
+    <t>lifeInsurance.customerDetails1.step_sub</t>
+  </si>
+  <si>
     <t>lifeInsurance.customerDetails2.label</t>
   </si>
   <si>
@@ -661,6 +670,9 @@
     <t>lifeInsurance.customerDetails2.subTitle</t>
   </si>
   <si>
+    <t>lifeInsurance.customerDetails2.step_sub</t>
+  </si>
+  <si>
     <t>lifeInsurance.loanTracksCount.label</t>
   </si>
   <si>
@@ -691,6 +703,9 @@
     <t>lifeInsurance.loanTracksCount.loan_tracks_count.label</t>
   </si>
   <si>
+    <t>lifeInsurance.loanTracksCount.step_sub</t>
+  </si>
+  <si>
     <t>lifeInsurance.loanTracks.label</t>
   </si>
   <si>
@@ -739,6 +754,9 @@
     <t>lifeInsurance.loanTracks.subTitle</t>
   </si>
   <si>
+    <t>lifeInsurance.loanTracks.step_sub</t>
+  </si>
+  <si>
     <t>lifeInsurance.customerMoreDetails.label</t>
   </si>
   <si>
@@ -772,6 +790,12 @@
     <t>lifeInsurance.customerMoreDetails.subTitle</t>
   </si>
   <si>
+    <t>lifeInsurance.customerMoreDetails.step_name</t>
+  </si>
+  <si>
+    <t>lifeInsurance.customerMoreDetails.step_sub</t>
+  </si>
+  <si>
     <t>lifeInsurance.mortgagePropertyAddress.label</t>
   </si>
   <si>
@@ -790,6 +814,9 @@
     <t>lifeInsurance.mortgagePropertyAddress.property_apartment_number.label</t>
   </si>
   <si>
+    <t>lifeInsurance.mortgagePropertyAddress.step_sub</t>
+  </si>
+  <si>
     <t>lifeInsurance.insuranceDetails.label</t>
   </si>
   <si>
@@ -820,6 +847,9 @@
     <t>lifeInsurance.insuranceDetails.bank_branch_number.placeholder</t>
   </si>
   <si>
+    <t>lifeInsurance.insuranceDetails.step_sub</t>
+  </si>
+  <si>
     <t>lifeInsurance.sendLinksToComplete.label</t>
   </si>
   <si>
@@ -838,6 +868,24 @@
     <t>lifeInsurance.sendLinksToComplete.details_approval.label</t>
   </si>
   <si>
+    <t>lifeInsurance.sendLinksToComplete.subTitle</t>
+  </si>
+  <si>
+    <t>lifeInsurance.sendLinksToComplete.subTitle2</t>
+  </si>
+  <si>
+    <t>lifeInsurance.sendLinksToComplete.imageTitle1</t>
+  </si>
+  <si>
+    <t>lifeInsurance.sendLinksToComplete.imageTitle2</t>
+  </si>
+  <si>
+    <t>lifeInsurance.sendLinksToComplete.step_name</t>
+  </si>
+  <si>
+    <t>lifeInsurance.sendLinksToComplete.step_sub</t>
+  </si>
+  <si>
     <t>lifeInsurance.end.label</t>
   </si>
   <si>
@@ -871,6 +919,15 @@
     <t>lifeInsurance.mortgageSummary.step_sub</t>
   </si>
   <si>
+    <t>lifeInsurance.mortgageSummary.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanDetailsIntro.label</t>
+  </si>
+  <si>
+    <t>lifeInsurance.loanDetailsIntro.step_sub</t>
+  </si>
+  <si>
     <t>*TRANSLATE*</t>
   </si>
   <si>
@@ -1348,6 +1405,12 @@
     <t>על כמה אנשים רשומה המשכנתה?</t>
   </si>
   <si>
+    <t>Initial details</t>
+  </si>
+  <si>
+    <t>Persons</t>
+  </si>
+  <si>
     <t>פרטים אישיים</t>
   </si>
   <si>
@@ -1399,6 +1462,9 @@
     <t>subTitle.person2</t>
   </si>
   <si>
+    <t>Personal details</t>
+  </si>
+  <si>
     <t>פרטים כלליים</t>
   </si>
   <si>
@@ -1414,12 +1480,18 @@
     <t>תיאור</t>
   </si>
   <si>
+    <t>General details</t>
+  </si>
+  <si>
     <t>פרטי המשכנתה</t>
   </si>
   <si>
     <t>כמה מסלולי הלוואה יש במשכנתה?</t>
   </si>
   <si>
+    <t>Loan details</t>
+  </si>
+  <si>
     <t>[track number] סכום היתרה בהלוואה</t>
   </si>
   <si>
@@ -1489,6 +1561,9 @@
     <t>דירה</t>
   </si>
   <si>
+    <t>Complete Details</t>
+  </si>
+  <si>
     <t>כתובת נכס ממושכן</t>
   </si>
   <si>
@@ -1528,6 +1603,24 @@
     <t xml:space="preserve">אני מאשר/ת בזאת שכל הפרטים שמסרתי הינם נכונים ומלאים </t>
   </si>
   <si>
+    <t>subTitle</t>
+  </si>
+  <si>
+    <t>subTitle2</t>
+  </si>
+  <si>
+    <t>imageTitle1</t>
+  </si>
+  <si>
+    <t>imageTitle2</t>
+  </si>
+  <si>
+    <t>Process End</t>
+  </si>
+  <si>
+    <t>Confirm and End</t>
+  </si>
+  <si>
     <t>Smapy תודה שבחרת</t>
   </si>
   <si>
@@ -1550,6 +1643,12 @@
   </si>
   <si>
     <t>Receiver Offers</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>loanDetailsIntro</t>
   </si>
 </sst>
 </file>
@@ -1907,7 +2006,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C283"/>
+  <dimension ref="A1:C302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1929,7 +2028,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -1940,7 +2039,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -1951,7 +2050,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -1962,7 +2061,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -1973,7 +2072,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -1984,7 +2083,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -1995,7 +2094,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -2006,7 +2105,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -2017,7 +2116,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -2028,7 +2127,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -2039,7 +2138,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -2050,7 +2149,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -2061,7 +2160,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -2072,7 +2171,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -2083,7 +2182,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -2094,7 +2193,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -2105,7 +2204,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -2116,7 +2215,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -2127,7 +2226,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -2138,7 +2237,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -2149,7 +2248,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -2160,7 +2259,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -2171,7 +2270,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -2182,7 +2281,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -2193,7 +2292,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -2204,7 +2303,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -2215,7 +2314,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -2226,7 +2325,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -2237,7 +2336,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -2248,7 +2347,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -2259,7 +2358,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -2270,7 +2369,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -2281,7 +2380,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -2292,7 +2391,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -2303,7 +2402,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -2314,7 +2413,7 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -2325,7 +2424,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -2336,7 +2435,7 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -2347,7 +2446,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -2358,7 +2457,7 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -2369,7 +2468,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -2380,7 +2479,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -2391,7 +2490,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -2402,7 +2501,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
@@ -2413,7 +2512,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -2424,7 +2523,7 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -2435,7 +2534,7 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -2446,7 +2545,7 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -2457,7 +2556,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -2468,7 +2567,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -2479,7 +2578,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -2490,7 +2589,7 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -2501,7 +2600,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -2512,7 +2611,7 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -2523,7 +2622,7 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
@@ -2534,7 +2633,7 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
@@ -2545,7 +2644,7 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
@@ -2556,7 +2655,7 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
@@ -2567,7 +2666,7 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
@@ -2578,7 +2677,7 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
@@ -2589,7 +2688,7 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
@@ -2600,7 +2699,7 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
@@ -2611,7 +2710,7 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
@@ -2622,7 +2721,7 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
@@ -2633,7 +2732,7 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
@@ -2644,7 +2743,7 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
@@ -2655,7 +2754,7 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
@@ -2666,7 +2765,7 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
@@ -2677,7 +2776,7 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
@@ -2688,7 +2787,7 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
@@ -2699,7 +2798,7 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
@@ -2710,7 +2809,7 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
@@ -2721,7 +2820,7 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
@@ -2732,7 +2831,7 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
@@ -2743,7 +2842,7 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
@@ -2754,7 +2853,7 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
@@ -2765,7 +2864,7 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
@@ -2776,7 +2875,7 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
@@ -2787,7 +2886,7 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
@@ -2798,7 +2897,7 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
@@ -2809,7 +2908,7 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
@@ -2820,7 +2919,7 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -2831,7 +2930,7 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
@@ -2842,7 +2941,7 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
@@ -2853,7 +2952,7 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
@@ -2864,7 +2963,7 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
@@ -2875,7 +2974,7 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
@@ -2886,7 +2985,7 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
@@ -2897,7 +2996,7 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
@@ -2908,7 +3007,7 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
@@ -2919,7 +3018,7 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="C92" t="b">
         <v>0</v>
@@ -2930,7 +3029,7 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
@@ -2941,7 +3040,7 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="C94" t="b">
         <v>0</v>
@@ -2952,7 +3051,7 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="C95" t="b">
         <v>0</v>
@@ -2963,7 +3062,7 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
@@ -2974,7 +3073,7 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C97" t="b">
         <v>0</v>
@@ -2985,7 +3084,7 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C98" t="b">
         <v>0</v>
@@ -2996,7 +3095,7 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="C99" t="b">
         <v>0</v>
@@ -3007,7 +3106,7 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="C100" t="b">
         <v>0</v>
@@ -3018,7 +3117,7 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="C101" t="b">
         <v>0</v>
@@ -3029,7 +3128,7 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="C102" t="b">
         <v>0</v>
@@ -3040,7 +3139,7 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="C103" t="b">
         <v>0</v>
@@ -3051,7 +3150,7 @@
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="C104" t="b">
         <v>0</v>
@@ -3062,7 +3161,7 @@
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="C105" t="b">
         <v>0</v>
@@ -3073,7 +3172,7 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="C106" t="b">
         <v>0</v>
@@ -3084,7 +3183,7 @@
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="C107" t="b">
         <v>0</v>
@@ -3095,7 +3194,7 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="C108" t="b">
         <v>0</v>
@@ -3106,7 +3205,7 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="C109" t="b">
         <v>0</v>
@@ -3117,7 +3216,7 @@
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="C110" t="b">
         <v>0</v>
@@ -3128,7 +3227,7 @@
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="C111" t="b">
         <v>0</v>
@@ -3139,7 +3238,7 @@
         <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="C112" t="b">
         <v>0</v>
@@ -3150,7 +3249,7 @@
         <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="C113" t="b">
         <v>0</v>
@@ -3161,7 +3260,7 @@
         <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="C114" t="b">
         <v>0</v>
@@ -3172,7 +3271,7 @@
         <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="C115" t="b">
         <v>0</v>
@@ -3183,7 +3282,7 @@
         <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C116" t="b">
         <v>0</v>
@@ -3194,7 +3293,7 @@
         <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="C117" t="b">
         <v>0</v>
@@ -3205,7 +3304,7 @@
         <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="C118" t="b">
         <v>0</v>
@@ -3216,7 +3315,7 @@
         <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="C119" t="b">
         <v>0</v>
@@ -3227,7 +3326,7 @@
         <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="C120" t="b">
         <v>0</v>
@@ -3238,7 +3337,7 @@
         <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="C121" t="b">
         <v>0</v>
@@ -3249,7 +3348,7 @@
         <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="C122" t="b">
         <v>0</v>
@@ -3260,7 +3359,7 @@
         <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="C123" t="b">
         <v>0</v>
@@ -3271,7 +3370,7 @@
         <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="C124" t="b">
         <v>0</v>
@@ -3282,7 +3381,7 @@
         <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="C125" t="b">
         <v>0</v>
@@ -3293,7 +3392,7 @@
         <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="C126" t="b">
         <v>0</v>
@@ -3315,7 +3414,7 @@
         <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="C128" t="b">
         <v>0</v>
@@ -3326,7 +3425,7 @@
         <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="C129" t="b">
         <v>0</v>
@@ -3337,7 +3436,7 @@
         <v>131</v>
       </c>
       <c r="B130" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="C130" t="b">
         <v>0</v>
@@ -3348,7 +3447,7 @@
         <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="C131" t="b">
         <v>0</v>
@@ -3359,7 +3458,7 @@
         <v>133</v>
       </c>
       <c r="B132" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="C132" t="b">
         <v>0</v>
@@ -3370,7 +3469,7 @@
         <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="C133" t="b">
         <v>0</v>
@@ -3381,7 +3480,7 @@
         <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="C134" t="b">
         <v>0</v>
@@ -3392,7 +3491,7 @@
         <v>136</v>
       </c>
       <c r="B135" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="C135" t="b">
         <v>0</v>
@@ -3403,7 +3502,7 @@
         <v>137</v>
       </c>
       <c r="B136" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="C136" t="b">
         <v>0</v>
@@ -3414,7 +3513,7 @@
         <v>138</v>
       </c>
       <c r="B137" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="C137" t="b">
         <v>0</v>
@@ -3425,7 +3524,7 @@
         <v>139</v>
       </c>
       <c r="B138" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="C138" t="b">
         <v>0</v>
@@ -3436,7 +3535,7 @@
         <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="C139" t="b">
         <v>0</v>
@@ -3447,7 +3546,7 @@
         <v>141</v>
       </c>
       <c r="B140" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="C140" t="b">
         <v>0</v>
@@ -3458,7 +3557,7 @@
         <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="C141" t="b">
         <v>0</v>
@@ -3469,7 +3568,7 @@
         <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="C142" t="b">
         <v>0</v>
@@ -3480,7 +3579,7 @@
         <v>144</v>
       </c>
       <c r="B143" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="C143" t="b">
         <v>0</v>
@@ -3491,7 +3590,7 @@
         <v>145</v>
       </c>
       <c r="B144" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="C144" t="b">
         <v>0</v>
@@ -3502,7 +3601,7 @@
         <v>146</v>
       </c>
       <c r="B145" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="C145" t="b">
         <v>0</v>
@@ -3513,7 +3612,7 @@
         <v>147</v>
       </c>
       <c r="B146" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="C146" t="b">
         <v>0</v>
@@ -3524,7 +3623,7 @@
         <v>148</v>
       </c>
       <c r="B147" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="C147" t="b">
         <v>0</v>
@@ -3535,7 +3634,7 @@
         <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="C148" t="b">
         <v>0</v>
@@ -3546,7 +3645,7 @@
         <v>150</v>
       </c>
       <c r="B149" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="C149" t="b">
         <v>0</v>
@@ -3557,7 +3656,7 @@
         <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="C150" t="b">
         <v>0</v>
@@ -3568,7 +3667,7 @@
         <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="C151" t="b">
         <v>0</v>
@@ -3579,7 +3678,7 @@
         <v>153</v>
       </c>
       <c r="B152" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="C152" t="b">
         <v>0</v>
@@ -3590,7 +3689,7 @@
         <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="C153" t="b">
         <v>0</v>
@@ -3601,7 +3700,7 @@
         <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C154" t="b">
         <v>0</v>
@@ -3612,7 +3711,7 @@
         <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="C155" t="b">
         <v>0</v>
@@ -3623,7 +3722,7 @@
         <v>157</v>
       </c>
       <c r="B156" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="C156" t="b">
         <v>0</v>
@@ -3634,7 +3733,7 @@
         <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="C157" t="b">
         <v>0</v>
@@ -3645,7 +3744,7 @@
         <v>159</v>
       </c>
       <c r="B158" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="C158" t="b">
         <v>0</v>
@@ -3656,7 +3755,7 @@
         <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="C159" t="b">
         <v>0</v>
@@ -3667,7 +3766,7 @@
         <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="C160" t="b">
         <v>0</v>
@@ -3678,7 +3777,7 @@
         <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="C161" t="b">
         <v>0</v>
@@ -3689,7 +3788,7 @@
         <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="C162" t="b">
         <v>0</v>
@@ -3700,7 +3799,7 @@
         <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="C163" t="b">
         <v>0</v>
@@ -3711,7 +3810,7 @@
         <v>165</v>
       </c>
       <c r="B164" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="C164" t="b">
         <v>0</v>
@@ -3722,7 +3821,7 @@
         <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="C165" t="b">
         <v>0</v>
@@ -3733,7 +3832,7 @@
         <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="C166" t="b">
         <v>0</v>
@@ -3744,7 +3843,7 @@
         <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="C167" t="b">
         <v>0</v>
@@ -3755,7 +3854,7 @@
         <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="C168" t="b">
         <v>0</v>
@@ -3766,7 +3865,7 @@
         <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="C169" t="b">
         <v>0</v>
@@ -3777,7 +3876,7 @@
         <v>171</v>
       </c>
       <c r="B170" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="C170" t="b">
         <v>0</v>
@@ -3788,7 +3887,7 @@
         <v>172</v>
       </c>
       <c r="B171" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="C171" t="b">
         <v>0</v>
@@ -3799,7 +3898,7 @@
         <v>173</v>
       </c>
       <c r="B172" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="C172" t="b">
         <v>0</v>
@@ -3821,7 +3920,7 @@
         <v>175</v>
       </c>
       <c r="B174" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="C174" t="b">
         <v>0</v>
@@ -3832,7 +3931,7 @@
         <v>176</v>
       </c>
       <c r="B175" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="C175" t="b">
         <v>0</v>
@@ -3843,7 +3942,7 @@
         <v>177</v>
       </c>
       <c r="B176" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="C176" t="b">
         <v>0</v>
@@ -3854,7 +3953,7 @@
         <v>178</v>
       </c>
       <c r="B177" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="C177" t="b">
         <v>0</v>
@@ -3865,7 +3964,7 @@
         <v>179</v>
       </c>
       <c r="B178" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="C178" t="b">
         <v>0</v>
@@ -3876,7 +3975,7 @@
         <v>180</v>
       </c>
       <c r="B179" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="C179" t="b">
         <v>0</v>
@@ -3887,7 +3986,7 @@
         <v>181</v>
       </c>
       <c r="B180" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="C180" t="b">
         <v>0</v>
@@ -3898,7 +3997,7 @@
         <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="C181" t="b">
         <v>0</v>
@@ -3909,7 +4008,7 @@
         <v>183</v>
       </c>
       <c r="B182" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="C182" t="b">
         <v>0</v>
@@ -3920,7 +4019,7 @@
         <v>184</v>
       </c>
       <c r="B183" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="C183" t="b">
         <v>0</v>
@@ -3931,7 +4030,7 @@
         <v>185</v>
       </c>
       <c r="B184" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="C184" t="b">
         <v>0</v>
@@ -3942,7 +4041,7 @@
         <v>186</v>
       </c>
       <c r="B185" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="C185" t="b">
         <v>0</v>
@@ -3953,7 +4052,7 @@
         <v>187</v>
       </c>
       <c r="B186" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="C186" t="b">
         <v>0</v>
@@ -3964,7 +4063,7 @@
         <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="C187" t="b">
         <v>0</v>
@@ -3975,7 +4074,7 @@
         <v>189</v>
       </c>
       <c r="B188" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="C188" t="b">
         <v>0</v>
@@ -3986,7 +4085,7 @@
         <v>190</v>
       </c>
       <c r="B189" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="C189" t="b">
         <v>0</v>
@@ -3997,7 +4096,7 @@
         <v>191</v>
       </c>
       <c r="B190" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="C190" t="b">
         <v>0</v>
@@ -4008,7 +4107,7 @@
         <v>192</v>
       </c>
       <c r="B191" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="C191" t="b">
         <v>0</v>
@@ -4019,7 +4118,7 @@
         <v>193</v>
       </c>
       <c r="B192" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="C192" t="b">
         <v>0</v>
@@ -4030,7 +4129,7 @@
         <v>194</v>
       </c>
       <c r="B193" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="C193" t="b">
         <v>0</v>
@@ -4041,7 +4140,7 @@
         <v>195</v>
       </c>
       <c r="B194" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="C194" t="b">
         <v>0</v>
@@ -4052,7 +4151,7 @@
         <v>196</v>
       </c>
       <c r="B195" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="C195" t="b">
         <v>0</v>
@@ -4063,7 +4162,7 @@
         <v>197</v>
       </c>
       <c r="B196" t="s">
-        <v>428</v>
+        <v>472</v>
       </c>
       <c r="C196" t="b">
         <v>0</v>
@@ -4074,7 +4173,7 @@
         <v>198</v>
       </c>
       <c r="B197" t="s">
-        <v>429</v>
+        <v>473</v>
       </c>
       <c r="C197" t="b">
         <v>0</v>
@@ -4085,7 +4184,7 @@
         <v>199</v>
       </c>
       <c r="B198" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C198" t="b">
         <v>0</v>
@@ -4096,7 +4195,7 @@
         <v>200</v>
       </c>
       <c r="B199" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C199" t="b">
         <v>0</v>
@@ -4107,7 +4206,7 @@
         <v>201</v>
       </c>
       <c r="B200" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="C200" t="b">
         <v>0</v>
@@ -4118,7 +4217,7 @@
         <v>202</v>
       </c>
       <c r="B201" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="C201" t="b">
         <v>0</v>
@@ -4129,7 +4228,7 @@
         <v>203</v>
       </c>
       <c r="B202" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="C202" t="b">
         <v>0</v>
@@ -4140,7 +4239,7 @@
         <v>204</v>
       </c>
       <c r="B203" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="C203" t="b">
         <v>0</v>
@@ -4151,7 +4250,7 @@
         <v>205</v>
       </c>
       <c r="B204" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="C204" t="b">
         <v>0</v>
@@ -4162,7 +4261,7 @@
         <v>206</v>
       </c>
       <c r="B205" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="C205" t="b">
         <v>0</v>
@@ -4173,7 +4272,7 @@
         <v>207</v>
       </c>
       <c r="B206" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="C206" t="b">
         <v>0</v>
@@ -4184,7 +4283,7 @@
         <v>208</v>
       </c>
       <c r="B207" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="C207" t="b">
         <v>0</v>
@@ -4195,7 +4294,7 @@
         <v>209</v>
       </c>
       <c r="B208" t="s">
-        <v>449</v>
+        <v>482</v>
       </c>
       <c r="C208" t="b">
         <v>0</v>
@@ -4206,7 +4305,7 @@
         <v>210</v>
       </c>
       <c r="B209" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
       <c r="C209" t="b">
         <v>0</v>
@@ -4217,7 +4316,7 @@
         <v>211</v>
       </c>
       <c r="B210" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
       <c r="C210" t="b">
         <v>0</v>
@@ -4228,7 +4327,7 @@
         <v>212</v>
       </c>
       <c r="B211" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="C211" t="b">
         <v>0</v>
@@ -4239,7 +4338,7 @@
         <v>213</v>
       </c>
       <c r="B212" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C212" t="b">
         <v>0</v>
@@ -4250,7 +4349,7 @@
         <v>214</v>
       </c>
       <c r="B213" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="C213" t="b">
         <v>0</v>
@@ -4261,7 +4360,7 @@
         <v>215</v>
       </c>
       <c r="B214" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="C214" t="b">
         <v>0</v>
@@ -4272,7 +4371,7 @@
         <v>216</v>
       </c>
       <c r="B215" t="s">
-        <v>321</v>
+        <v>487</v>
       </c>
       <c r="C215" t="b">
         <v>0</v>
@@ -4283,7 +4382,7 @@
         <v>217</v>
       </c>
       <c r="B216" t="s">
-        <v>322</v>
+        <v>481</v>
       </c>
       <c r="C216" t="b">
         <v>0</v>
@@ -4294,7 +4393,7 @@
         <v>218</v>
       </c>
       <c r="B217" t="s">
-        <v>323</v>
+        <v>488</v>
       </c>
       <c r="C217" t="b">
         <v>0</v>
@@ -4305,7 +4404,7 @@
         <v>219</v>
       </c>
       <c r="B218" t="s">
-        <v>324</v>
+        <v>489</v>
       </c>
       <c r="C218" t="b">
         <v>0</v>
@@ -4316,7 +4415,7 @@
         <v>220</v>
       </c>
       <c r="B219" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="C219" t="b">
         <v>0</v>
@@ -4327,7 +4426,7 @@
         <v>221</v>
       </c>
       <c r="B220" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="C220" t="b">
         <v>0</v>
@@ -4338,7 +4437,7 @@
         <v>222</v>
       </c>
       <c r="B221" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="C221" t="b">
         <v>0</v>
@@ -4349,7 +4448,7 @@
         <v>223</v>
       </c>
       <c r="B222" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="C222" t="b">
         <v>0</v>
@@ -4360,7 +4459,7 @@
         <v>224</v>
       </c>
       <c r="B223" t="s">
-        <v>467</v>
+        <v>344</v>
       </c>
       <c r="C223" t="b">
         <v>0</v>
@@ -4371,7 +4470,7 @@
         <v>225</v>
       </c>
       <c r="B224" t="s">
-        <v>466</v>
+        <v>345</v>
       </c>
       <c r="C224" t="b">
         <v>0</v>
@@ -4382,7 +4481,7 @@
         <v>226</v>
       </c>
       <c r="B225" t="s">
-        <v>468</v>
+        <v>346</v>
       </c>
       <c r="C225" t="b">
         <v>0</v>
@@ -4393,7 +4492,7 @@
         <v>227</v>
       </c>
       <c r="B226" t="s">
-        <v>469</v>
+        <v>347</v>
       </c>
       <c r="C226" t="b">
         <v>0</v>
@@ -4404,7 +4503,7 @@
         <v>228</v>
       </c>
       <c r="B227" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="C227" t="b">
         <v>0</v>
@@ -4415,7 +4514,7 @@
         <v>229</v>
       </c>
       <c r="B228" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="C228" t="b">
         <v>0</v>
@@ -4426,7 +4525,7 @@
         <v>230</v>
       </c>
       <c r="B229" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="C229" t="b">
         <v>0</v>
@@ -4437,7 +4536,7 @@
         <v>231</v>
       </c>
       <c r="B230" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="C230" t="b">
         <v>0</v>
@@ -4448,7 +4547,7 @@
         <v>232</v>
       </c>
       <c r="B231" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="C231" t="b">
         <v>0</v>
@@ -4459,7 +4558,7 @@
         <v>233</v>
       </c>
       <c r="B232" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="C232" t="b">
         <v>0</v>
@@ -4470,7 +4569,7 @@
         <v>234</v>
       </c>
       <c r="B233" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="C233" t="b">
         <v>0</v>
@@ -4481,7 +4580,7 @@
         <v>235</v>
       </c>
       <c r="B234" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="C234" t="b">
         <v>0</v>
@@ -4492,7 +4591,7 @@
         <v>236</v>
       </c>
       <c r="B235" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="C235" t="b">
         <v>0</v>
@@ -4503,7 +4602,7 @@
         <v>237</v>
       </c>
       <c r="B236" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="C236" t="b">
         <v>0</v>
@@ -4514,7 +4613,7 @@
         <v>238</v>
       </c>
       <c r="B237" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="C237" t="b">
         <v>0</v>
@@ -4525,7 +4624,7 @@
         <v>239</v>
       </c>
       <c r="B238" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="C238" t="b">
         <v>0</v>
@@ -4536,7 +4635,7 @@
         <v>240</v>
       </c>
       <c r="B239" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="C239" t="b">
         <v>0</v>
@@ -4547,7 +4646,7 @@
         <v>241</v>
       </c>
       <c r="B240" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="C240" t="b">
         <v>0</v>
@@ -4558,7 +4657,7 @@
         <v>242</v>
       </c>
       <c r="B241" t="s">
-        <v>428</v>
+        <v>503</v>
       </c>
       <c r="C241" t="b">
         <v>0</v>
@@ -4569,7 +4668,7 @@
         <v>243</v>
       </c>
       <c r="B242" t="s">
-        <v>429</v>
+        <v>504</v>
       </c>
       <c r="C242" t="b">
         <v>0</v>
@@ -4580,7 +4679,7 @@
         <v>244</v>
       </c>
       <c r="B243" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="C243" t="b">
         <v>0</v>
@@ -4591,7 +4690,7 @@
         <v>245</v>
       </c>
       <c r="B244" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="C244" t="b">
         <v>0</v>
@@ -4602,7 +4701,7 @@
         <v>246</v>
       </c>
       <c r="B245" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C245" t="b">
         <v>0</v>
@@ -4613,7 +4712,7 @@
         <v>247</v>
       </c>
       <c r="B246" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="C246" t="b">
         <v>0</v>
@@ -4624,7 +4723,7 @@
         <v>248</v>
       </c>
       <c r="B247" t="s">
-        <v>488</v>
+        <v>447</v>
       </c>
       <c r="C247" t="b">
         <v>0</v>
@@ -4635,7 +4734,7 @@
         <v>249</v>
       </c>
       <c r="B248" t="s">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="C248" t="b">
         <v>0</v>
@@ -4646,7 +4745,7 @@
         <v>250</v>
       </c>
       <c r="B249" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="C249" t="b">
         <v>0</v>
@@ -4657,7 +4756,7 @@
         <v>251</v>
       </c>
       <c r="B250" t="s">
-        <v>460</v>
+        <v>509</v>
       </c>
       <c r="C250" t="b">
         <v>0</v>
@@ -4668,7 +4767,7 @@
         <v>252</v>
       </c>
       <c r="B251" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="C251" t="b">
         <v>0</v>
@@ -4679,7 +4778,7 @@
         <v>253</v>
       </c>
       <c r="B252" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="C252" t="b">
         <v>0</v>
@@ -4690,7 +4789,7 @@
         <v>254</v>
       </c>
       <c r="B253" t="s">
-        <v>487</v>
+        <v>512</v>
       </c>
       <c r="C253" t="b">
         <v>0</v>
@@ -4701,7 +4800,7 @@
         <v>255</v>
       </c>
       <c r="B254" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="C254" t="b">
         <v>0</v>
@@ -4712,7 +4811,7 @@
         <v>256</v>
       </c>
       <c r="B255" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
       <c r="C255" t="b">
         <v>0</v>
@@ -4723,7 +4822,7 @@
         <v>257</v>
       </c>
       <c r="B256" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C256" t="b">
         <v>0</v>
@@ -4734,7 +4833,7 @@
         <v>258</v>
       </c>
       <c r="B257" t="s">
-        <v>493</v>
+        <v>515</v>
       </c>
       <c r="C257" t="b">
         <v>0</v>
@@ -4745,7 +4844,7 @@
         <v>259</v>
       </c>
       <c r="B258" t="s">
-        <v>494</v>
+        <v>363</v>
       </c>
       <c r="C258" t="b">
         <v>0</v>
@@ -4756,7 +4855,7 @@
         <v>260</v>
       </c>
       <c r="B259" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="C259" t="b">
         <v>0</v>
@@ -4767,7 +4866,7 @@
         <v>261</v>
       </c>
       <c r="B260" t="s">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="C260" t="b">
         <v>0</v>
@@ -4778,7 +4877,7 @@
         <v>262</v>
       </c>
       <c r="B261" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="C261" t="b">
         <v>0</v>
@@ -4789,7 +4888,7 @@
         <v>263</v>
       </c>
       <c r="B262" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="C262" t="b">
         <v>0</v>
@@ -4800,7 +4899,7 @@
         <v>264</v>
       </c>
       <c r="B263" t="s">
-        <v>360</v>
+        <v>513</v>
       </c>
       <c r="C263" t="b">
         <v>0</v>
@@ -4811,7 +4910,7 @@
         <v>265</v>
       </c>
       <c r="B264" t="s">
-        <v>361</v>
+        <v>514</v>
       </c>
       <c r="C264" t="b">
         <v>0</v>
@@ -4822,7 +4921,7 @@
         <v>266</v>
       </c>
       <c r="B265" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="C265" t="b">
         <v>0</v>
@@ -4833,7 +4932,7 @@
         <v>267</v>
       </c>
       <c r="B266" t="s">
-        <v>363</v>
+        <v>518</v>
       </c>
       <c r="C266" t="b">
         <v>0</v>
@@ -4844,7 +4943,7 @@
         <v>268</v>
       </c>
       <c r="B267" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="C267" t="b">
         <v>0</v>
@@ -4855,7 +4954,7 @@
         <v>269</v>
       </c>
       <c r="B268" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
       <c r="C268" t="b">
         <v>0</v>
@@ -4866,7 +4965,7 @@
         <v>270</v>
       </c>
       <c r="B269" t="s">
-        <v>500</v>
+        <v>521</v>
       </c>
       <c r="C269" t="b">
         <v>0</v>
@@ -4877,7 +4976,7 @@
         <v>271</v>
       </c>
       <c r="B270" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="C270" t="b">
         <v>0</v>
@@ -4888,7 +4987,7 @@
         <v>272</v>
       </c>
       <c r="B271" t="s">
-        <v>502</v>
+        <v>521</v>
       </c>
       <c r="C271" t="b">
         <v>0</v>
@@ -4899,7 +4998,7 @@
         <v>273</v>
       </c>
       <c r="B272" t="s">
-        <v>503</v>
+        <v>379</v>
       </c>
       <c r="C272" t="b">
         <v>0</v>
@@ -4910,7 +5009,7 @@
         <v>274</v>
       </c>
       <c r="B273" t="s">
-        <v>504</v>
+        <v>380</v>
       </c>
       <c r="C273" t="b">
         <v>0</v>
@@ -4921,7 +5020,7 @@
         <v>275</v>
       </c>
       <c r="B274" t="s">
-        <v>505</v>
+        <v>381</v>
       </c>
       <c r="C274" t="b">
         <v>0</v>
@@ -4932,7 +5031,7 @@
         <v>276</v>
       </c>
       <c r="B275" t="s">
-        <v>506</v>
+        <v>382</v>
       </c>
       <c r="C275" t="b">
         <v>0</v>
@@ -4943,7 +5042,7 @@
         <v>277</v>
       </c>
       <c r="B276" t="s">
-        <v>507</v>
+        <v>373</v>
       </c>
       <c r="C276" t="b">
         <v>0</v>
@@ -4954,7 +5053,7 @@
         <v>278</v>
       </c>
       <c r="B277" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="C277" t="b">
         <v>0</v>
@@ -4965,7 +5064,7 @@
         <v>279</v>
       </c>
       <c r="B278" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="C278" t="b">
         <v>0</v>
@@ -4976,7 +5075,7 @@
         <v>280</v>
       </c>
       <c r="B279" t="s">
-        <v>448</v>
+        <v>525</v>
       </c>
       <c r="C279" t="b">
         <v>0</v>
@@ -4987,7 +5086,7 @@
         <v>281</v>
       </c>
       <c r="B280" t="s">
-        <v>449</v>
+        <v>526</v>
       </c>
       <c r="C280" t="b">
         <v>0</v>
@@ -4998,7 +5097,7 @@
         <v>282</v>
       </c>
       <c r="B281" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="C281" t="b">
         <v>0</v>
@@ -5009,7 +5108,7 @@
         <v>283</v>
       </c>
       <c r="B282" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="C282" t="b">
         <v>0</v>
@@ -5020,9 +5119,218 @@
         <v>284</v>
       </c>
       <c r="B283" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="C283" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
+        <v>285</v>
+      </c>
+      <c r="B284" t="s">
+        <v>530</v>
+      </c>
+      <c r="C284" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
+        <v>286</v>
+      </c>
+      <c r="B285" t="s">
+        <v>531</v>
+      </c>
+      <c r="C285" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
+        <v>287</v>
+      </c>
+      <c r="B286" t="s">
+        <v>532</v>
+      </c>
+      <c r="C286" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" t="s">
+        <v>288</v>
+      </c>
+      <c r="B287" t="s">
+        <v>533</v>
+      </c>
+      <c r="C287" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" t="s">
+        <v>289</v>
+      </c>
+      <c r="B288" t="s">
+        <v>534</v>
+      </c>
+      <c r="C288" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" t="s">
+        <v>290</v>
+      </c>
+      <c r="B289" t="s">
+        <v>535</v>
+      </c>
+      <c r="C289" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" t="s">
+        <v>291</v>
+      </c>
+      <c r="B290" t="s">
+        <v>536</v>
+      </c>
+      <c r="C290" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" t="s">
+        <v>292</v>
+      </c>
+      <c r="B291" t="s">
+        <v>537</v>
+      </c>
+      <c r="C291" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" t="s">
+        <v>293</v>
+      </c>
+      <c r="B292" t="s">
+        <v>538</v>
+      </c>
+      <c r="C292" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" t="s">
+        <v>294</v>
+      </c>
+      <c r="B293" t="s">
+        <v>539</v>
+      </c>
+      <c r="C293" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" t="s">
+        <v>295</v>
+      </c>
+      <c r="B294" t="s">
+        <v>540</v>
+      </c>
+      <c r="C294" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" t="s">
+        <v>296</v>
+      </c>
+      <c r="B295" t="s">
+        <v>469</v>
+      </c>
+      <c r="C295" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" t="s">
+        <v>297</v>
+      </c>
+      <c r="B296" t="s">
+        <v>470</v>
+      </c>
+      <c r="C296" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" t="s">
+        <v>298</v>
+      </c>
+      <c r="B297" t="s">
+        <v>541</v>
+      </c>
+      <c r="C297" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" t="s">
+        <v>299</v>
+      </c>
+      <c r="B298" t="s">
+        <v>542</v>
+      </c>
+      <c r="C298" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" t="s">
+        <v>300</v>
+      </c>
+      <c r="B299" t="s">
+        <v>542</v>
+      </c>
+      <c r="C299" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" t="s">
+        <v>301</v>
+      </c>
+      <c r="B300" t="s">
+        <v>543</v>
+      </c>
+      <c r="C300" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" t="s">
+        <v>302</v>
+      </c>
+      <c r="B301" t="s">
+        <v>544</v>
+      </c>
+      <c r="C301" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" t="s">
+        <v>303</v>
+      </c>
+      <c r="B302" t="s">
+        <v>491</v>
+      </c>
+      <c r="C302" t="b">
         <v>0</v>
       </c>
     </row>
